--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514E81BC-31D2-4C02-AD68-1D5F00BCFB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ADF02E-5802-44DE-B869-E397EF706615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
   <si>
     <t>Código</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>EEB PROF ALEXANDRE SERGIO GODINHO</t>
+  </si>
+  <si>
+    <t>EEB PREF AVELINO MULLER</t>
+  </si>
+  <si>
+    <t>EEB DR ADERBAL RAMOS DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,15 +2704,105 @@
       <c r="B43">
         <v>2720</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>47</v>
+      </c>
+      <c r="J43">
+        <v>23</v>
+      </c>
+      <c r="K43">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>3000</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+      <c r="O43">
+        <v>555</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>2674</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+      <c r="I44">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>22</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>3550</v>
+      </c>
+      <c r="N44">
+        <v>592</v>
+      </c>
+      <c r="O44">
+        <v>585</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2739</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ADF02E-5802-44DE-B869-E397EF706615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF4DA5-C3D3-4321-B25A-055348B67875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="101">
   <si>
     <t>Código</t>
   </si>
@@ -223,13 +223,118 @@
   </si>
   <si>
     <t>EEB DR ADERBAL RAMOS DA SILVA</t>
+  </si>
+  <si>
+    <t>EEB PROF JOSE BRASILICIO</t>
+  </si>
+  <si>
+    <t>EEB PROF MARIA AMALIA CARDOSO</t>
+  </si>
+  <si>
+    <t>EEB ALTAMIRO GUIMARAES</t>
+  </si>
+  <si>
+    <t>EEB PROF ELOISA MARIA PRAZERES DE FARIA</t>
+  </si>
+  <si>
+    <t>EEB FRANCISCO TOLENTINO</t>
+  </si>
+  <si>
+    <t>EEB JOSE MATIAS ZIMMERMANN</t>
+  </si>
+  <si>
+    <t>EEB GAMA ROSA</t>
+  </si>
+  <si>
+    <t>EEB PROF JOAQUIM SANTIAGO</t>
+  </si>
+  <si>
+    <t>EEB PROF LAERCIO CALDEIRA DE ANDRADA</t>
+  </si>
+  <si>
+    <t>EEB PROF MARIA JOSE B VIEIRA</t>
+  </si>
+  <si>
+    <t>EEF PROF MARCILIA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>EEB NS DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>EEF DR HOMERO DE MIRANDA GOMES</t>
+  </si>
+  <si>
+    <t>EEB PROFA LAURITA DUTRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>EEB ALDO CAMARA DA SILVA</t>
+  </si>
+  <si>
+    <t>EEB PRES JUSCELINO KUBITSCHEK</t>
+  </si>
+  <si>
+    <t>EEB WANDERLEY JUNIOR</t>
+  </si>
+  <si>
+    <t>EEB VALDETE LUCI MARTINS PORTO</t>
+  </si>
+  <si>
+    <t>EEB PROF MARIA DO CARMO LOPES</t>
+  </si>
+  <si>
+    <t>EEB PROF OSWALDO RODRIGUES CABRAL</t>
+  </si>
+  <si>
+    <t>EEB CECILIA ROSA LOPES</t>
+  </si>
+  <si>
+    <t>EEB PROF AMERICO VESPUCIO PRATES</t>
+  </si>
+  <si>
+    <t>EEB JOAO SILVEIRA</t>
+  </si>
+  <si>
+    <t>EEB PROF URSULINA DE SENNA CASTRO</t>
+  </si>
+  <si>
+    <t>EEB VICENTE SILVEIRA</t>
+  </si>
+  <si>
+    <t>EEB PROF BENONIVIO JOAO MARTINS</t>
+  </si>
+  <si>
+    <t>EEB PROF NICOLINA TANCREDO</t>
+  </si>
+  <si>
+    <t>EEB PE VICENTE F CORDEIRO</t>
+  </si>
+  <si>
+    <t>EEB PROF CLAUDETE MARIA H DOMINGOS</t>
+  </si>
+  <si>
+    <t>EEB HENRIQUE ESTEFANO KOERICH</t>
+  </si>
+  <si>
+    <t>EEB PROF MARIA DO CARMO DE SOUZA</t>
+  </si>
+  <si>
+    <t>EEB GOV IVO SILVEIRA</t>
+  </si>
+  <si>
+    <t>EEB JOSE MARIA CARDOSO DA VEIGA</t>
+  </si>
+  <si>
+    <t>EEB SEN RENATO RAMOS DA SILVA</t>
+  </si>
+  <si>
+    <t>EEF VENCESLAU BUENO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +367,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,12 +401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,16 +741,17 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -664,29 +785,29 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -720,14 +841,14 @@
       <c r="K2">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,25 +880,28 @@
         <v>50</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
+        <v>2.87</v>
+      </c>
+      <c r="N3">
         <v>11300</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>818</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1215</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -812,22 +936,25 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0.76</v>
+      </c>
+      <c r="N4">
         <v>11050</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>560</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1065</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -862,22 +989,25 @@
         <v>4</v>
       </c>
       <c r="M5">
+        <v>4.21</v>
+      </c>
+      <c r="N5">
         <v>10150</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1219</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1455</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -912,25 +1042,28 @@
         <v>75</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
+        <v>0.92</v>
+      </c>
+      <c r="N6">
         <v>12000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>920</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1500</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -959,25 +1092,28 @@
         <v>50</v>
       </c>
       <c r="L7">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M7">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="N7">
         <v>2375</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>471</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2375</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1009,25 +1145,28 @@
         <v>75</v>
       </c>
       <c r="L8">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M8">
+        <v>553.92999999999995</v>
+      </c>
+      <c r="N8">
         <v>13950</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1996</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1995</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>68</v>
       </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1065,22 +1204,25 @@
         <v>2</v>
       </c>
       <c r="M9">
+        <v>3.28</v>
+      </c>
+      <c r="N9">
         <v>11725</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>982</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1530</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1118,22 +1260,25 @@
         <v>4</v>
       </c>
       <c r="M10">
+        <v>3.67</v>
+      </c>
+      <c r="N10">
         <v>12050</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1025</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1605</v>
       </c>
-      <c r="P10">
-        <v>17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1165,22 +1310,25 @@
         <v>0</v>
       </c>
       <c r="M11">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="N11">
         <v>600</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>200</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>180</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1218,22 +1366,25 @@
         <v>4</v>
       </c>
       <c r="M12">
+        <v>4.28</v>
+      </c>
+      <c r="N12">
         <v>9775</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>998</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1170</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>24</v>
       </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1265,22 +1416,25 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>1.36</v>
+      </c>
+      <c r="N13">
         <v>1175</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>225</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>240</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="Q13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1312,22 +1466,25 @@
         <v>4</v>
       </c>
       <c r="M14">
+        <v>4.33</v>
+      </c>
+      <c r="N14">
         <v>2800</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>532</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>480</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1359,22 +1516,25 @@
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0.03</v>
+      </c>
+      <c r="N15">
         <v>450</v>
-      </c>
-      <c r="N15">
-        <v>150</v>
       </c>
       <c r="O15">
         <v>150</v>
       </c>
       <c r="P15">
+        <v>150</v>
+      </c>
+      <c r="Q15">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1406,22 +1566,25 @@
         <v>0</v>
       </c>
       <c r="M16">
+        <v>0.05</v>
+      </c>
+      <c r="N16">
         <v>450</v>
-      </c>
-      <c r="N16">
-        <v>150</v>
       </c>
       <c r="O16">
         <v>150</v>
       </c>
       <c r="P16">
+        <v>150</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1456,22 +1619,25 @@
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0.4</v>
+      </c>
+      <c r="N17">
         <v>8125</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>491</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>765</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1509,22 +1675,25 @@
         <v>3</v>
       </c>
       <c r="M18">
+        <v>3.36</v>
+      </c>
+      <c r="N18">
         <v>9575</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1022</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1335</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>18</v>
       </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1559,22 +1728,25 @@
         <v>4</v>
       </c>
       <c r="M19">
+        <v>3.44</v>
+      </c>
+      <c r="N19">
         <v>5600</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>694</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>855</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>5</v>
       </c>
-      <c r="Q19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1612,22 +1784,25 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
         <v>5500</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>477</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>870</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1665,22 +1840,25 @@
         <v>0</v>
       </c>
       <c r="M21">
+        <v>0.35</v>
+      </c>
+      <c r="N21">
         <v>10825</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>661</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1620</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1715,22 +1893,25 @@
         <v>5</v>
       </c>
       <c r="M22">
+        <v>7.18</v>
+      </c>
+      <c r="N22">
         <v>7625</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>567</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1080</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="Q22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1765,22 +1946,25 @@
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0.26</v>
+      </c>
+      <c r="N23">
         <v>4300</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>359</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>540</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0</v>
       </c>
-      <c r="Q23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1812,22 +1996,25 @@
         <v>1</v>
       </c>
       <c r="M24">
+        <v>1.33</v>
+      </c>
+      <c r="N24">
         <v>2775</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>519</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>570</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1859,22 +2046,25 @@
         <v>3</v>
       </c>
       <c r="M25">
+        <v>3.43</v>
+      </c>
+      <c r="N25">
         <v>2350</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>450</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>465</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="Q25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1906,22 +2096,25 @@
         <v>4</v>
       </c>
       <c r="M26">
+        <v>5.38</v>
+      </c>
+      <c r="N26">
         <v>2700</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>548</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>570</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>7</v>
       </c>
-      <c r="Q26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1953,22 +2146,25 @@
         <v>6</v>
       </c>
       <c r="M27">
+        <v>7.2</v>
+      </c>
+      <c r="N27">
         <v>2025</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>425</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>510</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6</v>
       </c>
-      <c r="Q27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2000,22 +2196,25 @@
         <v>1</v>
       </c>
       <c r="M28">
+        <v>1.47</v>
+      </c>
+      <c r="N28">
         <v>2350</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>450</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>480</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2047,22 +2246,25 @@
         <v>30</v>
       </c>
       <c r="M29">
+        <v>29.98</v>
+      </c>
+      <c r="N29">
         <v>2750</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>557</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>585</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>19</v>
       </c>
-      <c r="Q29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2094,22 +2296,25 @@
         <v>0</v>
       </c>
       <c r="M30">
+        <v>0.03</v>
+      </c>
+      <c r="N30">
         <v>775</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>175</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>360</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2141,22 +2346,25 @@
         <v>2</v>
       </c>
       <c r="M31">
+        <v>2.27</v>
+      </c>
+      <c r="N31">
         <v>2625</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>575</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>540</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>13</v>
       </c>
-      <c r="Q31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2194,22 +2402,25 @@
         <v>0</v>
       </c>
       <c r="M32">
+        <v>0.88</v>
+      </c>
+      <c r="N32">
         <v>16275</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>785</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1560</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2244,22 +2455,25 @@
         <v>3</v>
       </c>
       <c r="M33">
+        <v>3.47</v>
+      </c>
+      <c r="N33">
         <v>15100</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>966</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1155</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2297,22 +2511,25 @@
         <v>30</v>
       </c>
       <c r="M34">
+        <v>31.92</v>
+      </c>
+      <c r="N34">
         <v>10075</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>896</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1515</v>
       </c>
-      <c r="P34">
-        <v>11</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>11</v>
+      </c>
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2344,22 +2561,25 @@
         <v>0</v>
       </c>
       <c r="M35">
+        <v>0.8</v>
+      </c>
+      <c r="N35">
         <v>525</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>175</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>165</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="Q35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2391,22 +2611,25 @@
         <v>0</v>
       </c>
       <c r="M36">
+        <v>0.02</v>
+      </c>
+      <c r="N36">
         <v>375</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>125</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>135</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0</v>
       </c>
-      <c r="Q36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2438,22 +2661,25 @@
         <v>0</v>
       </c>
       <c r="M37">
+        <v>0.03</v>
+      </c>
+      <c r="N37">
         <v>450</v>
-      </c>
-      <c r="N37">
-        <v>150</v>
       </c>
       <c r="O37">
         <v>150</v>
       </c>
       <c r="P37">
+        <v>150</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
       </c>
-      <c r="Q37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2485,22 +2711,25 @@
         <v>2</v>
       </c>
       <c r="M38">
+        <v>3.01</v>
+      </c>
+      <c r="N38">
         <v>600</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>200</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>180</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="Q38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2532,22 +2761,25 @@
         <v>0</v>
       </c>
       <c r="M39">
+        <v>0.12</v>
+      </c>
+      <c r="N39">
         <v>1175</v>
-      </c>
-      <c r="N39">
-        <v>225</v>
       </c>
       <c r="O39">
         <v>225</v>
       </c>
       <c r="P39">
+        <v>225</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="Q39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2585,22 +2817,25 @@
         <v>1</v>
       </c>
       <c r="M40">
+        <v>1.07</v>
+      </c>
+      <c r="N40">
         <v>20325</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>937</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1965</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0</v>
       </c>
-      <c r="Q40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2635,22 +2870,25 @@
         <v>1</v>
       </c>
       <c r="M41">
+        <v>1.03</v>
+      </c>
+      <c r="N41">
         <v>8375</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>597</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>855</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2682,22 +2920,25 @@
         <v>20</v>
       </c>
       <c r="M42">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="N42">
         <v>1800</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>600</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>480</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>45</v>
       </c>
-      <c r="Q42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2729,22 +2970,25 @@
         <v>28</v>
       </c>
       <c r="M43">
+        <v>26.38</v>
+      </c>
+      <c r="N43">
         <v>3000</v>
       </c>
-      <c r="N43">
-        <v>50</v>
-      </c>
       <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
         <v>555</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>3</v>
       </c>
-      <c r="Q43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2767,10 +3011,10 @@
         <v>11</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="J44">
         <v>22</v>
@@ -2779,48 +3023,404 @@
         <v>50</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>3550</v>
+        <v>0.45</v>
       </c>
       <c r="N44">
-        <v>592</v>
+        <v>9225</v>
       </c>
       <c r="O44">
-        <v>585</v>
+        <v>406</v>
       </c>
       <c r="P44">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>2739</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>26</v>
+      </c>
+      <c r="I45">
+        <v>47</v>
+      </c>
+      <c r="J45">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>15.42</v>
+      </c>
+      <c r="N45">
+        <v>3550</v>
+      </c>
+      <c r="O45">
+        <v>592</v>
+      </c>
+      <c r="P45">
+        <v>585</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2682</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>25</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N46">
+        <v>2150</v>
+      </c>
+      <c r="O46">
+        <v>144</v>
+      </c>
+      <c r="P46">
+        <v>210</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2895</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>48</v>
+      </c>
+      <c r="I47">
+        <v>125</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>75</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>13450</v>
+      </c>
+      <c r="O47">
+        <v>1168</v>
+      </c>
+      <c r="P47">
+        <v>1485</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2860</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>49</v>
+      </c>
+      <c r="I48">
+        <v>92</v>
+      </c>
+      <c r="J48">
+        <v>42</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>6.98</v>
+      </c>
+      <c r="N48">
+        <v>10475</v>
+      </c>
+      <c r="O48">
+        <v>1060</v>
+      </c>
+      <c r="P48">
+        <v>1140</v>
+      </c>
+      <c r="Q48">
+        <v>17</v>
+      </c>
+      <c r="R48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3271</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>36</v>
+      </c>
+      <c r="I49">
+        <v>106</v>
+      </c>
+      <c r="J49">
+        <v>34</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2.11</v>
+      </c>
+      <c r="N49">
+        <v>9250</v>
+      </c>
+      <c r="O49">
+        <v>791</v>
+      </c>
+      <c r="P49">
+        <v>930</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3301</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>29</v>
+      </c>
+      <c r="I50">
+        <v>94</v>
+      </c>
+      <c r="J50">
+        <v>28</v>
+      </c>
+      <c r="K50">
+        <v>75</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>6.83</v>
+      </c>
+      <c r="N50">
+        <v>4225</v>
+      </c>
+      <c r="O50">
+        <v>601</v>
+      </c>
+      <c r="P50">
+        <v>750</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3280</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>26</v>
+      </c>
+      <c r="I51">
+        <v>117</v>
+      </c>
+      <c r="J51">
+        <v>29</v>
+      </c>
+      <c r="K51">
+        <v>75</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>5.89</v>
+      </c>
+      <c r="N51">
+        <v>5475</v>
+      </c>
+      <c r="O51">
+        <v>616</v>
+      </c>
+      <c r="P51">
+        <v>930</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52">
-        <v>4510</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>3514</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2835,34 +3435,1651 @@
         <v>11</v>
       </c>
       <c r="H52">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I52">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="J52">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="K52">
         <v>75</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
+        <v>0.69</v>
+      </c>
+      <c r="N52">
+        <v>6450</v>
+      </c>
+      <c r="O52">
+        <v>602</v>
+      </c>
+      <c r="P52">
+        <v>930</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3549</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <v>164</v>
+      </c>
+      <c r="J53">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>75</v>
+      </c>
+      <c r="L53">
+        <v>150</v>
+      </c>
+      <c r="M53">
+        <v>149.66</v>
+      </c>
+      <c r="N53">
+        <v>16650</v>
+      </c>
+      <c r="O53">
+        <v>1112</v>
+      </c>
+      <c r="P53">
+        <v>1950</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3522</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>108</v>
+      </c>
+      <c r="J54">
+        <v>43</v>
+      </c>
+      <c r="K54">
+        <v>75</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0.92</v>
+      </c>
+      <c r="N54">
+        <v>14075</v>
+      </c>
+      <c r="O54">
+        <v>651</v>
+      </c>
+      <c r="P54">
+        <v>1365</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3719</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>27</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>4.68</v>
+      </c>
+      <c r="N55">
+        <v>3825</v>
+      </c>
+      <c r="O55">
+        <v>764</v>
+      </c>
+      <c r="P55">
+        <v>675</v>
+      </c>
+      <c r="Q55">
+        <v>23</v>
+      </c>
+      <c r="R55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3727</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>56</v>
+      </c>
+      <c r="I56">
+        <v>105</v>
+      </c>
+      <c r="J56">
+        <v>45</v>
+      </c>
+      <c r="K56">
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>5.66</v>
+      </c>
+      <c r="N56">
+        <v>11450</v>
+      </c>
+      <c r="O56">
+        <v>1044</v>
+      </c>
+      <c r="P56">
+        <v>1200</v>
+      </c>
+      <c r="Q56">
+        <v>14</v>
+      </c>
+      <c r="R56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3700</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>47</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3.56</v>
+      </c>
+      <c r="N57">
+        <v>2275</v>
+      </c>
+      <c r="O57">
+        <v>425</v>
+      </c>
+      <c r="P57">
+        <v>405</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3743</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>28</v>
+      </c>
+      <c r="I58">
+        <v>43</v>
+      </c>
+      <c r="J58">
+        <v>29</v>
+      </c>
+      <c r="K58">
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3.62</v>
+      </c>
+      <c r="N58">
+        <v>3400</v>
+      </c>
+      <c r="O58">
+        <v>661</v>
+      </c>
+      <c r="P58">
+        <v>690</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3751</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>24</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3.11</v>
+      </c>
+      <c r="N59">
+        <v>2800</v>
+      </c>
+      <c r="O59">
+        <v>606</v>
+      </c>
+      <c r="P59">
+        <v>585</v>
+      </c>
+      <c r="Q59">
+        <v>13</v>
+      </c>
+      <c r="R59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3832</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>53</v>
+      </c>
+      <c r="I60">
+        <v>153</v>
+      </c>
+      <c r="J60">
+        <v>62</v>
+      </c>
+      <c r="K60">
+        <v>75</v>
+      </c>
+      <c r="L60">
+        <v>76</v>
+      </c>
+      <c r="M60">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="N60">
+        <v>14075</v>
+      </c>
+      <c r="O60">
+        <v>1318</v>
+      </c>
+      <c r="P60">
+        <v>1890</v>
+      </c>
+      <c r="Q60">
+        <v>19</v>
+      </c>
+      <c r="R60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3816</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>57</v>
+      </c>
+      <c r="I61">
+        <v>108</v>
+      </c>
+      <c r="J61">
+        <v>59</v>
+      </c>
+      <c r="K61">
+        <v>75</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0.78</v>
+      </c>
+      <c r="N61">
+        <v>19225</v>
+      </c>
+      <c r="O61">
+        <v>947</v>
+      </c>
+      <c r="P61">
+        <v>1920</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3786</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>48</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>50</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N62">
+        <v>2075</v>
+      </c>
+      <c r="O62">
+        <v>366</v>
+      </c>
+      <c r="P62">
+        <v>375</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3840</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>34</v>
+      </c>
+      <c r="I63">
+        <v>160</v>
+      </c>
+      <c r="J63">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>75</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N63">
+        <v>11350</v>
+      </c>
+      <c r="O63">
+        <v>870</v>
+      </c>
+      <c r="P63">
+        <v>1170</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3867</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>32</v>
+      </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
+      <c r="L64">
+        <v>30</v>
+      </c>
+      <c r="M64">
+        <v>33.76</v>
+      </c>
+      <c r="N64">
+        <v>3825</v>
+      </c>
+      <c r="O64">
+        <v>787</v>
+      </c>
+      <c r="P64">
+        <v>750</v>
+      </c>
+      <c r="Q64">
+        <v>16</v>
+      </c>
+      <c r="R64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3883</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>114</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+      <c r="K65">
+        <v>75</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0.94</v>
+      </c>
+      <c r="N65">
+        <v>20450</v>
+      </c>
+      <c r="O65">
+        <v>1025</v>
+      </c>
+      <c r="P65">
+        <v>1605</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>3859</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>48</v>
+      </c>
+      <c r="J66">
+        <v>17</v>
+      </c>
+      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1.31</v>
+      </c>
+      <c r="N66">
+        <v>2300</v>
+      </c>
+      <c r="O66">
+        <v>441</v>
+      </c>
+      <c r="P66">
+        <v>435</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4022</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>22</v>
+      </c>
+      <c r="I67">
+        <v>47</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>5.81</v>
+      </c>
+      <c r="N67">
+        <v>2900</v>
+      </c>
+      <c r="O67">
+        <v>550</v>
+      </c>
+      <c r="P67">
+        <v>510</v>
+      </c>
+      <c r="Q67">
+        <v>10</v>
+      </c>
+      <c r="R67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4030</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>45</v>
+      </c>
+      <c r="I68">
+        <v>125</v>
+      </c>
+      <c r="J68">
+        <v>47</v>
+      </c>
+      <c r="K68">
+        <v>75</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>7.03</v>
+      </c>
+      <c r="N68">
+        <v>11175</v>
+      </c>
+      <c r="O68">
+        <v>1038</v>
+      </c>
+      <c r="P68">
+        <v>1440</v>
+      </c>
+      <c r="Q68">
+        <v>16</v>
+      </c>
+      <c r="R68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4057</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="I69">
+        <v>47</v>
+      </c>
+      <c r="J69">
+        <v>23</v>
+      </c>
+      <c r="K69">
+        <v>50</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="N69">
+        <v>3425</v>
+      </c>
+      <c r="O69">
+        <v>600</v>
+      </c>
+      <c r="P69">
+        <v>600</v>
+      </c>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4049</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>56</v>
+      </c>
+      <c r="I70">
+        <v>153</v>
+      </c>
+      <c r="J70">
+        <v>56</v>
+      </c>
+      <c r="K70">
+        <v>75</v>
+      </c>
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>6.6</v>
+      </c>
+      <c r="N70">
+        <v>11600</v>
+      </c>
+      <c r="O70">
+        <v>1219</v>
+      </c>
+      <c r="P70">
+        <v>1650</v>
+      </c>
+      <c r="Q70">
+        <v>30</v>
+      </c>
+      <c r="R70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4219</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>67</v>
+      </c>
+      <c r="I71">
+        <v>105</v>
+      </c>
+      <c r="J71">
+        <v>66</v>
+      </c>
+      <c r="K71">
+        <v>75</v>
+      </c>
+      <c r="L71">
+        <v>11</v>
+      </c>
+      <c r="M71">
+        <v>11.71</v>
+      </c>
+      <c r="N71">
+        <v>10950</v>
+      </c>
+      <c r="O71">
+        <v>1479</v>
+      </c>
+      <c r="P71">
+        <v>1650</v>
+      </c>
+      <c r="Q71">
+        <v>35</v>
+      </c>
+      <c r="R71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4200</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>140</v>
+      </c>
+      <c r="J72">
+        <v>53</v>
+      </c>
+      <c r="K72">
+        <v>75</v>
+      </c>
+      <c r="L72">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <v>6.6</v>
+      </c>
+      <c r="N72">
+        <v>15925</v>
+      </c>
+      <c r="O72">
+        <v>1298</v>
+      </c>
+      <c r="P72">
+        <v>1665</v>
+      </c>
+      <c r="Q72">
+        <v>13</v>
+      </c>
+      <c r="R72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4227</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>43</v>
+      </c>
+      <c r="I73">
+        <v>145</v>
+      </c>
+      <c r="J73">
+        <v>41</v>
+      </c>
+      <c r="K73">
+        <v>75</v>
+      </c>
+      <c r="L73">
+        <v>8</v>
+      </c>
+      <c r="M73">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="N73">
+        <v>7950</v>
+      </c>
+      <c r="O73">
+        <v>931</v>
+      </c>
+      <c r="P73">
+        <v>1215</v>
+      </c>
+      <c r="Q73">
+        <v>17</v>
+      </c>
+      <c r="R73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4332</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>46</v>
+      </c>
+      <c r="I74">
+        <v>146</v>
+      </c>
+      <c r="J74">
+        <v>37</v>
+      </c>
+      <c r="K74">
+        <v>75</v>
+      </c>
+      <c r="L74">
+        <v>150</v>
+      </c>
+      <c r="M74">
+        <v>153.59</v>
+      </c>
+      <c r="N74">
+        <v>10000</v>
+      </c>
+      <c r="O74">
+        <v>911</v>
+      </c>
+      <c r="P74">
+        <v>1230</v>
+      </c>
+      <c r="Q74">
+        <v>12</v>
+      </c>
+      <c r="R74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4340</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>44</v>
+      </c>
+      <c r="J75">
+        <v>24</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N75">
+        <v>3025</v>
+      </c>
+      <c r="O75">
+        <v>567</v>
+      </c>
+      <c r="P75">
+        <v>540</v>
+      </c>
+      <c r="Q75">
+        <v>13</v>
+      </c>
+      <c r="R75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4359</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>38</v>
+      </c>
+      <c r="I76">
+        <v>48</v>
+      </c>
+      <c r="J76">
+        <v>34</v>
+      </c>
+      <c r="K76">
+        <v>50</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>5.39</v>
+      </c>
+      <c r="N76">
+        <v>4750</v>
+      </c>
+      <c r="O76">
+        <v>932</v>
+      </c>
+      <c r="P76">
+        <v>915</v>
+      </c>
+      <c r="Q76">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4383</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77">
+        <v>48</v>
+      </c>
+      <c r="I77">
+        <v>127</v>
+      </c>
+      <c r="J77">
+        <v>44</v>
+      </c>
+      <c r="K77">
+        <v>75</v>
+      </c>
+      <c r="L77">
+        <v>8</v>
+      </c>
+      <c r="M77">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N77">
+        <v>14150</v>
+      </c>
+      <c r="O77">
+        <v>1177</v>
+      </c>
+      <c r="P77">
+        <v>1500</v>
+      </c>
+      <c r="Q77">
+        <v>11</v>
+      </c>
+      <c r="R77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4502</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78">
+        <v>87</v>
+      </c>
+      <c r="I78">
+        <v>122</v>
+      </c>
+      <c r="J78">
+        <v>75</v>
+      </c>
+      <c r="K78">
+        <v>75</v>
+      </c>
+      <c r="R78" t="s">
+        <v>48</v>
+      </c>
+      <c r="S78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4510</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79">
+        <v>57</v>
+      </c>
+      <c r="I79">
+        <v>113</v>
+      </c>
+      <c r="J79">
+        <v>71</v>
+      </c>
+      <c r="K79">
+        <v>75</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1.34</v>
+      </c>
+      <c r="N79">
         <v>29625</v>
       </c>
-      <c r="N52">
+      <c r="O79">
         <v>1434</v>
       </c>
-      <c r="O52">
+      <c r="P79">
         <v>2385</v>
       </c>
-      <c r="P52">
+      <c r="Q79">
         <v>0</v>
       </c>
-      <c r="Q52" t="s">
-        <v>17</v>
+      <c r="R79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4537</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80">
+        <v>49</v>
+      </c>
+      <c r="I80">
+        <v>158</v>
+      </c>
+      <c r="J80">
+        <v>55</v>
+      </c>
+      <c r="K80">
+        <v>75</v>
+      </c>
+      <c r="R80" t="s">
+        <v>48</v>
+      </c>
+      <c r="S80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4545</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>46</v>
+      </c>
+      <c r="I81">
+        <v>48</v>
+      </c>
+      <c r="J81">
+        <v>35</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>15</v>
+      </c>
+      <c r="M81">
+        <v>15.89</v>
+      </c>
+      <c r="N81">
+        <v>5600</v>
+      </c>
+      <c r="O81">
+        <v>1132</v>
+      </c>
+      <c r="P81">
+        <v>990</v>
+      </c>
+      <c r="Q81">
+        <v>31</v>
+      </c>
+      <c r="R81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4553</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82">
+        <v>51</v>
+      </c>
+      <c r="I82">
+        <v>48</v>
+      </c>
+      <c r="J82">
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>62</v>
+      </c>
+      <c r="M82">
+        <v>63.97</v>
+      </c>
+      <c r="N82">
+        <v>7100</v>
+      </c>
+      <c r="O82">
+        <v>1257</v>
+      </c>
+      <c r="P82">
+        <v>1215</v>
+      </c>
+      <c r="Q82">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF4DA5-C3D3-4321-B25A-055348B67875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B5427-D1A2-430B-88C0-3E0D105A87D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,38 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="149">
   <si>
     <t>Código</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Matutino</t>
-  </si>
-  <si>
-    <t>Vespertino</t>
-  </si>
-  <si>
-    <t>Noturno</t>
-  </si>
-  <si>
-    <t>Integral</t>
-  </si>
-  <si>
-    <t>Total variável X</t>
-  </si>
-  <si>
     <t>X setado</t>
   </si>
   <si>
-    <t>Total variável Y</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
     <t>Observação</t>
   </si>
   <si>
@@ -96,9 +72,6 @@
     <t>EEB INTENDENTE JOSE FERNANDES</t>
   </si>
   <si>
-    <t>T. processamento [s]</t>
-  </si>
-  <si>
     <t>EEB SIMAO JOSE HESS</t>
   </si>
   <si>
@@ -108,9 +81,6 @@
     <t>EEB PROF LAURA LIMA</t>
   </si>
   <si>
-    <t>Y setado / janelas</t>
-  </si>
-  <si>
     <t>EEF GEN JOSE VIEIRA DA ROSA</t>
   </si>
   <si>
@@ -174,9 +144,6 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>Ordem</t>
-  </si>
-  <si>
     <t>Problema na entrada de dados</t>
   </si>
   <si>
@@ -328,13 +295,190 @@
   </si>
   <si>
     <t>EEF VENCESLAU BUENO</t>
+  </si>
+  <si>
+    <t>EEB CEL ANTONIO LEHMKUHL</t>
+  </si>
+  <si>
+    <t>EEB CONSELHEIRO MANOEL PHILIPPI</t>
+  </si>
+  <si>
+    <t>EEB NOSSA SENHORA</t>
+  </si>
+  <si>
+    <t>EEB NORBERTO TEODORO DE MELO</t>
+  </si>
+  <si>
+    <t>EEB ALTINO FLORES</t>
+  </si>
+  <si>
+    <t>EEB SAO TARCISIO</t>
+  </si>
+  <si>
+    <t>EEB ANISIO V DE FREITAS</t>
+  </si>
+  <si>
+    <t>EEB PROF SILVEIRA DE MATOS</t>
+  </si>
+  <si>
+    <t>EEB MARILDA LENIA ARAUJO</t>
+  </si>
+  <si>
+    <t>EEB ROBERTO SCHUTZ</t>
+  </si>
+  <si>
+    <t>EEB JACÓ ANDERLE</t>
+  </si>
+  <si>
+    <t>EEB NEREU RAMOS</t>
+  </si>
+  <si>
+    <t>EEB PROF ZULMA BECKER</t>
+  </si>
+  <si>
+    <t>EEM HENRIQUE VERAS</t>
+  </si>
+  <si>
+    <t>EEB BELA VISTA</t>
+  </si>
+  <si>
+    <t>EEF SAO MIGUEL</t>
+  </si>
+  <si>
+    <t>EEB AMERICA DUTRA MACHADO</t>
+  </si>
+  <si>
+    <t>EEF CRISTO REI</t>
+  </si>
+  <si>
+    <t>EEB GOV PEDRO IVO FIGUEIREDO DE CAMPOS</t>
+  </si>
+  <si>
+    <t>EIEF KAAKUPE</t>
+  </si>
+  <si>
+    <t>EIEB ITATY</t>
+  </si>
+  <si>
+    <t>EEB DR PAULO FONTES</t>
+  </si>
+  <si>
+    <t>EEBI WHERA TUPA POTY DJA</t>
+  </si>
+  <si>
+    <t>EEM PREF ACACIO GARIBALDI SAO THIAGO</t>
+  </si>
+  <si>
+    <t>UD QUILOMBOLA VIDAL MARTINS</t>
+  </si>
+  <si>
+    <t>UD QUILOMBOLA MORRO DA QUEIMADA</t>
+  </si>
+  <si>
+    <t>EEB PROFESSOR ANGELO CASCAES TANCREDO</t>
+  </si>
+  <si>
+    <t>EEM VER OSCAR MANOEL DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>UD DE SANTO AMARO DA IMPERATRIZ</t>
+  </si>
+  <si>
+    <t>UD PRESIDIO MASCULINO DE FLORIANÓPOLIS</t>
+  </si>
+  <si>
+    <t>UD COMPLEXO PENITENCIARIO DE FLORIANOPOLIS</t>
+  </si>
+  <si>
+    <t>UD COMPLEXO PENIT DE SÃO PEDRO DE ALCÂNTARA</t>
+  </si>
+  <si>
+    <t>UD DE GOVERNADOR CELSO RAMOS</t>
+  </si>
+  <si>
+    <t>UD COLONIA PENAL AGRICOLA DE PALHOÇA</t>
+  </si>
+  <si>
+    <t>UD DE PALHOÇA</t>
+  </si>
+  <si>
+    <t>UD DE BIGUAÇU</t>
+  </si>
+  <si>
+    <t>EIEB TAGUATO</t>
+  </si>
+  <si>
+    <t>UD DE ANITAPOLIS</t>
+  </si>
+  <si>
+    <t>EIEF PIRA RUPA</t>
+  </si>
+  <si>
+    <t>CEJA DE SAO JOSE</t>
+  </si>
+  <si>
+    <t>CEDUP DR JORGE LACERDA</t>
+  </si>
+  <si>
+    <t>CEJA DE FLORIANOPOLIS</t>
+  </si>
+  <si>
+    <t>EIEF TEKOA YAKA PORÃ</t>
+  </si>
+  <si>
+    <t>UD HOSPITAL DE CUSTÓDIA E TRATAMENTO PSICOLOGICO</t>
+  </si>
+  <si>
+    <t>UD PRESIDIO FEMININO DE FLORIANOPOLIS</t>
+  </si>
+  <si>
+    <t>EIEF NHAMANDU</t>
+  </si>
+  <si>
+    <t>UD QUILOMBOLA CALDAS DO CUBATÃO</t>
+  </si>
+  <si>
+    <t>UD PRESÍDIO DE BIGUAÇU</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>VESP</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>T. proc. [s]</t>
+  </si>
+  <si>
+    <t>Total var X</t>
+  </si>
+  <si>
+    <t>Total var Y</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Ord</t>
+  </si>
+  <si>
+    <t>Nome instituição</t>
+  </si>
+  <si>
+    <t>Y set / janelas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +524,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -409,6 +560,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,91 +876,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -815,19 +967,19 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>382</v>
@@ -841,14 +993,14 @@
       <c r="K2">
         <v>75</v>
       </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
       <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -856,16 +1008,16 @@
         <v>698</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -880,28 +1032,25 @@
         <v>50</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="M3">
-        <v>2.87</v>
+        <v>11300</v>
       </c>
       <c r="N3">
-        <v>11300</v>
+        <v>818</v>
       </c>
       <c r="O3">
-        <v>818</v>
+        <v>1215</v>
       </c>
       <c r="P3">
-        <v>1215</v>
-      </c>
-      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -909,16 +1058,16 @@
         <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -933,28 +1082,25 @@
         <v>50</v>
       </c>
       <c r="L4">
+        <v>0.76</v>
+      </c>
+      <c r="M4">
+        <v>11050</v>
+      </c>
+      <c r="N4">
+        <v>560</v>
+      </c>
+      <c r="O4">
+        <v>1065</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0.76</v>
-      </c>
-      <c r="N4">
-        <v>11050</v>
-      </c>
-      <c r="O4">
-        <v>560</v>
-      </c>
-      <c r="P4">
-        <v>1065</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -962,16 +1108,16 @@
         <v>701</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -986,28 +1132,25 @@
         <v>50</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>4.21</v>
       </c>
       <c r="M5">
-        <v>4.21</v>
+        <v>10150</v>
       </c>
       <c r="N5">
-        <v>10150</v>
+        <v>1219</v>
       </c>
       <c r="O5">
-        <v>1219</v>
+        <v>1455</v>
       </c>
       <c r="P5">
-        <v>1455</v>
-      </c>
-      <c r="Q5">
         <v>26</v>
       </c>
-      <c r="R5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1015,19 +1158,19 @@
         <v>710</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>48</v>
@@ -1042,28 +1185,25 @@
         <v>75</v>
       </c>
       <c r="L6">
+        <v>0.92</v>
+      </c>
+      <c r="M6">
+        <v>12000</v>
+      </c>
+      <c r="N6">
+        <v>920</v>
+      </c>
+      <c r="O6">
+        <v>1500</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0.92</v>
-      </c>
-      <c r="N6">
-        <v>12000</v>
-      </c>
-      <c r="O6">
-        <v>920</v>
-      </c>
-      <c r="P6">
-        <v>1500</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1071,13 +1211,13 @@
         <v>744</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -1092,28 +1232,25 @@
         <v>50</v>
       </c>
       <c r="L7">
-        <v>155</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="M7">
-        <v>158.80000000000001</v>
+        <v>2375</v>
       </c>
       <c r="N7">
+        <v>471</v>
+      </c>
+      <c r="O7">
         <v>2375</v>
       </c>
-      <c r="O7">
-        <v>471</v>
-      </c>
       <c r="P7">
-        <v>2375</v>
-      </c>
-      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="R7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1121,16 +1258,16 @@
         <v>949</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>82</v>
@@ -1145,28 +1282,25 @@
         <v>75</v>
       </c>
       <c r="L8">
-        <v>545</v>
+        <v>553.92999999999995</v>
       </c>
       <c r="M8">
-        <v>553.92999999999995</v>
+        <v>13950</v>
       </c>
       <c r="N8">
-        <v>13950</v>
+        <v>1996</v>
       </c>
       <c r="O8">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="P8">
-        <v>1995</v>
-      </c>
-      <c r="Q8">
         <v>68</v>
       </c>
-      <c r="R8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1174,19 +1308,19 @@
         <v>1082</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>43</v>
@@ -1201,28 +1335,25 @@
         <v>75</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3.28</v>
       </c>
       <c r="M9">
-        <v>3.28</v>
+        <v>11725</v>
       </c>
       <c r="N9">
-        <v>11725</v>
+        <v>982</v>
       </c>
       <c r="O9">
-        <v>982</v>
+        <v>1530</v>
       </c>
       <c r="P9">
-        <v>1530</v>
-      </c>
-      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,19 +1361,19 @@
         <v>1120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>46</v>
@@ -1257,28 +1388,25 @@
         <v>75</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="M10">
-        <v>3.67</v>
+        <v>12050</v>
       </c>
       <c r="N10">
-        <v>12050</v>
+        <v>1025</v>
       </c>
       <c r="O10">
-        <v>1025</v>
+        <v>1605</v>
       </c>
       <c r="P10">
-        <v>1605</v>
-      </c>
-      <c r="Q10">
         <v>17</v>
       </c>
-      <c r="R10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1286,13 +1414,13 @@
         <v>1317</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>8</v>
@@ -1307,28 +1435,25 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M11">
-        <v>4.4800000000000004</v>
+        <v>600</v>
       </c>
       <c r="N11">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O11">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P11">
-        <v>180</v>
-      </c>
-      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1336,19 +1461,19 @@
         <v>1287</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>49</v>
@@ -1363,28 +1488,25 @@
         <v>75</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>4.28</v>
       </c>
       <c r="M12">
-        <v>4.28</v>
+        <v>9775</v>
       </c>
       <c r="N12">
-        <v>9775</v>
+        <v>998</v>
       </c>
       <c r="O12">
-        <v>998</v>
+        <v>1170</v>
       </c>
       <c r="P12">
-        <v>1170</v>
-      </c>
-      <c r="Q12">
         <v>24</v>
       </c>
-      <c r="R12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1392,13 +1514,13 @@
         <v>1309</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>9</v>
@@ -1413,28 +1535,25 @@
         <v>50</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M13">
-        <v>1.36</v>
+        <v>1175</v>
       </c>
       <c r="N13">
-        <v>1175</v>
+        <v>225</v>
       </c>
       <c r="O13">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P13">
-        <v>240</v>
-      </c>
-      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="R13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1442,13 +1561,13 @@
         <v>1341</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>22</v>
@@ -1463,28 +1582,25 @@
         <v>50</v>
       </c>
       <c r="L14">
+        <v>4.33</v>
+      </c>
+      <c r="M14">
+        <v>2800</v>
+      </c>
+      <c r="N14">
+        <v>532</v>
+      </c>
+      <c r="O14">
+        <v>480</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>4.33</v>
-      </c>
-      <c r="N14">
-        <v>2800</v>
-      </c>
-      <c r="O14">
-        <v>532</v>
-      </c>
-      <c r="P14">
-        <v>480</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1492,13 +1608,13 @@
         <v>1295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1513,28 +1629,25 @@
         <v>50</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M15">
-        <v>0.03</v>
+        <v>450</v>
       </c>
       <c r="N15">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="O15">
         <v>150</v>
       </c>
       <c r="P15">
-        <v>150</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1542,13 +1655,13 @@
         <v>1325</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -1563,28 +1676,25 @@
         <v>50</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M16">
-        <v>0.05</v>
+        <v>450</v>
       </c>
       <c r="N16">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="O16">
         <v>150</v>
       </c>
       <c r="P16">
-        <v>150</v>
-      </c>
-      <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1592,16 +1702,16 @@
         <v>1406</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>34</v>
@@ -1616,28 +1726,25 @@
         <v>50</v>
       </c>
       <c r="L17">
+        <v>0.4</v>
+      </c>
+      <c r="M17">
+        <v>8125</v>
+      </c>
+      <c r="N17">
+        <v>491</v>
+      </c>
+      <c r="O17">
+        <v>765</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0.4</v>
-      </c>
-      <c r="N17">
-        <v>8125</v>
-      </c>
-      <c r="O17">
-        <v>491</v>
-      </c>
-      <c r="P17">
-        <v>765</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1645,19 +1752,19 @@
         <v>1414</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>49</v>
@@ -1672,28 +1779,25 @@
         <v>75</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="M18">
-        <v>3.36</v>
+        <v>9575</v>
       </c>
       <c r="N18">
-        <v>9575</v>
+        <v>1022</v>
       </c>
       <c r="O18">
-        <v>1022</v>
+        <v>1335</v>
       </c>
       <c r="P18">
-        <v>1335</v>
-      </c>
-      <c r="Q18">
         <v>18</v>
       </c>
-      <c r="R18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1701,16 +1805,16 @@
         <v>1350</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -1725,28 +1829,25 @@
         <v>75</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.44</v>
       </c>
       <c r="M19">
-        <v>3.44</v>
+        <v>5600</v>
       </c>
       <c r="N19">
-        <v>5600</v>
+        <v>694</v>
       </c>
       <c r="O19">
-        <v>694</v>
+        <v>855</v>
       </c>
       <c r="P19">
-        <v>855</v>
-      </c>
-      <c r="Q19">
         <v>5</v>
       </c>
-      <c r="R19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1754,19 +1855,19 @@
         <v>1503</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -1781,28 +1882,25 @@
         <v>75</v>
       </c>
       <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>5500</v>
+      </c>
+      <c r="N20">
+        <v>477</v>
+      </c>
+      <c r="O20">
+        <v>870</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0.5</v>
-      </c>
-      <c r="N20">
-        <v>5500</v>
-      </c>
-      <c r="O20">
-        <v>477</v>
-      </c>
-      <c r="P20">
-        <v>870</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1810,19 +1908,19 @@
         <v>1759</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>55</v>
@@ -1837,28 +1935,25 @@
         <v>75</v>
       </c>
       <c r="L21">
+        <v>0.35</v>
+      </c>
+      <c r="M21">
+        <v>10825</v>
+      </c>
+      <c r="N21">
+        <v>661</v>
+      </c>
+      <c r="O21">
+        <v>1620</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0.35</v>
-      </c>
-      <c r="N21">
-        <v>10825</v>
-      </c>
-      <c r="O21">
-        <v>661</v>
-      </c>
-      <c r="P21">
-        <v>1620</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1866,16 +1961,16 @@
         <v>1767</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>26</v>
@@ -1890,28 +1985,25 @@
         <v>50</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>7.18</v>
       </c>
       <c r="M22">
-        <v>7.18</v>
+        <v>7625</v>
       </c>
       <c r="N22">
-        <v>7625</v>
+        <v>567</v>
       </c>
       <c r="O22">
-        <v>567</v>
+        <v>1080</v>
       </c>
       <c r="P22">
-        <v>1080</v>
-      </c>
-      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="R22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1919,16 +2011,16 @@
         <v>1457</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>17</v>
@@ -1943,28 +2035,25 @@
         <v>50</v>
       </c>
       <c r="L23">
+        <v>0.26</v>
+      </c>
+      <c r="M23">
+        <v>4300</v>
+      </c>
+      <c r="N23">
+        <v>359</v>
+      </c>
+      <c r="O23">
+        <v>540</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0.26</v>
-      </c>
-      <c r="N23">
-        <v>4300</v>
-      </c>
-      <c r="O23">
-        <v>359</v>
-      </c>
-      <c r="P23">
-        <v>540</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1972,13 +2061,13 @@
         <v>1783</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>21</v>
@@ -1993,28 +2082,25 @@
         <v>50</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="M24">
-        <v>1.33</v>
+        <v>2775</v>
       </c>
       <c r="N24">
-        <v>2775</v>
+        <v>519</v>
       </c>
       <c r="O24">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="P24">
-        <v>570</v>
-      </c>
-      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2022,13 +2108,13 @@
         <v>1791</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>18</v>
@@ -2043,28 +2129,25 @@
         <v>50</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="M25">
-        <v>3.43</v>
+        <v>2350</v>
       </c>
       <c r="N25">
-        <v>2350</v>
+        <v>450</v>
       </c>
       <c r="O25">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="P25">
-        <v>465</v>
-      </c>
-      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="R25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2072,13 +2155,13 @@
         <v>2054</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>23</v>
@@ -2093,28 +2176,25 @@
         <v>50</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>5.38</v>
       </c>
       <c r="M26">
-        <v>5.38</v>
+        <v>2700</v>
       </c>
       <c r="N26">
-        <v>2700</v>
+        <v>548</v>
       </c>
       <c r="O26">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="P26">
-        <v>570</v>
-      </c>
-      <c r="Q26">
         <v>7</v>
       </c>
-      <c r="R26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2122,13 +2202,13 @@
         <v>1805</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -2143,28 +2223,25 @@
         <v>50</v>
       </c>
       <c r="L27">
+        <v>7.2</v>
+      </c>
+      <c r="M27">
+        <v>2025</v>
+      </c>
+      <c r="N27">
+        <v>425</v>
+      </c>
+      <c r="O27">
+        <v>510</v>
+      </c>
+      <c r="P27">
         <v>6</v>
       </c>
-      <c r="M27">
-        <v>7.2</v>
-      </c>
-      <c r="N27">
-        <v>2025</v>
-      </c>
-      <c r="O27">
-        <v>425</v>
-      </c>
-      <c r="P27">
-        <v>510</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-      <c r="R27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2172,13 +2249,13 @@
         <v>1830</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>18</v>
@@ -2193,28 +2270,25 @@
         <v>50</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="M28">
-        <v>1.47</v>
+        <v>2350</v>
       </c>
       <c r="N28">
-        <v>2350</v>
+        <v>450</v>
       </c>
       <c r="O28">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="P28">
-        <v>480</v>
-      </c>
-      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2222,13 +2296,13 @@
         <v>2062</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>23</v>
@@ -2243,28 +2317,25 @@
         <v>50</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="M29">
-        <v>29.98</v>
+        <v>2750</v>
       </c>
       <c r="N29">
-        <v>2750</v>
+        <v>557</v>
       </c>
       <c r="O29">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="P29">
-        <v>585</v>
-      </c>
-      <c r="Q29">
         <v>19</v>
       </c>
-      <c r="R29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2272,13 +2343,13 @@
         <v>1813</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -2293,28 +2364,25 @@
         <v>50</v>
       </c>
       <c r="L30">
+        <v>0.03</v>
+      </c>
+      <c r="M30">
+        <v>775</v>
+      </c>
+      <c r="N30">
+        <v>175</v>
+      </c>
+      <c r="O30">
+        <v>360</v>
+      </c>
+      <c r="P30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0.03</v>
-      </c>
-      <c r="N30">
-        <v>775</v>
-      </c>
-      <c r="O30">
-        <v>175</v>
-      </c>
-      <c r="P30">
-        <v>360</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2322,13 +2390,13 @@
         <v>2119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>25</v>
@@ -2343,28 +2411,25 @@
         <v>50</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="M31">
-        <v>2.27</v>
+        <v>2625</v>
       </c>
       <c r="N31">
-        <v>2625</v>
+        <v>575</v>
       </c>
       <c r="O31">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="P31">
-        <v>540</v>
-      </c>
-      <c r="Q31">
         <v>13</v>
       </c>
-      <c r="R31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2372,19 +2437,19 @@
         <v>2070</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>58</v>
@@ -2399,28 +2464,25 @@
         <v>75</v>
       </c>
       <c r="L32">
+        <v>0.88</v>
+      </c>
+      <c r="M32">
+        <v>16275</v>
+      </c>
+      <c r="N32">
+        <v>785</v>
+      </c>
+      <c r="O32">
+        <v>1560</v>
+      </c>
+      <c r="P32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0.88</v>
-      </c>
-      <c r="N32">
-        <v>16275</v>
-      </c>
-      <c r="O32">
-        <v>785</v>
-      </c>
-      <c r="P32">
-        <v>1560</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2428,16 +2490,16 @@
         <v>2275</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>56</v>
@@ -2452,28 +2514,25 @@
         <v>50</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="M33">
-        <v>3.47</v>
+        <v>15100</v>
       </c>
       <c r="N33">
-        <v>15100</v>
+        <v>966</v>
       </c>
       <c r="O33">
-        <v>966</v>
+        <v>1155</v>
       </c>
       <c r="P33">
-        <v>1155</v>
-      </c>
-      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2481,19 +2540,19 @@
         <v>2445</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>47</v>
@@ -2508,28 +2567,25 @@
         <v>75</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>31.92</v>
       </c>
       <c r="M34">
-        <v>31.92</v>
+        <v>10075</v>
       </c>
       <c r="N34">
-        <v>10075</v>
+        <v>896</v>
       </c>
       <c r="O34">
-        <v>896</v>
+        <v>1515</v>
       </c>
       <c r="P34">
-        <v>1515</v>
-      </c>
-      <c r="Q34">
         <v>11</v>
       </c>
-      <c r="R34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2537,13 +2593,13 @@
         <v>2330</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -2558,28 +2614,25 @@
         <v>50</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M35">
-        <v>0.8</v>
+        <v>525</v>
       </c>
       <c r="N35">
-        <v>525</v>
+        <v>175</v>
       </c>
       <c r="O35">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P35">
-        <v>165</v>
-      </c>
-      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="R35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2587,13 +2640,13 @@
         <v>2321</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -2608,28 +2661,25 @@
         <v>50</v>
       </c>
       <c r="L36">
+        <v>0.02</v>
+      </c>
+      <c r="M36">
+        <v>375</v>
+      </c>
+      <c r="N36">
+        <v>125</v>
+      </c>
+      <c r="O36">
+        <v>135</v>
+      </c>
+      <c r="P36">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>0.02</v>
-      </c>
-      <c r="N36">
-        <v>375</v>
-      </c>
-      <c r="O36">
-        <v>125</v>
-      </c>
-      <c r="P36">
-        <v>135</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2637,13 +2687,13 @@
         <v>2267</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -2658,28 +2708,25 @@
         <v>50</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M37">
-        <v>0.03</v>
+        <v>450</v>
       </c>
       <c r="N37">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="O37">
         <v>150</v>
       </c>
       <c r="P37">
-        <v>150</v>
-      </c>
-      <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2687,13 +2734,13 @@
         <v>2283</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>8</v>
@@ -2708,28 +2755,25 @@
         <v>50</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>3.01</v>
       </c>
       <c r="M38">
-        <v>3.01</v>
+        <v>600</v>
       </c>
       <c r="N38">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O38">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P38">
-        <v>180</v>
-      </c>
-      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="R38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2737,13 +2781,13 @@
         <v>2259</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>9</v>
@@ -2758,28 +2802,25 @@
         <v>50</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M39">
-        <v>0.12</v>
+        <v>1175</v>
       </c>
       <c r="N39">
-        <v>1175</v>
+        <v>225</v>
       </c>
       <c r="O39">
         <v>225</v>
       </c>
       <c r="P39">
-        <v>225</v>
-      </c>
-      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2787,19 +2828,19 @@
         <v>2453</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>69</v>
@@ -2814,28 +2855,25 @@
         <v>75</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="M40">
-        <v>1.07</v>
+        <v>20325</v>
       </c>
       <c r="N40">
-        <v>20325</v>
+        <v>937</v>
       </c>
       <c r="O40">
-        <v>937</v>
+        <v>1965</v>
       </c>
       <c r="P40">
-        <v>1965</v>
-      </c>
-      <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2843,16 +2881,16 @@
         <v>2461</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>25</v>
@@ -2867,28 +2905,25 @@
         <v>50</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="M41">
-        <v>1.03</v>
+        <v>8375</v>
       </c>
       <c r="N41">
-        <v>8375</v>
+        <v>597</v>
       </c>
       <c r="O41">
-        <v>597</v>
+        <v>855</v>
       </c>
       <c r="P41">
-        <v>855</v>
-      </c>
-      <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2896,13 +2931,13 @@
         <v>2852</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>24</v>
@@ -2917,28 +2952,25 @@
         <v>50</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="M42">
-        <v>20.170000000000002</v>
+        <v>1800</v>
       </c>
       <c r="N42">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="O42">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="P42">
-        <v>480</v>
-      </c>
-      <c r="Q42">
         <v>45</v>
       </c>
-      <c r="R42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2946,13 +2978,13 @@
         <v>2720</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>20</v>
@@ -2967,28 +2999,25 @@
         <v>50</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>26.38</v>
       </c>
       <c r="M43">
-        <v>26.38</v>
+        <v>3000</v>
       </c>
       <c r="N43">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="O43">
-        <v>50</v>
+        <v>555</v>
       </c>
       <c r="P43">
-        <v>555</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="R43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2996,19 +3025,19 @@
         <v>2674</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <v>15</v>
@@ -3023,28 +3052,25 @@
         <v>50</v>
       </c>
       <c r="L44">
+        <v>0.45</v>
+      </c>
+      <c r="M44">
+        <v>9225</v>
+      </c>
+      <c r="N44">
+        <v>406</v>
+      </c>
+      <c r="O44">
+        <v>825</v>
+      </c>
+      <c r="P44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <v>0.45</v>
-      </c>
-      <c r="N44">
-        <v>9225</v>
-      </c>
-      <c r="O44">
-        <v>406</v>
-      </c>
-      <c r="P44">
-        <v>825</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3052,13 +3078,13 @@
         <v>2739</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>26</v>
@@ -3073,28 +3099,25 @@
         <v>50</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>15.42</v>
       </c>
       <c r="M45">
-        <v>15.42</v>
+        <v>3550</v>
       </c>
       <c r="N45">
-        <v>3550</v>
+        <v>592</v>
       </c>
       <c r="O45">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="P45">
-        <v>585</v>
-      </c>
-      <c r="Q45">
         <v>4</v>
       </c>
-      <c r="R45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3102,10 +3125,10 @@
         <v>2682</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>8</v>
@@ -3120,28 +3143,25 @@
         <v>25</v>
       </c>
       <c r="L46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M46">
+        <v>2150</v>
+      </c>
+      <c r="N46">
+        <v>144</v>
+      </c>
+      <c r="O46">
+        <v>210</v>
+      </c>
+      <c r="P46">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N46">
-        <v>2150</v>
-      </c>
-      <c r="O46">
-        <v>144</v>
-      </c>
-      <c r="P46">
-        <v>210</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3149,19 +3169,19 @@
         <v>2895</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>48</v>
@@ -3176,28 +3196,25 @@
         <v>75</v>
       </c>
       <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>13450</v>
+      </c>
+      <c r="N47">
+        <v>1168</v>
+      </c>
+      <c r="O47">
+        <v>1485</v>
+      </c>
+      <c r="P47">
         <v>5</v>
       </c>
-      <c r="M47">
-        <v>6</v>
-      </c>
-      <c r="N47">
-        <v>13450</v>
-      </c>
-      <c r="O47">
-        <v>1168</v>
-      </c>
-      <c r="P47">
-        <v>1485</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-      <c r="R47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3205,16 +3222,16 @@
         <v>2860</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>49</v>
@@ -3229,28 +3246,25 @@
         <v>50</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>6.98</v>
       </c>
       <c r="M48">
-        <v>6.98</v>
+        <v>10475</v>
       </c>
       <c r="N48">
-        <v>10475</v>
+        <v>1060</v>
       </c>
       <c r="O48">
-        <v>1060</v>
+        <v>1140</v>
       </c>
       <c r="P48">
-        <v>1140</v>
-      </c>
-      <c r="Q48">
         <v>17</v>
       </c>
-      <c r="R48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3258,16 +3272,16 @@
         <v>3271</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>36</v>
@@ -3282,28 +3296,25 @@
         <v>50</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="M49">
-        <v>2.11</v>
+        <v>9250</v>
       </c>
       <c r="N49">
-        <v>9250</v>
+        <v>791</v>
       </c>
       <c r="O49">
-        <v>791</v>
+        <v>930</v>
       </c>
       <c r="P49">
-        <v>930</v>
-      </c>
-      <c r="Q49">
         <v>10</v>
       </c>
-      <c r="R49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3311,16 +3322,16 @@
         <v>3301</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>29</v>
@@ -3335,28 +3346,25 @@
         <v>75</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>6.83</v>
       </c>
       <c r="M50">
-        <v>6.83</v>
+        <v>4225</v>
       </c>
       <c r="N50">
-        <v>4225</v>
+        <v>601</v>
       </c>
       <c r="O50">
-        <v>601</v>
+        <v>750</v>
       </c>
       <c r="P50">
-        <v>750</v>
-      </c>
-      <c r="Q50">
         <v>10</v>
       </c>
-      <c r="R50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3364,19 +3372,19 @@
         <v>3280</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>26</v>
@@ -3391,28 +3399,25 @@
         <v>75</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>5.89</v>
       </c>
       <c r="M51">
-        <v>5.89</v>
+        <v>5475</v>
       </c>
       <c r="N51">
-        <v>5475</v>
+        <v>616</v>
       </c>
       <c r="O51">
-        <v>616</v>
+        <v>930</v>
       </c>
       <c r="P51">
-        <v>930</v>
-      </c>
-      <c r="Q51">
         <v>2</v>
       </c>
-      <c r="R51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3420,19 +3425,19 @@
         <v>3514</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>24</v>
@@ -3447,28 +3452,25 @@
         <v>75</v>
       </c>
       <c r="L52">
+        <v>0.69</v>
+      </c>
+      <c r="M52">
+        <v>6450</v>
+      </c>
+      <c r="N52">
+        <v>602</v>
+      </c>
+      <c r="O52">
+        <v>930</v>
+      </c>
+      <c r="P52">
         <v>0</v>
       </c>
-      <c r="M52">
-        <v>0.69</v>
-      </c>
-      <c r="N52">
-        <v>6450</v>
-      </c>
-      <c r="O52">
-        <v>602</v>
-      </c>
-      <c r="P52">
-        <v>930</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3476,19 +3478,19 @@
         <v>3549</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>57</v>
@@ -3503,28 +3505,25 @@
         <v>75</v>
       </c>
       <c r="L53">
-        <v>150</v>
+        <v>149.66</v>
       </c>
       <c r="M53">
-        <v>149.66</v>
+        <v>16650</v>
       </c>
       <c r="N53">
-        <v>16650</v>
+        <v>1112</v>
       </c>
       <c r="O53">
-        <v>1112</v>
+        <v>1950</v>
       </c>
       <c r="P53">
-        <v>1950</v>
-      </c>
-      <c r="Q53">
         <v>4</v>
       </c>
-      <c r="R53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3532,19 +3531,19 @@
         <v>3522</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>24</v>
@@ -3559,28 +3558,25 @@
         <v>75</v>
       </c>
       <c r="L54">
+        <v>0.92</v>
+      </c>
+      <c r="M54">
+        <v>14075</v>
+      </c>
+      <c r="N54">
+        <v>651</v>
+      </c>
+      <c r="O54">
+        <v>1365</v>
+      </c>
+      <c r="P54">
         <v>0</v>
       </c>
-      <c r="M54">
-        <v>0.92</v>
-      </c>
-      <c r="N54">
-        <v>14075</v>
-      </c>
-      <c r="O54">
-        <v>651</v>
-      </c>
-      <c r="P54">
-        <v>1365</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3588,13 +3584,13 @@
         <v>3719</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>32</v>
@@ -3609,28 +3605,25 @@
         <v>50</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>4.68</v>
       </c>
       <c r="M55">
-        <v>4.68</v>
+        <v>3825</v>
       </c>
       <c r="N55">
-        <v>3825</v>
+        <v>764</v>
       </c>
       <c r="O55">
-        <v>764</v>
+        <v>675</v>
       </c>
       <c r="P55">
-        <v>675</v>
-      </c>
-      <c r="Q55">
         <v>23</v>
       </c>
-      <c r="R55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3638,16 +3631,16 @@
         <v>3727</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>56</v>
@@ -3662,28 +3655,25 @@
         <v>50</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>5.66</v>
       </c>
       <c r="M56">
-        <v>5.66</v>
+        <v>11450</v>
       </c>
       <c r="N56">
-        <v>11450</v>
+        <v>1044</v>
       </c>
       <c r="O56">
-        <v>1044</v>
+        <v>1200</v>
       </c>
       <c r="P56">
-        <v>1200</v>
-      </c>
-      <c r="Q56">
         <v>14</v>
       </c>
-      <c r="R56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3691,13 +3681,13 @@
         <v>3700</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>17</v>
@@ -3712,28 +3702,25 @@
         <v>50</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.56</v>
       </c>
       <c r="M57">
-        <v>3.56</v>
+        <v>2275</v>
       </c>
       <c r="N57">
-        <v>2275</v>
+        <v>425</v>
       </c>
       <c r="O57">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="P57">
-        <v>405</v>
-      </c>
-      <c r="Q57">
         <v>7</v>
       </c>
-      <c r="R57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3741,13 +3728,13 @@
         <v>3743</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>28</v>
@@ -3762,28 +3749,25 @@
         <v>50</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="M58">
-        <v>3.62</v>
+        <v>3400</v>
       </c>
       <c r="N58">
-        <v>3400</v>
+        <v>661</v>
       </c>
       <c r="O58">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="P58">
-        <v>690</v>
-      </c>
-      <c r="Q58">
         <v>10</v>
       </c>
-      <c r="R58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3791,13 +3775,13 @@
         <v>3751</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>30</v>
@@ -3812,28 +3796,25 @@
         <v>50</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="M59">
-        <v>3.11</v>
+        <v>2800</v>
       </c>
       <c r="N59">
-        <v>2800</v>
+        <v>606</v>
       </c>
       <c r="O59">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="P59">
-        <v>585</v>
-      </c>
-      <c r="Q59">
         <v>13</v>
       </c>
-      <c r="R59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3841,19 +3822,19 @@
         <v>3832</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>53</v>
@@ -3868,28 +3849,25 @@
         <v>75</v>
       </c>
       <c r="L60">
-        <v>76</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="M60">
-        <v>79.260000000000005</v>
+        <v>14075</v>
       </c>
       <c r="N60">
-        <v>14075</v>
+        <v>1318</v>
       </c>
       <c r="O60">
-        <v>1318</v>
+        <v>1890</v>
       </c>
       <c r="P60">
-        <v>1890</v>
-      </c>
-      <c r="Q60">
         <v>19</v>
       </c>
-      <c r="R60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3897,19 +3875,19 @@
         <v>3816</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>57</v>
@@ -3924,28 +3902,25 @@
         <v>75</v>
       </c>
       <c r="L61">
+        <v>0.78</v>
+      </c>
+      <c r="M61">
+        <v>19225</v>
+      </c>
+      <c r="N61">
+        <v>947</v>
+      </c>
+      <c r="O61">
+        <v>1920</v>
+      </c>
+      <c r="P61">
         <v>0</v>
       </c>
-      <c r="M61">
-        <v>0.78</v>
-      </c>
-      <c r="N61">
-        <v>19225</v>
-      </c>
-      <c r="O61">
-        <v>947</v>
-      </c>
-      <c r="P61">
-        <v>1920</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3953,13 +3928,13 @@
         <v>3786</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>15</v>
@@ -3974,28 +3949,25 @@
         <v>50</v>
       </c>
       <c r="L62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M62">
+        <v>2075</v>
+      </c>
+      <c r="N62">
+        <v>366</v>
+      </c>
+      <c r="O62">
+        <v>375</v>
+      </c>
+      <c r="P62">
         <v>0</v>
       </c>
-      <c r="M62">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N62">
-        <v>2075</v>
-      </c>
-      <c r="O62">
-        <v>366</v>
-      </c>
-      <c r="P62">
-        <v>375</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4003,19 +3975,19 @@
         <v>3840</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>34</v>
@@ -4030,28 +4002,25 @@
         <v>75</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M63">
-        <v>2.2200000000000002</v>
+        <v>11350</v>
       </c>
       <c r="N63">
-        <v>11350</v>
+        <v>870</v>
       </c>
       <c r="O63">
-        <v>870</v>
+        <v>1170</v>
       </c>
       <c r="P63">
-        <v>1170</v>
-      </c>
-      <c r="Q63">
         <v>5</v>
       </c>
-      <c r="R63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4059,13 +4028,13 @@
         <v>3867</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>34</v>
@@ -4080,28 +4049,25 @@
         <v>50</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>33.76</v>
       </c>
       <c r="M64">
-        <v>33.76</v>
+        <v>3825</v>
       </c>
       <c r="N64">
-        <v>3825</v>
+        <v>787</v>
       </c>
       <c r="O64">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="P64">
-        <v>750</v>
-      </c>
-      <c r="Q64">
         <v>16</v>
       </c>
-      <c r="R64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4109,19 +4075,19 @@
         <v>3883</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>67</v>
@@ -4136,28 +4102,25 @@
         <v>75</v>
       </c>
       <c r="L65">
+        <v>0.94</v>
+      </c>
+      <c r="M65">
+        <v>20450</v>
+      </c>
+      <c r="N65">
+        <v>1025</v>
+      </c>
+      <c r="O65">
+        <v>1605</v>
+      </c>
+      <c r="P65">
         <v>0</v>
       </c>
-      <c r="M65">
-        <v>0.94</v>
-      </c>
-      <c r="N65">
-        <v>20450</v>
-      </c>
-      <c r="O65">
-        <v>1025</v>
-      </c>
-      <c r="P65">
-        <v>1605</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4165,13 +4128,13 @@
         <v>3859</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>18</v>
@@ -4186,28 +4149,25 @@
         <v>50</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="M66">
-        <v>1.31</v>
+        <v>2300</v>
       </c>
       <c r="N66">
-        <v>2300</v>
+        <v>441</v>
       </c>
       <c r="O66">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P66">
-        <v>435</v>
-      </c>
-      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4215,19 +4175,19 @@
         <v>4022</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>22</v>
@@ -4242,28 +4202,25 @@
         <v>50</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>5.81</v>
       </c>
       <c r="M67">
-        <v>5.81</v>
+        <v>2900</v>
       </c>
       <c r="N67">
-        <v>2900</v>
+        <v>550</v>
       </c>
       <c r="O67">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="P67">
-        <v>510</v>
-      </c>
-      <c r="Q67">
         <v>10</v>
       </c>
-      <c r="R67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4271,19 +4228,19 @@
         <v>4030</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>45</v>
@@ -4298,28 +4255,25 @@
         <v>75</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="M68">
-        <v>7.03</v>
+        <v>11175</v>
       </c>
       <c r="N68">
-        <v>11175</v>
+        <v>1038</v>
       </c>
       <c r="O68">
-        <v>1038</v>
+        <v>1440</v>
       </c>
       <c r="P68">
-        <v>1440</v>
-      </c>
-      <c r="Q68">
         <v>16</v>
       </c>
-      <c r="R68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4327,13 +4281,13 @@
         <v>4057</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>24</v>
@@ -4348,28 +4302,25 @@
         <v>50</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M69">
-        <v>4.5199999999999996</v>
+        <v>3425</v>
       </c>
       <c r="N69">
-        <v>3425</v>
+        <v>600</v>
       </c>
       <c r="O69">
         <v>600</v>
       </c>
       <c r="P69">
-        <v>600</v>
-      </c>
-      <c r="Q69">
         <v>6</v>
       </c>
-      <c r="R69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4377,19 +4328,19 @@
         <v>4049</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>56</v>
@@ -4404,28 +4355,25 @@
         <v>75</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="M70">
-        <v>6.6</v>
+        <v>11600</v>
       </c>
       <c r="N70">
-        <v>11600</v>
+        <v>1219</v>
       </c>
       <c r="O70">
-        <v>1219</v>
+        <v>1650</v>
       </c>
       <c r="P70">
-        <v>1650</v>
-      </c>
-      <c r="Q70">
         <v>30</v>
       </c>
-      <c r="R70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4433,16 +4381,16 @@
         <v>4219</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>67</v>
@@ -4457,28 +4405,25 @@
         <v>75</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>11.71</v>
       </c>
       <c r="M71">
-        <v>11.71</v>
+        <v>10950</v>
       </c>
       <c r="N71">
-        <v>10950</v>
+        <v>1479</v>
       </c>
       <c r="O71">
-        <v>1479</v>
+        <v>1650</v>
       </c>
       <c r="P71">
-        <v>1650</v>
-      </c>
-      <c r="Q71">
         <v>35</v>
       </c>
-      <c r="R71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4486,19 +4431,19 @@
         <v>4200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>71</v>
@@ -4513,28 +4458,25 @@
         <v>75</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="M72">
-        <v>6.6</v>
+        <v>15925</v>
       </c>
       <c r="N72">
-        <v>15925</v>
+        <v>1298</v>
       </c>
       <c r="O72">
-        <v>1298</v>
+        <v>1665</v>
       </c>
       <c r="P72">
-        <v>1665</v>
-      </c>
-      <c r="Q72">
         <v>13</v>
       </c>
-      <c r="R72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4542,19 +4484,19 @@
         <v>4227</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>43</v>
@@ -4569,28 +4511,25 @@
         <v>75</v>
       </c>
       <c r="L73">
-        <v>8</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="M73">
-        <v>8.4499999999999993</v>
+        <v>7950</v>
       </c>
       <c r="N73">
-        <v>7950</v>
+        <v>931</v>
       </c>
       <c r="O73">
-        <v>931</v>
+        <v>1215</v>
       </c>
       <c r="P73">
-        <v>1215</v>
-      </c>
-      <c r="Q73">
         <v>17</v>
       </c>
-      <c r="R73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4598,19 +4537,19 @@
         <v>4332</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>46</v>
@@ -4625,28 +4564,25 @@
         <v>75</v>
       </c>
       <c r="L74">
-        <v>150</v>
+        <v>153.59</v>
       </c>
       <c r="M74">
-        <v>153.59</v>
+        <v>10000</v>
       </c>
       <c r="N74">
-        <v>10000</v>
+        <v>911</v>
       </c>
       <c r="O74">
-        <v>911</v>
+        <v>1230</v>
       </c>
       <c r="P74">
-        <v>1230</v>
-      </c>
-      <c r="Q74">
         <v>12</v>
       </c>
-      <c r="R74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4654,13 +4590,13 @@
         <v>4340</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>24</v>
@@ -4675,28 +4611,25 @@
         <v>50</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="M75">
-        <v>4.3499999999999996</v>
+        <v>3025</v>
       </c>
       <c r="N75">
-        <v>3025</v>
+        <v>567</v>
       </c>
       <c r="O75">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="P75">
-        <v>540</v>
-      </c>
-      <c r="Q75">
         <v>13</v>
       </c>
-      <c r="R75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4704,13 +4637,13 @@
         <v>4359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>38</v>
@@ -4725,28 +4658,25 @@
         <v>50</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>5.39</v>
       </c>
       <c r="M76">
-        <v>5.39</v>
+        <v>4750</v>
       </c>
       <c r="N76">
-        <v>4750</v>
+        <v>932</v>
       </c>
       <c r="O76">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="P76">
-        <v>915</v>
-      </c>
-      <c r="Q76">
         <v>40</v>
       </c>
-      <c r="R76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4754,19 +4684,19 @@
         <v>4383</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>48</v>
@@ -4781,28 +4711,25 @@
         <v>75</v>
       </c>
       <c r="L77">
-        <v>8</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="M77">
-        <v>8.2200000000000006</v>
+        <v>14150</v>
       </c>
       <c r="N77">
-        <v>14150</v>
+        <v>1177</v>
       </c>
       <c r="O77">
-        <v>1177</v>
+        <v>1500</v>
       </c>
       <c r="P77">
-        <v>1500</v>
-      </c>
-      <c r="Q77">
         <v>11</v>
       </c>
-      <c r="R77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4810,19 +4737,19 @@
         <v>4502</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>87</v>
@@ -4836,14 +4763,14 @@
       <c r="K78">
         <v>75</v>
       </c>
+      <c r="Q78" t="s">
+        <v>38</v>
+      </c>
       <c r="R78" t="s">
-        <v>48</v>
-      </c>
-      <c r="S78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4851,19 +4778,19 @@
         <v>4510</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>57</v>
@@ -4878,28 +4805,25 @@
         <v>75</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="M79">
-        <v>1.34</v>
+        <v>29625</v>
       </c>
       <c r="N79">
-        <v>29625</v>
+        <v>1434</v>
       </c>
       <c r="O79">
-        <v>1434</v>
+        <v>2385</v>
       </c>
       <c r="P79">
-        <v>2385</v>
-      </c>
-      <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4907,19 +4831,19 @@
         <v>4537</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>49</v>
@@ -4933,14 +4857,14 @@
       <c r="K80">
         <v>75</v>
       </c>
+      <c r="Q80" t="s">
+        <v>38</v>
+      </c>
       <c r="R80" t="s">
-        <v>48</v>
-      </c>
-      <c r="S80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4948,13 +4872,13 @@
         <v>4545</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>46</v>
@@ -4969,28 +4893,25 @@
         <v>50</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>15.89</v>
       </c>
       <c r="M81">
-        <v>15.89</v>
+        <v>5600</v>
       </c>
       <c r="N81">
-        <v>5600</v>
+        <v>1132</v>
       </c>
       <c r="O81">
-        <v>1132</v>
+        <v>990</v>
       </c>
       <c r="P81">
-        <v>990</v>
-      </c>
-      <c r="Q81">
         <v>31</v>
       </c>
-      <c r="R81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4998,13 +4919,13 @@
         <v>4553</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>51</v>
@@ -5019,65 +4940,2299 @@
         <v>50</v>
       </c>
       <c r="L82">
-        <v>62</v>
+        <v>63.97</v>
       </c>
       <c r="M82">
-        <v>63.97</v>
+        <v>7100</v>
       </c>
       <c r="N82">
-        <v>7100</v>
+        <v>1257</v>
       </c>
       <c r="O82">
-        <v>1257</v>
+        <v>1215</v>
       </c>
       <c r="P82">
-        <v>1215</v>
-      </c>
-      <c r="Q82">
         <v>40</v>
       </c>
-      <c r="R82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>5355</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>24</v>
+      </c>
+      <c r="I83">
+        <v>139</v>
+      </c>
+      <c r="J83">
+        <v>26</v>
+      </c>
+      <c r="K83">
+        <v>75</v>
+      </c>
+      <c r="L83">
+        <v>1.38</v>
+      </c>
+      <c r="M83">
+        <v>5675</v>
+      </c>
+      <c r="N83">
+        <v>479</v>
+      </c>
+      <c r="O83">
+        <v>945</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>5150</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>21</v>
+      </c>
+      <c r="K84">
+        <v>50</v>
+      </c>
+      <c r="L84">
+        <v>0.23</v>
+      </c>
+      <c r="M84">
+        <v>5600</v>
+      </c>
+      <c r="N84">
+        <v>341</v>
+      </c>
+      <c r="O84">
+        <v>615</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4979</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>25</v>
+      </c>
+      <c r="I85">
+        <v>92</v>
+      </c>
+      <c r="J85">
+        <v>19</v>
+      </c>
+      <c r="K85">
+        <v>50</v>
+      </c>
+      <c r="L85">
+        <v>1.05</v>
+      </c>
+      <c r="M85">
+        <v>5825</v>
+      </c>
+      <c r="N85">
+        <v>523</v>
+      </c>
+      <c r="O85">
+        <v>555</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>4863</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>11</v>
+      </c>
+      <c r="I86">
+        <v>72</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>75</v>
+      </c>
+      <c r="L86">
+        <v>0.06</v>
+      </c>
+      <c r="M86">
+        <v>1975</v>
+      </c>
+      <c r="N86">
+        <v>195</v>
+      </c>
+      <c r="O86">
+        <v>330</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>5657</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>15</v>
+      </c>
+      <c r="K87">
+        <v>75</v>
+      </c>
+      <c r="L87">
+        <v>0.25</v>
+      </c>
+      <c r="M87">
+        <v>4450</v>
+      </c>
+      <c r="N87">
+        <v>339</v>
+      </c>
+      <c r="O87">
+        <v>615</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>5134</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <v>137</v>
+      </c>
+      <c r="J88">
+        <v>19</v>
+      </c>
+      <c r="K88">
+        <v>75</v>
+      </c>
+      <c r="L88">
+        <v>0.2</v>
+      </c>
+      <c r="M88">
+        <v>4425</v>
+      </c>
+      <c r="N88">
+        <v>421</v>
+      </c>
+      <c r="O88">
+        <v>765</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
+      <c r="B89">
+        <v>6173</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>27</v>
+      </c>
+      <c r="I89">
+        <v>99</v>
+      </c>
+      <c r="J89">
+        <v>35</v>
+      </c>
+      <c r="K89">
+        <v>50</v>
+      </c>
+      <c r="L89">
+        <v>1.56</v>
+      </c>
+      <c r="M89">
+        <v>6575</v>
+      </c>
+      <c r="N89">
+        <v>641</v>
+      </c>
+      <c r="O89">
+        <v>1035</v>
+      </c>
+      <c r="P89">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>6165</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>23</v>
+      </c>
+      <c r="I90">
+        <v>79</v>
+      </c>
+      <c r="J90">
+        <v>24</v>
+      </c>
+      <c r="K90">
+        <v>50</v>
+      </c>
+      <c r="L90">
+        <v>0.42</v>
+      </c>
+      <c r="M90">
+        <v>5825</v>
+      </c>
+      <c r="N90">
+        <v>475</v>
+      </c>
+      <c r="O90">
+        <v>675</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5797</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>92</v>
+      </c>
+      <c r="J91">
+        <v>13</v>
+      </c>
+      <c r="K91">
+        <v>75</v>
+      </c>
+      <c r="L91">
+        <v>0.11</v>
+      </c>
+      <c r="M91">
+        <v>3400</v>
+      </c>
+      <c r="N91">
+        <v>261</v>
+      </c>
+      <c r="O91">
+        <v>555</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5800</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>48</v>
+      </c>
+      <c r="J92">
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <v>50</v>
+      </c>
+      <c r="L92">
+        <v>0.08</v>
+      </c>
+      <c r="M92">
+        <v>1225</v>
+      </c>
+      <c r="N92">
+        <v>241</v>
+      </c>
+      <c r="O92">
+        <v>315</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>102490</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>67</v>
+      </c>
+      <c r="I93">
+        <v>167</v>
+      </c>
+      <c r="J93">
+        <v>79</v>
+      </c>
+      <c r="K93">
+        <v>75</v>
+      </c>
+      <c r="L93" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="M93">
+        <v>33025</v>
+      </c>
+      <c r="N93">
+        <v>1734</v>
+      </c>
+      <c r="O93">
+        <v>2820</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>6181</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>42</v>
+      </c>
+      <c r="I94">
+        <v>118</v>
+      </c>
+      <c r="J94">
+        <v>60</v>
+      </c>
+      <c r="K94">
+        <v>75</v>
+      </c>
+      <c r="L94">
+        <v>0.34</v>
+      </c>
+      <c r="M94">
+        <v>11825</v>
+      </c>
+      <c r="N94">
+        <v>582</v>
+      </c>
+      <c r="O94">
+        <v>1815</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6190</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>14</v>
+      </c>
+      <c r="I95">
+        <v>47</v>
+      </c>
+      <c r="J95">
+        <v>17</v>
+      </c>
+      <c r="K95">
+        <v>50</v>
+      </c>
+      <c r="L95">
+        <v>0.41</v>
+      </c>
+      <c r="M95">
+        <v>1800</v>
+      </c>
+      <c r="N95">
+        <v>350</v>
+      </c>
+      <c r="O95">
+        <v>420</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>102482</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>50</v>
+      </c>
+      <c r="J96">
+        <v>11</v>
+      </c>
+      <c r="K96">
+        <v>25</v>
+      </c>
+      <c r="L96">
+        <v>0.05</v>
+      </c>
+      <c r="M96">
+        <v>1800</v>
+      </c>
+      <c r="N96">
+        <v>108</v>
+      </c>
+      <c r="O96">
+        <v>165</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>102652</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>51</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97">
+        <v>50</v>
+      </c>
+      <c r="L97">
+        <v>0.23</v>
+      </c>
+      <c r="M97">
+        <v>7250</v>
+      </c>
+      <c r="N97">
+        <v>316</v>
+      </c>
+      <c r="O97">
+        <v>600</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>103004</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>46</v>
+      </c>
+      <c r="J98">
+        <v>23</v>
+      </c>
+      <c r="K98">
+        <v>50</v>
+      </c>
+      <c r="L98">
+        <v>22.19</v>
+      </c>
+      <c r="M98">
+        <v>2675</v>
+      </c>
+      <c r="N98">
+        <v>491</v>
+      </c>
+      <c r="O98">
+        <v>510</v>
+      </c>
+      <c r="P98">
+        <v>14</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>102660</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>38</v>
+      </c>
+      <c r="I99">
+        <v>48</v>
+      </c>
+      <c r="J99">
+        <v>37</v>
+      </c>
+      <c r="K99">
+        <v>50</v>
+      </c>
+      <c r="L99">
+        <v>6.65</v>
+      </c>
+      <c r="M99">
+        <v>4375</v>
+      </c>
+      <c r="N99">
+        <v>932</v>
+      </c>
+      <c r="O99">
+        <v>930</v>
+      </c>
+      <c r="P99">
+        <v>33</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>103063</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>47</v>
+      </c>
+      <c r="J100">
+        <v>17</v>
+      </c>
+      <c r="K100">
+        <v>50</v>
+      </c>
+      <c r="L100">
+        <v>0.33</v>
+      </c>
+      <c r="M100">
+        <v>2350</v>
+      </c>
+      <c r="N100">
+        <v>442</v>
+      </c>
+      <c r="O100">
+        <v>465</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>111660</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>19</v>
+      </c>
+      <c r="I101">
+        <v>47</v>
+      </c>
+      <c r="J101">
+        <v>19</v>
+      </c>
+      <c r="K101">
+        <v>50</v>
+      </c>
+      <c r="L101">
+        <v>8.81</v>
+      </c>
+      <c r="M101">
+        <v>2525</v>
+      </c>
+      <c r="N101">
+        <v>455</v>
+      </c>
+      <c r="O101">
+        <v>435</v>
+      </c>
+      <c r="P101">
+        <v>7</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>123315</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>12</v>
+      </c>
+      <c r="I102">
+        <v>65</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>75</v>
+      </c>
+      <c r="L102">
+        <v>0.08</v>
+      </c>
+      <c r="M102">
+        <v>1625</v>
+      </c>
+      <c r="N102">
+        <v>229</v>
+      </c>
+      <c r="O102">
+        <v>210</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>126071</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>17</v>
+      </c>
+      <c r="I103">
+        <v>103</v>
+      </c>
+      <c r="J103">
+        <v>15</v>
+      </c>
+      <c r="K103">
+        <v>75</v>
+      </c>
+      <c r="L103">
+        <v>0.08</v>
+      </c>
+      <c r="M103">
+        <v>2825</v>
+      </c>
+      <c r="N103">
+        <v>299</v>
+      </c>
+      <c r="O103">
+        <v>375</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>108839</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>47</v>
+      </c>
+      <c r="J104">
+        <v>13</v>
+      </c>
+      <c r="K104">
+        <v>25</v>
+      </c>
+      <c r="L104">
+        <v>0.05</v>
+      </c>
+      <c r="M104">
+        <v>1500</v>
+      </c>
+      <c r="N104">
+        <v>96</v>
+      </c>
+      <c r="O104">
+        <v>195</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>129631</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>16</v>
+      </c>
+      <c r="I105">
+        <v>124</v>
+      </c>
+      <c r="J105">
+        <v>12</v>
+      </c>
+      <c r="K105">
+        <v>75</v>
+      </c>
+      <c r="L105">
+        <v>0.13</v>
+      </c>
+      <c r="M105">
+        <v>4575</v>
+      </c>
+      <c r="N105">
+        <v>299</v>
+      </c>
+      <c r="O105">
+        <v>375</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>116300</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <v>14</v>
+      </c>
+      <c r="K106">
+        <v>25</v>
+      </c>
+      <c r="L106">
+        <v>0.05</v>
+      </c>
+      <c r="M106">
+        <v>1800</v>
+      </c>
+      <c r="N106">
+        <v>117</v>
+      </c>
+      <c r="O106">
+        <v>210</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>158941</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>76</v>
+      </c>
+      <c r="J107">
+        <v>23</v>
+      </c>
+      <c r="K107">
+        <v>75</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>38</v>
+      </c>
+      <c r="R107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>158968</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <v>60</v>
+      </c>
+      <c r="J108">
+        <v>28</v>
+      </c>
+      <c r="K108">
+        <v>50</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>38</v>
+      </c>
+      <c r="R108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>158747</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>44</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>37</v>
+      </c>
+      <c r="K109">
+        <v>50</v>
+      </c>
+      <c r="L109">
+        <v>1.31</v>
+      </c>
+      <c r="M109">
+        <v>13600</v>
+      </c>
+      <c r="N109">
+        <v>742</v>
+      </c>
+      <c r="O109">
+        <v>1095</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>151297</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>47</v>
+      </c>
+      <c r="I110">
+        <v>111</v>
+      </c>
+      <c r="J110">
+        <v>47</v>
+      </c>
+      <c r="K110">
+        <v>75</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>38</v>
+      </c>
+      <c r="R110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>158976</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>17</v>
+      </c>
+      <c r="I111">
+        <v>29</v>
+      </c>
+      <c r="J111">
+        <v>15</v>
+      </c>
+      <c r="K111">
+        <v>25</v>
+      </c>
+      <c r="L111">
+        <v>0.03</v>
+      </c>
+      <c r="M111">
+        <v>725</v>
+      </c>
+      <c r="N111">
+        <v>100</v>
+      </c>
+      <c r="O111">
+        <v>225</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>158917</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>61</v>
+      </c>
+      <c r="J112">
+        <v>14</v>
+      </c>
+      <c r="K112">
+        <v>75</v>
+      </c>
+      <c r="L112">
+        <v>0.03</v>
+      </c>
+      <c r="M112">
+        <v>3150</v>
+      </c>
+      <c r="N112">
+        <v>160</v>
+      </c>
+      <c r="O112">
+        <v>315</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>153451</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>66</v>
+      </c>
+      <c r="I113">
+        <v>70</v>
+      </c>
+      <c r="J113">
+        <v>20</v>
+      </c>
+      <c r="K113">
+        <v>75</v>
+      </c>
+      <c r="L113">
+        <v>0.06</v>
+      </c>
+      <c r="M113">
+        <v>3050</v>
+      </c>
+      <c r="N113">
+        <v>330</v>
+      </c>
+      <c r="O113">
+        <v>480</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>153486</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>64</v>
+      </c>
+      <c r="J114">
+        <v>17</v>
+      </c>
+      <c r="K114">
+        <v>75</v>
+      </c>
+      <c r="L114">
+        <v>0.16</v>
+      </c>
+      <c r="M114">
+        <v>2775</v>
+      </c>
+      <c r="N114">
+        <v>430</v>
+      </c>
+      <c r="O114">
+        <v>525</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>153508</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>27</v>
+      </c>
+      <c r="I115">
+        <v>51</v>
+      </c>
+      <c r="J115">
+        <v>18</v>
+      </c>
+      <c r="K115">
+        <v>25</v>
+      </c>
+      <c r="L115">
+        <v>0.05</v>
+      </c>
+      <c r="M115">
+        <v>1275</v>
+      </c>
+      <c r="N115">
+        <v>170</v>
+      </c>
+      <c r="O115">
+        <v>270</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>153516</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>56</v>
+      </c>
+      <c r="I116">
+        <v>92</v>
+      </c>
+      <c r="J116">
+        <v>15</v>
+      </c>
+      <c r="K116">
+        <v>75</v>
+      </c>
+      <c r="L116">
+        <v>0.09</v>
+      </c>
+      <c r="M116">
+        <v>2975</v>
+      </c>
+      <c r="N116">
+        <v>385</v>
+      </c>
+      <c r="O116">
+        <v>525</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>153524</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>74</v>
+      </c>
+      <c r="J117">
+        <v>40</v>
+      </c>
+      <c r="K117">
+        <v>50</v>
+      </c>
+      <c r="L117">
+        <v>0.06</v>
+      </c>
+      <c r="M117">
+        <v>2975</v>
+      </c>
+      <c r="N117">
+        <v>376</v>
+      </c>
+      <c r="O117">
+        <v>660</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>153494</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>34</v>
+      </c>
+      <c r="I118">
+        <v>32</v>
+      </c>
+      <c r="J118">
+        <v>21</v>
+      </c>
+      <c r="K118">
+        <v>25</v>
+      </c>
+      <c r="L118">
+        <v>0.06</v>
+      </c>
+      <c r="M118">
+        <v>1450</v>
+      </c>
+      <c r="N118">
+        <v>200</v>
+      </c>
+      <c r="O118">
+        <v>315</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>144290</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>12</v>
+      </c>
+      <c r="I119">
+        <v>84</v>
+      </c>
+      <c r="J119">
+        <v>8</v>
+      </c>
+      <c r="K119">
+        <v>75</v>
+      </c>
+      <c r="L119">
+        <v>0.06</v>
+      </c>
+      <c r="M119">
+        <v>2100</v>
+      </c>
+      <c r="N119">
+        <v>199</v>
+      </c>
+      <c r="O119">
+        <v>195</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>153699</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>16</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>25</v>
+      </c>
+      <c r="L120">
+        <v>0.02</v>
+      </c>
+      <c r="M120">
+        <v>400</v>
+      </c>
+      <c r="N120">
+        <v>50</v>
+      </c>
+      <c r="O120">
+        <v>60</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>145815</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>7</v>
+      </c>
+      <c r="I121">
+        <v>38</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>50</v>
+      </c>
+      <c r="L121">
+        <v>0.02</v>
+      </c>
+      <c r="M121">
+        <v>950</v>
+      </c>
+      <c r="N121">
+        <v>75</v>
+      </c>
+      <c r="O121">
+        <v>75</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>704342</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>171</v>
+      </c>
+      <c r="I122">
+        <v>124</v>
+      </c>
+      <c r="J122">
+        <v>56</v>
+      </c>
+      <c r="K122">
+        <v>75</v>
+      </c>
+      <c r="L122">
+        <v>0.11</v>
+      </c>
+      <c r="M122">
+        <v>7825</v>
+      </c>
+      <c r="N122">
+        <v>622</v>
+      </c>
+      <c r="O122">
+        <v>930</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>700029</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>75</v>
+      </c>
+      <c r="J123">
+        <v>25</v>
+      </c>
+      <c r="K123">
+        <v>25</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>38</v>
+      </c>
+      <c r="R123" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>700053</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>259</v>
+      </c>
+      <c r="I124">
+        <v>229</v>
+      </c>
+      <c r="J124">
+        <v>90</v>
+      </c>
+      <c r="K124">
+        <v>75</v>
+      </c>
+      <c r="L124">
+        <v>0.23</v>
+      </c>
+      <c r="M124">
+        <v>11125</v>
+      </c>
+      <c r="N124">
+        <v>1318</v>
+      </c>
+      <c r="O124">
+        <v>1680</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>162957</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125">
+        <v>48</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <v>50</v>
+      </c>
+      <c r="L125">
+        <v>0.02</v>
+      </c>
+      <c r="M125">
+        <v>1200</v>
+      </c>
+      <c r="N125">
+        <v>71</v>
+      </c>
+      <c r="O125">
+        <v>75</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>158933</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>25</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>75</v>
+      </c>
+      <c r="N126">
+        <v>25</v>
+      </c>
+      <c r="O126">
+        <v>30</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>158925</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>17</v>
+      </c>
+      <c r="I127">
+        <v>35</v>
+      </c>
+      <c r="J127">
+        <v>6</v>
+      </c>
+      <c r="K127">
+        <v>25</v>
+      </c>
+      <c r="L127">
+        <v>0.02</v>
+      </c>
+      <c r="M127">
+        <v>875</v>
+      </c>
+      <c r="N127">
+        <v>50</v>
+      </c>
+      <c r="O127">
+        <v>90</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>163678</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <v>41</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>75</v>
+      </c>
+      <c r="L128">
+        <v>0.02</v>
+      </c>
+      <c r="M128">
+        <v>1025</v>
+      </c>
+      <c r="N128">
+        <v>95</v>
+      </c>
+      <c r="O128">
+        <v>105</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>163821</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>16</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+      <c r="K129">
+        <v>25</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>38</v>
+      </c>
+      <c r="R129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>158950</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>7</v>
+      </c>
+      <c r="I130">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
+      </c>
+      <c r="K130">
+        <v>50</v>
+      </c>
+      <c r="L130">
+        <v>0.02</v>
+      </c>
+      <c r="M130">
+        <v>425</v>
+      </c>
+      <c r="N130">
+        <v>50</v>
+      </c>
+      <c r="O130">
+        <v>90</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B5427-D1A2-430B-88C0-3E0D105A87D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5C801-5254-40E3-8B6D-C277CE63D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,6 +993,7 @@
       <c r="K2">
         <v>75</v>
       </c>
+      <c r="L2" s="8"/>
       <c r="Q2" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1032,7 @@
       <c r="K3">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>2.87</v>
       </c>
       <c r="M3">
@@ -1081,7 +1082,7 @@
       <c r="K4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>0.76</v>
       </c>
       <c r="M4">
@@ -1131,7 +1132,7 @@
       <c r="K5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <v>4.21</v>
       </c>
       <c r="M5">
@@ -1184,7 +1185,7 @@
       <c r="K6">
         <v>75</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>0.92</v>
       </c>
       <c r="M6">
@@ -1231,7 +1232,7 @@
       <c r="K7">
         <v>50</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>158.80000000000001</v>
       </c>
       <c r="M7">
@@ -1281,7 +1282,7 @@
       <c r="K8">
         <v>75</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>553.92999999999995</v>
       </c>
       <c r="M8">
@@ -1334,7 +1335,7 @@
       <c r="K9">
         <v>75</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>3.28</v>
       </c>
       <c r="M9">
@@ -1387,7 +1388,7 @@
       <c r="K10">
         <v>75</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>3.67</v>
       </c>
       <c r="M10">
@@ -1434,7 +1435,7 @@
       <c r="K11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>4.4800000000000004</v>
       </c>
       <c r="M11">
@@ -1487,7 +1488,7 @@
       <c r="K12">
         <v>75</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>4.28</v>
       </c>
       <c r="M12">
@@ -1534,7 +1535,7 @@
       <c r="K13">
         <v>50</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>1.36</v>
       </c>
       <c r="M13">
@@ -1581,7 +1582,7 @@
       <c r="K14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>4.33</v>
       </c>
       <c r="M14">
@@ -1628,7 +1629,7 @@
       <c r="K15">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>0.03</v>
       </c>
       <c r="M15">
@@ -1675,7 +1676,7 @@
       <c r="K16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>0.05</v>
       </c>
       <c r="M16">
@@ -1725,7 +1726,7 @@
       <c r="K17">
         <v>50</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>0.4</v>
       </c>
       <c r="M17">
@@ -1778,7 +1779,7 @@
       <c r="K18">
         <v>75</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>3.36</v>
       </c>
       <c r="M18">
@@ -1828,7 +1829,7 @@
       <c r="K19">
         <v>75</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>3.44</v>
       </c>
       <c r="M19">
@@ -1881,7 +1882,7 @@
       <c r="K20">
         <v>75</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>0.5</v>
       </c>
       <c r="M20">
@@ -1934,7 +1935,7 @@
       <c r="K21">
         <v>75</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>0.35</v>
       </c>
       <c r="M21">
@@ -1984,7 +1985,7 @@
       <c r="K22">
         <v>50</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>7.18</v>
       </c>
       <c r="M22">
@@ -2034,7 +2035,7 @@
       <c r="K23">
         <v>50</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
         <v>0.26</v>
       </c>
       <c r="M23">
@@ -2081,7 +2082,7 @@
       <c r="K24">
         <v>50</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="8">
         <v>1.33</v>
       </c>
       <c r="M24">
@@ -2128,7 +2129,7 @@
       <c r="K25">
         <v>50</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="8">
         <v>3.43</v>
       </c>
       <c r="M25">
@@ -2175,7 +2176,7 @@
       <c r="K26">
         <v>50</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="8">
         <v>5.38</v>
       </c>
       <c r="M26">
@@ -2222,7 +2223,7 @@
       <c r="K27">
         <v>50</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="8">
         <v>7.2</v>
       </c>
       <c r="M27">
@@ -2269,7 +2270,7 @@
       <c r="K28">
         <v>50</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <v>1.47</v>
       </c>
       <c r="M28">
@@ -2316,7 +2317,7 @@
       <c r="K29">
         <v>50</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="8">
         <v>29.98</v>
       </c>
       <c r="M29">
@@ -2363,7 +2364,7 @@
       <c r="K30">
         <v>50</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="8">
         <v>0.03</v>
       </c>
       <c r="M30">
@@ -2410,7 +2411,7 @@
       <c r="K31">
         <v>50</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="8">
         <v>2.27</v>
       </c>
       <c r="M31">
@@ -2463,7 +2464,7 @@
       <c r="K32">
         <v>75</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="8">
         <v>0.88</v>
       </c>
       <c r="M32">
@@ -2513,7 +2514,7 @@
       <c r="K33">
         <v>50</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="8">
         <v>3.47</v>
       </c>
       <c r="M33">
@@ -2566,7 +2567,7 @@
       <c r="K34">
         <v>75</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="8">
         <v>31.92</v>
       </c>
       <c r="M34">
@@ -2613,7 +2614,7 @@
       <c r="K35">
         <v>50</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="8">
         <v>0.8</v>
       </c>
       <c r="M35">
@@ -2660,7 +2661,7 @@
       <c r="K36">
         <v>50</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="8">
         <v>0.02</v>
       </c>
       <c r="M36">
@@ -2707,7 +2708,7 @@
       <c r="K37">
         <v>50</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="8">
         <v>0.03</v>
       </c>
       <c r="M37">
@@ -2754,7 +2755,7 @@
       <c r="K38">
         <v>50</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="8">
         <v>3.01</v>
       </c>
       <c r="M38">
@@ -2801,7 +2802,7 @@
       <c r="K39">
         <v>50</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="8">
         <v>0.12</v>
       </c>
       <c r="M39">
@@ -2854,7 +2855,7 @@
       <c r="K40">
         <v>75</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="8">
         <v>1.07</v>
       </c>
       <c r="M40">
@@ -2904,7 +2905,7 @@
       <c r="K41">
         <v>50</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="8">
         <v>1.03</v>
       </c>
       <c r="M41">
@@ -2951,7 +2952,7 @@
       <c r="K42">
         <v>50</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="8">
         <v>20.170000000000002</v>
       </c>
       <c r="M42">
@@ -2998,7 +2999,7 @@
       <c r="K43">
         <v>50</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="8">
         <v>26.38</v>
       </c>
       <c r="M43">
@@ -3051,7 +3052,7 @@
       <c r="K44">
         <v>50</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="8">
         <v>0.45</v>
       </c>
       <c r="M44">
@@ -3098,7 +3099,7 @@
       <c r="K45">
         <v>50</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <v>15.42</v>
       </c>
       <c r="M45">
@@ -3142,7 +3143,7 @@
       <c r="K46">
         <v>25</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M46">
@@ -3195,7 +3196,7 @@
       <c r="K47">
         <v>75</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="8">
         <v>6</v>
       </c>
       <c r="M47">
@@ -3245,7 +3246,7 @@
       <c r="K48">
         <v>50</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="8">
         <v>6.98</v>
       </c>
       <c r="M48">
@@ -3295,7 +3296,7 @@
       <c r="K49">
         <v>50</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="8">
         <v>2.11</v>
       </c>
       <c r="M49">
@@ -3345,7 +3346,7 @@
       <c r="K50">
         <v>75</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="8">
         <v>6.83</v>
       </c>
       <c r="M50">
@@ -3398,7 +3399,7 @@
       <c r="K51">
         <v>75</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="8">
         <v>5.89</v>
       </c>
       <c r="M51">
@@ -3451,7 +3452,7 @@
       <c r="K52">
         <v>75</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="8">
         <v>0.69</v>
       </c>
       <c r="M52">
@@ -3504,7 +3505,7 @@
       <c r="K53">
         <v>75</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="8">
         <v>149.66</v>
       </c>
       <c r="M53">
@@ -3557,7 +3558,7 @@
       <c r="K54">
         <v>75</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="8">
         <v>0.92</v>
       </c>
       <c r="M54">
@@ -3604,7 +3605,7 @@
       <c r="K55">
         <v>50</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="8">
         <v>4.68</v>
       </c>
       <c r="M55">
@@ -3654,7 +3655,7 @@
       <c r="K56">
         <v>50</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="8">
         <v>5.66</v>
       </c>
       <c r="M56">
@@ -3701,7 +3702,7 @@
       <c r="K57">
         <v>50</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <v>3.56</v>
       </c>
       <c r="M57">
@@ -3748,7 +3749,7 @@
       <c r="K58">
         <v>50</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="8">
         <v>3.62</v>
       </c>
       <c r="M58">
@@ -3795,7 +3796,7 @@
       <c r="K59">
         <v>50</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="8">
         <v>3.11</v>
       </c>
       <c r="M59">
@@ -3848,7 +3849,7 @@
       <c r="K60">
         <v>75</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="8">
         <v>79.260000000000005</v>
       </c>
       <c r="M60">
@@ -3901,7 +3902,7 @@
       <c r="K61">
         <v>75</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="8">
         <v>0.78</v>
       </c>
       <c r="M61">
@@ -3948,7 +3949,7 @@
       <c r="K62">
         <v>50</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="8">
         <v>0.28000000000000003</v>
       </c>
       <c r="M62">
@@ -4001,7 +4002,7 @@
       <c r="K63">
         <v>75</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="8">
         <v>2.2200000000000002</v>
       </c>
       <c r="M63">
@@ -4048,7 +4049,7 @@
       <c r="K64">
         <v>50</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="8">
         <v>33.76</v>
       </c>
       <c r="M64">
@@ -4101,7 +4102,7 @@
       <c r="K65">
         <v>75</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="8">
         <v>0.94</v>
       </c>
       <c r="M65">
@@ -4148,7 +4149,7 @@
       <c r="K66">
         <v>50</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="8">
         <v>1.31</v>
       </c>
       <c r="M66">
@@ -4201,7 +4202,7 @@
       <c r="K67">
         <v>50</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="8">
         <v>5.81</v>
       </c>
       <c r="M67">
@@ -4254,7 +4255,7 @@
       <c r="K68">
         <v>75</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="8">
         <v>7.03</v>
       </c>
       <c r="M68">
@@ -4301,7 +4302,7 @@
       <c r="K69">
         <v>50</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="8">
         <v>4.5199999999999996</v>
       </c>
       <c r="M69">
@@ -4354,7 +4355,7 @@
       <c r="K70">
         <v>75</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="8">
         <v>6.6</v>
       </c>
       <c r="M70">
@@ -4404,7 +4405,7 @@
       <c r="K71">
         <v>75</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="8">
         <v>11.71</v>
       </c>
       <c r="M71">
@@ -4457,7 +4458,7 @@
       <c r="K72">
         <v>75</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="8">
         <v>6.6</v>
       </c>
       <c r="M72">
@@ -4510,7 +4511,7 @@
       <c r="K73">
         <v>75</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="8">
         <v>8.4499999999999993</v>
       </c>
       <c r="M73">
@@ -4563,7 +4564,7 @@
       <c r="K74">
         <v>75</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="8">
         <v>153.59</v>
       </c>
       <c r="M74">
@@ -4610,7 +4611,7 @@
       <c r="K75">
         <v>50</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="8">
         <v>4.3499999999999996</v>
       </c>
       <c r="M75">
@@ -4657,7 +4658,7 @@
       <c r="K76">
         <v>50</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="8">
         <v>5.39</v>
       </c>
       <c r="M76">
@@ -4710,7 +4711,7 @@
       <c r="K77">
         <v>75</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="8">
         <v>8.2200000000000006</v>
       </c>
       <c r="M77">
@@ -4763,6 +4764,7 @@
       <c r="K78">
         <v>75</v>
       </c>
+      <c r="L78" s="8"/>
       <c r="Q78" t="s">
         <v>38</v>
       </c>
@@ -4804,7 +4806,7 @@
       <c r="K79">
         <v>75</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="8">
         <v>1.34</v>
       </c>
       <c r="M79">
@@ -4857,6 +4859,7 @@
       <c r="K80">
         <v>75</v>
       </c>
+      <c r="L80" s="8"/>
       <c r="Q80" t="s">
         <v>38</v>
       </c>
@@ -4892,7 +4895,7 @@
       <c r="K81">
         <v>50</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="8">
         <v>15.89</v>
       </c>
       <c r="M81">
@@ -4939,7 +4942,7 @@
       <c r="K82">
         <v>50</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="8">
         <v>63.97</v>
       </c>
       <c r="M82">
@@ -4992,7 +4995,7 @@
       <c r="K83">
         <v>75</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="8">
         <v>1.38</v>
       </c>
       <c r="M83">
@@ -5042,7 +5045,7 @@
       <c r="K84">
         <v>50</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="8">
         <v>0.23</v>
       </c>
       <c r="M84">
@@ -5092,7 +5095,7 @@
       <c r="K85">
         <v>50</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="8">
         <v>1.05</v>
       </c>
       <c r="M85">
@@ -5142,7 +5145,7 @@
       <c r="K86">
         <v>75</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="8">
         <v>0.06</v>
       </c>
       <c r="M86">
@@ -5195,7 +5198,7 @@
       <c r="K87">
         <v>75</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="8">
         <v>0.25</v>
       </c>
       <c r="M87">
@@ -5248,7 +5251,7 @@
       <c r="K88">
         <v>75</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="8">
         <v>0.2</v>
       </c>
       <c r="M88">
@@ -5298,7 +5301,7 @@
       <c r="K89">
         <v>50</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="8">
         <v>1.56</v>
       </c>
       <c r="M89">
@@ -5348,7 +5351,7 @@
       <c r="K90">
         <v>50</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="8">
         <v>0.42</v>
       </c>
       <c r="M90">
@@ -5401,7 +5404,7 @@
       <c r="K91">
         <v>75</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="8">
         <v>0.11</v>
       </c>
       <c r="M91">
@@ -5448,7 +5451,7 @@
       <c r="K92">
         <v>50</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="8">
         <v>0.08</v>
       </c>
       <c r="M92">
@@ -5554,7 +5557,7 @@
       <c r="K94">
         <v>75</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="8">
         <v>0.34</v>
       </c>
       <c r="M94">
@@ -5601,7 +5604,7 @@
       <c r="K95">
         <v>50</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="8">
         <v>0.41</v>
       </c>
       <c r="M95">
@@ -5645,7 +5648,7 @@
       <c r="K96">
         <v>25</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="8">
         <v>0.05</v>
       </c>
       <c r="M96">
@@ -5695,7 +5698,7 @@
       <c r="K97">
         <v>50</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="8">
         <v>0.23</v>
       </c>
       <c r="M97">
@@ -5745,7 +5748,7 @@
       <c r="K98">
         <v>50</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="8">
         <v>22.19</v>
       </c>
       <c r="M98">
@@ -5792,7 +5795,7 @@
       <c r="K99">
         <v>50</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="8">
         <v>6.65</v>
       </c>
       <c r="M99">
@@ -5839,7 +5842,7 @@
       <c r="K100">
         <v>50</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="8">
         <v>0.33</v>
       </c>
       <c r="M100">
@@ -5886,7 +5889,7 @@
       <c r="K101">
         <v>50</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="8">
         <v>8.81</v>
       </c>
       <c r="M101">
@@ -5936,7 +5939,7 @@
       <c r="K102">
         <v>75</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="8">
         <v>0.08</v>
       </c>
       <c r="M102">
@@ -5986,7 +5989,7 @@
       <c r="K103">
         <v>75</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="8">
         <v>0.08</v>
       </c>
       <c r="M103">
@@ -6030,7 +6033,7 @@
       <c r="K104">
         <v>25</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="8">
         <v>0.05</v>
       </c>
       <c r="M104">
@@ -6083,7 +6086,7 @@
       <c r="K105">
         <v>75</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="8">
         <v>0.13</v>
       </c>
       <c r="M105">
@@ -6127,7 +6130,7 @@
       <c r="K106">
         <v>25</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="8">
         <v>0.05</v>
       </c>
       <c r="M106">
@@ -6177,6 +6180,7 @@
       <c r="K107">
         <v>75</v>
       </c>
+      <c r="L107" s="8"/>
       <c r="Q107" t="s">
         <v>38</v>
       </c>
@@ -6212,6 +6216,7 @@
       <c r="K108">
         <v>50</v>
       </c>
+      <c r="L108" s="8"/>
       <c r="Q108" t="s">
         <v>38</v>
       </c>
@@ -6250,7 +6255,7 @@
       <c r="K109">
         <v>50</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="8">
         <v>1.31</v>
       </c>
       <c r="M109">
@@ -6300,6 +6305,7 @@
       <c r="K110">
         <v>75</v>
       </c>
+      <c r="L110" s="8"/>
       <c r="Q110" t="s">
         <v>38</v>
       </c>
@@ -6332,7 +6338,7 @@
       <c r="K111">
         <v>25</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="8">
         <v>0.03</v>
       </c>
       <c r="M111">
@@ -6382,7 +6388,7 @@
       <c r="K112">
         <v>75</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="8">
         <v>0.03</v>
       </c>
       <c r="M112">
@@ -6432,7 +6438,7 @@
       <c r="K113">
         <v>75</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="8">
         <v>0.06</v>
       </c>
       <c r="M113">
@@ -6482,7 +6488,7 @@
       <c r="K114">
         <v>75</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="8">
         <v>0.16</v>
       </c>
       <c r="M114">
@@ -6526,7 +6532,7 @@
       <c r="K115">
         <v>25</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="8">
         <v>0.05</v>
       </c>
       <c r="M115">
@@ -6576,7 +6582,7 @@
       <c r="K116">
         <v>75</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="8">
         <v>0.09</v>
       </c>
       <c r="M116">
@@ -6623,7 +6629,7 @@
       <c r="K117">
         <v>50</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="8">
         <v>0.06</v>
       </c>
       <c r="M117">
@@ -6667,7 +6673,7 @@
       <c r="K118">
         <v>25</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="8">
         <v>0.06</v>
       </c>
       <c r="M118">
@@ -6717,7 +6723,7 @@
       <c r="K119">
         <v>75</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="8">
         <v>0.06</v>
       </c>
       <c r="M119">
@@ -6761,7 +6767,7 @@
       <c r="K120">
         <v>25</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="8">
         <v>0.02</v>
       </c>
       <c r="M120">
@@ -6808,7 +6814,7 @@
       <c r="K121">
         <v>50</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="8">
         <v>0.02</v>
       </c>
       <c r="M121">
@@ -6858,7 +6864,7 @@
       <c r="K122">
         <v>75</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="8">
         <v>0.11</v>
       </c>
       <c r="M122">
@@ -6905,6 +6911,7 @@
       <c r="K123">
         <v>25</v>
       </c>
+      <c r="L123" s="8"/>
       <c r="Q123" t="s">
         <v>38</v>
       </c>
@@ -6943,7 +6950,7 @@
       <c r="K124">
         <v>75</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="8">
         <v>0.23</v>
       </c>
       <c r="M124">
@@ -6990,7 +6997,7 @@
       <c r="K125">
         <v>50</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="8">
         <v>0.02</v>
       </c>
       <c r="M125">
@@ -7034,7 +7041,7 @@
       <c r="K126">
         <v>25</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="8">
         <v>0</v>
       </c>
       <c r="M126">
@@ -7081,7 +7088,7 @@
       <c r="K127">
         <v>25</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="8">
         <v>0.02</v>
       </c>
       <c r="M127">
@@ -7131,7 +7138,7 @@
       <c r="K128">
         <v>75</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="8">
         <v>0.02</v>
       </c>
       <c r="M128">
@@ -7175,6 +7182,7 @@
       <c r="K129">
         <v>25</v>
       </c>
+      <c r="L129" s="8"/>
       <c r="Q129" t="s">
         <v>38</v>
       </c>
@@ -7213,7 +7221,7 @@
       <c r="K130">
         <v>50</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="8">
         <v>0.02</v>
       </c>
       <c r="M130">

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5C801-5254-40E3-8B6D-C277CE63D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF554300-01D0-456C-B151-C158BCCCE1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="154">
   <si>
     <t>Código</t>
   </si>
@@ -472,6 +472,21 @@
   </si>
   <si>
     <t>Y set / janelas</t>
+  </si>
+  <si>
+    <t>Gerações</t>
+  </si>
+  <si>
+    <t>T. proc. [min]</t>
+  </si>
+  <si>
+    <t>Divisão por ZERO</t>
+  </si>
+  <si>
+    <t>Não sai de 125/150</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150</t>
   </si>
 </sst>
 </file>
@@ -876,34 +891,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -958,108 +981,152 @@
       <c r="R1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>158933</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>382</v>
-      </c>
       <c r="I2">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>75</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>0.02</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>25</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>698</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+        <v>108839</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L3" s="8">
-        <v>2.87</v>
+        <v>0.05</v>
       </c>
       <c r="M3">
-        <v>11300</v>
+        <v>1500</v>
       </c>
       <c r="N3">
-        <v>818</v>
+        <v>96</v>
       </c>
       <c r="O3">
-        <v>1215</v>
+        <v>195</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>0.22</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>96</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>221</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>2321</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1067,32 +1134,29 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
       <c r="H4">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>50</v>
       </c>
       <c r="L4" s="8">
-        <v>0.76</v>
+        <v>0.02</v>
       </c>
       <c r="M4">
-        <v>11050</v>
+        <v>375</v>
       </c>
       <c r="N4">
-        <v>560</v>
+        <v>125</v>
       </c>
       <c r="O4">
-        <v>1065</v>
+        <v>135</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1100,102 +1164,120 @@
       <c r="Q4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>0.05</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>125</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="B5">
-        <v>701</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>102482</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <v>1800</v>
+      </c>
+      <c r="N5">
+        <v>108</v>
+      </c>
+      <c r="O5">
+        <v>165</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>0.09</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>108</v>
+      </c>
+      <c r="W5">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>53</v>
-      </c>
-      <c r="I5">
-        <v>96</v>
-      </c>
-      <c r="J5">
-        <v>56</v>
-      </c>
-      <c r="K5">
+      <c r="X5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1295</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="L5" s="8">
-        <v>4.21</v>
-      </c>
-      <c r="M5">
-        <v>10150</v>
-      </c>
-      <c r="N5">
-        <v>1219</v>
-      </c>
-      <c r="O5">
-        <v>1455</v>
-      </c>
-      <c r="P5">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>710</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>134</v>
-      </c>
-      <c r="J6">
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <v>75</v>
-      </c>
       <c r="L6" s="8">
-        <v>0.92</v>
+        <v>0.03</v>
       </c>
       <c r="M6">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="N6">
-        <v>920</v>
+        <v>150</v>
       </c>
       <c r="O6">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1203,366 +1285,441 @@
       <c r="Q6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6">
+        <v>150</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+      <c r="X6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1325</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>744</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
       <c r="I7">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>50</v>
       </c>
       <c r="L7" s="8">
-        <v>158.80000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M7">
-        <v>2375</v>
+        <v>450</v>
       </c>
       <c r="N7">
-        <v>471</v>
+        <v>150</v>
       </c>
       <c r="O7">
-        <v>2375</v>
+        <v>150</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>0.09</v>
+      </c>
+      <c r="U7">
+        <v>11</v>
+      </c>
+      <c r="V7">
+        <v>150</v>
+      </c>
+      <c r="W7">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>2267</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="M8">
+        <v>450</v>
+      </c>
+      <c r="N8">
+        <v>150</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>0.08</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>150</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1813</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>949</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="I9">
+        <v>31</v>
+      </c>
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>82</v>
-      </c>
-      <c r="I8">
-        <v>108</v>
-      </c>
-      <c r="J8">
-        <v>78</v>
-      </c>
-      <c r="K8">
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="M9">
+        <v>775</v>
+      </c>
+      <c r="N9">
+        <v>175</v>
+      </c>
+      <c r="O9">
+        <v>360</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>0.25</v>
+      </c>
+      <c r="U9">
+        <v>19</v>
+      </c>
+      <c r="V9">
+        <v>175</v>
+      </c>
+      <c r="W9">
+        <v>13</v>
+      </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2330</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M10">
+        <v>525</v>
+      </c>
+      <c r="N10">
+        <v>175</v>
+      </c>
+      <c r="O10">
+        <v>165</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>0.17</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>175</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>116300</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M11">
+        <v>1800</v>
+      </c>
+      <c r="N11">
+        <v>117</v>
+      </c>
+      <c r="O11">
+        <v>210</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>0.17</v>
+      </c>
+      <c r="U11">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>117</v>
+      </c>
+      <c r="W11">
+        <v>19</v>
+      </c>
+      <c r="X11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>145815</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M12">
+        <v>950</v>
+      </c>
+      <c r="N12">
         <v>75</v>
       </c>
-      <c r="L8" s="8">
-        <v>553.92999999999995</v>
-      </c>
-      <c r="M8">
-        <v>13950</v>
-      </c>
-      <c r="N8">
-        <v>1996</v>
-      </c>
-      <c r="O8">
-        <v>1995</v>
-      </c>
-      <c r="P8">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1082</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>146</v>
-      </c>
-      <c r="J9">
-        <v>48</v>
-      </c>
-      <c r="K9">
+      <c r="O12">
         <v>75</v>
       </c>
-      <c r="L9" s="8">
-        <v>3.28</v>
-      </c>
-      <c r="M9">
-        <v>11725</v>
-      </c>
-      <c r="N9">
-        <v>982</v>
-      </c>
-      <c r="O9">
-        <v>1530</v>
-      </c>
-      <c r="P9">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>129</v>
+      </c>
+      <c r="B13">
+        <v>158950</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1120</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="I13">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>165</v>
-      </c>
-      <c r="J10">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>75</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="M10">
-        <v>12050</v>
-      </c>
-      <c r="N10">
-        <v>1025</v>
-      </c>
-      <c r="O10">
-        <v>1605</v>
-      </c>
-      <c r="P10">
-        <v>17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1317</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11" s="8">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="M11">
-        <v>600</v>
-      </c>
-      <c r="N11">
-        <v>200</v>
-      </c>
-      <c r="O11">
-        <v>180</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1287</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>49</v>
-      </c>
-      <c r="I12">
-        <v>137</v>
-      </c>
-      <c r="J12">
-        <v>39</v>
-      </c>
-      <c r="K12">
-        <v>75</v>
-      </c>
-      <c r="L12" s="8">
-        <v>4.28</v>
-      </c>
-      <c r="M12">
-        <v>9775</v>
-      </c>
-      <c r="N12">
-        <v>998</v>
-      </c>
-      <c r="O12">
-        <v>1170</v>
-      </c>
-      <c r="P12">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1309</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13">
-        <v>47</v>
-      </c>
       <c r="J13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>50</v>
       </c>
       <c r="L13" s="8">
-        <v>1.36</v>
+        <v>0.02</v>
       </c>
       <c r="M13">
-        <v>1175</v>
+        <v>425</v>
       </c>
       <c r="N13">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="O13">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1571,28 +1728,28 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J14">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>50</v>
       </c>
       <c r="L14" s="8">
-        <v>4.33</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M14">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="N14">
-        <v>532</v>
+        <v>200</v>
       </c>
       <c r="O14">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -1600,16 +1757,31 @@
       <c r="Q14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U14">
+        <v>38</v>
+      </c>
+      <c r="V14">
+        <v>200</v>
+      </c>
+      <c r="W14">
+        <v>14</v>
+      </c>
+      <c r="X14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>1295</v>
+        <v>2283</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1618,75 +1790,87 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>15</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>50</v>
       </c>
       <c r="L15" s="8">
-        <v>0.03</v>
+        <v>3.01</v>
       </c>
       <c r="M15">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N15">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O15">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>0.25</v>
+      </c>
+      <c r="U15">
+        <v>23</v>
+      </c>
+      <c r="V15">
+        <v>200</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>1325</v>
+        <v>2682</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L16" s="8">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M16">
-        <v>450</v>
+        <v>2150</v>
       </c>
       <c r="N16">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O16">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1694,49 +1878,58 @@
       <c r="Q16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>0.25</v>
+      </c>
+      <c r="U16">
+        <v>24</v>
+      </c>
+      <c r="V16">
+        <v>144</v>
+      </c>
+      <c r="W16">
+        <v>16</v>
+      </c>
+      <c r="X16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>153699</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1406</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>34</v>
-      </c>
-      <c r="I17">
-        <v>90</v>
-      </c>
       <c r="J17">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M17">
+        <v>400</v>
+      </c>
+      <c r="N17">
         <v>50</v>
       </c>
-      <c r="L17" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="M17">
-        <v>8125</v>
-      </c>
-      <c r="N17">
-        <v>491</v>
-      </c>
       <c r="O17">
-        <v>765</v>
+        <v>60</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1744,16 +1937,31 @@
       <c r="Q17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>0.03</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17">
+        <v>50</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B18">
-        <v>1414</v>
+        <v>162957</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1761,52 +1969,49 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
       <c r="H18">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M18">
+        <v>1200</v>
+      </c>
+      <c r="N18">
+        <v>71</v>
+      </c>
+      <c r="O18">
         <v>75</v>
       </c>
-      <c r="L18" s="8">
-        <v>3.36</v>
-      </c>
-      <c r="M18">
-        <v>9575</v>
-      </c>
-      <c r="N18">
-        <v>1022</v>
-      </c>
-      <c r="O18">
-        <v>1335</v>
-      </c>
       <c r="P18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B19">
-        <v>1350</v>
+        <v>163678</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1818,45 +2023,48 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>75</v>
       </c>
       <c r="L19" s="8">
-        <v>3.44</v>
+        <v>0.02</v>
       </c>
       <c r="M19">
-        <v>5600</v>
+        <v>1025</v>
       </c>
       <c r="N19">
-        <v>694</v>
+        <v>95</v>
       </c>
       <c r="O19">
-        <v>855</v>
+        <v>105</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>1503</v>
+        <v>1309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -1864,52 +2072,61 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
       <c r="H20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="J20">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L20" s="8">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="M20">
-        <v>5500</v>
+        <v>1175</v>
       </c>
       <c r="N20">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="O20">
-        <v>870</v>
+        <v>240</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="U20">
+        <v>304</v>
+      </c>
+      <c r="V20">
+        <v>225</v>
+      </c>
+      <c r="W20">
+        <v>24</v>
+      </c>
+      <c r="X20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>1759</v>
+        <v>2259</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -1917,35 +2134,29 @@
       <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
       <c r="H21">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="J21">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L21" s="8">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="M21">
-        <v>10825</v>
+        <v>1175</v>
       </c>
       <c r="N21">
-        <v>661</v>
+        <v>225</v>
       </c>
       <c r="O21">
-        <v>1620</v>
+        <v>225</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1953,16 +2164,31 @@
       <c r="Q21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>5.69</v>
+      </c>
+      <c r="U21">
+        <v>323</v>
+      </c>
+      <c r="V21">
+        <v>225</v>
+      </c>
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>1767</v>
+        <v>4863</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -1970,49 +2196,64 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J22">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L22" s="8">
-        <v>7.18</v>
+        <v>0.06</v>
       </c>
       <c r="M22">
-        <v>7625</v>
+        <v>1975</v>
       </c>
       <c r="N22">
-        <v>567</v>
+        <v>195</v>
       </c>
       <c r="O22">
-        <v>1080</v>
+        <v>330</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>104</v>
+      </c>
+      <c r="V22">
+        <v>195</v>
+      </c>
+      <c r="W22">
+        <v>13</v>
+      </c>
+      <c r="X22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>1457</v>
+        <v>5800</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -2020,32 +2261,29 @@
       <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
       <c r="H23">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <v>50</v>
       </c>
       <c r="L23" s="8">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="M23">
-        <v>4300</v>
+        <v>1225</v>
       </c>
       <c r="N23">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="O23">
-        <v>540</v>
+        <v>315</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2053,16 +2291,31 @@
       <c r="Q23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>1.03</v>
+      </c>
+      <c r="U23">
+        <v>60</v>
+      </c>
+      <c r="V23">
+        <v>241</v>
+      </c>
+      <c r="W23">
+        <v>22</v>
+      </c>
+      <c r="X23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>1783</v>
+        <v>123315</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -2070,29 +2323,32 @@
       <c r="E24" t="s">
         <v>3</v>
       </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
       <c r="H24">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J24">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L24" s="8">
-        <v>1.33</v>
+        <v>0.08</v>
       </c>
       <c r="M24">
-        <v>2775</v>
+        <v>1625</v>
       </c>
       <c r="N24">
-        <v>519</v>
+        <v>229</v>
       </c>
       <c r="O24">
-        <v>570</v>
+        <v>210</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2100,16 +2356,19 @@
       <c r="Q24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B25">
-        <v>1791</v>
+        <v>144290</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -2117,46 +2376,52 @@
       <c r="E25" t="s">
         <v>3</v>
       </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
       <c r="H25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J25">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L25" s="8">
-        <v>3.43</v>
+        <v>0.06</v>
       </c>
       <c r="M25">
-        <v>2350</v>
+        <v>2100</v>
       </c>
       <c r="N25">
-        <v>450</v>
+        <v>199</v>
       </c>
       <c r="O25">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B26">
-        <v>2054</v>
+        <v>5150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -2164,46 +2429,64 @@
       <c r="E26" t="s">
         <v>3</v>
       </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
       <c r="H26">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I26">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K26">
         <v>50</v>
       </c>
       <c r="L26" s="8">
-        <v>5.38</v>
+        <v>0.23</v>
       </c>
       <c r="M26">
-        <v>2700</v>
+        <v>5600</v>
       </c>
       <c r="N26">
-        <v>548</v>
+        <v>341</v>
       </c>
       <c r="O26">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="P26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>13.5</v>
+      </c>
+      <c r="U26">
+        <v>347</v>
+      </c>
+      <c r="V26">
+        <v>341</v>
+      </c>
+      <c r="W26">
+        <v>39</v>
+      </c>
+      <c r="X26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B27">
-        <v>1805</v>
+        <v>5797</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -2211,46 +2494,67 @@
       <c r="E27" t="s">
         <v>3</v>
       </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
       <c r="H27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J27">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L27" s="8">
-        <v>7.2</v>
+        <v>0.11</v>
       </c>
       <c r="M27">
-        <v>2025</v>
+        <v>3400</v>
       </c>
       <c r="N27">
-        <v>425</v>
+        <v>261</v>
       </c>
       <c r="O27">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>1.56</v>
+      </c>
+      <c r="U27">
+        <v>99</v>
+      </c>
+      <c r="V27">
+        <v>261</v>
+      </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B28">
-        <v>1830</v>
+        <v>6190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -2259,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>47</v>
@@ -2271,16 +2575,16 @@
         <v>50</v>
       </c>
       <c r="L28" s="8">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="M28">
-        <v>2350</v>
+        <v>1800</v>
       </c>
       <c r="N28">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="O28">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2288,16 +2592,31 @@
       <c r="Q28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="U28">
+        <v>117</v>
+      </c>
+      <c r="V28">
+        <v>350</v>
+      </c>
+      <c r="W28">
+        <v>33</v>
+      </c>
+      <c r="X28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>2062</v>
+        <v>2674</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -2305,46 +2624,67 @@
       <c r="E29" t="s">
         <v>3</v>
       </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
       <c r="H29">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <v>50</v>
       </c>
       <c r="L29" s="8">
-        <v>29.98</v>
+        <v>0.45</v>
       </c>
       <c r="M29">
-        <v>2750</v>
+        <v>9225</v>
       </c>
       <c r="N29">
-        <v>557</v>
+        <v>406</v>
       </c>
       <c r="O29">
-        <v>585</v>
+        <v>825</v>
       </c>
       <c r="P29">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>13.73</v>
+      </c>
+      <c r="U29">
+        <v>326</v>
+      </c>
+      <c r="V29">
+        <v>406</v>
+      </c>
+      <c r="W29">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>1813</v>
+        <v>3786</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -2353,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>14</v>
@@ -2365,16 +2705,16 @@
         <v>50</v>
       </c>
       <c r="L30" s="8">
-        <v>0.03</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M30">
-        <v>775</v>
+        <v>2075</v>
       </c>
       <c r="N30">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="O30">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2382,16 +2722,31 @@
       <c r="Q30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>22.5</v>
+      </c>
+      <c r="U30">
+        <v>841</v>
+      </c>
+      <c r="V30">
+        <v>366</v>
+      </c>
+      <c r="W30">
+        <v>27</v>
+      </c>
+      <c r="X30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B31">
-        <v>2119</v>
+        <v>5657</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -2399,46 +2754,67 @@
       <c r="E31" t="s">
         <v>3</v>
       </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
       <c r="H31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="J31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L31" s="8">
-        <v>2.27</v>
+        <v>0.25</v>
       </c>
       <c r="M31">
-        <v>2625</v>
+        <v>4450</v>
       </c>
       <c r="N31">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="O31">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="P31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>21.97</v>
+      </c>
+      <c r="U31">
+        <v>799</v>
+      </c>
+      <c r="V31">
+        <v>339</v>
+      </c>
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B32">
-        <v>2070</v>
+        <v>129631</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -2453,28 +2829,28 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="J32">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="K32">
         <v>75</v>
       </c>
       <c r="L32" s="8">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="M32">
-        <v>16275</v>
+        <v>4575</v>
       </c>
       <c r="N32">
-        <v>785</v>
+        <v>299</v>
       </c>
       <c r="O32">
-        <v>1560</v>
+        <v>375</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2482,16 +2858,19 @@
       <c r="Q32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>2275</v>
+        <v>1457</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -2503,28 +2882,28 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I33">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J33">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K33">
         <v>50</v>
       </c>
       <c r="L33" s="8">
-        <v>3.47</v>
+        <v>0.26</v>
       </c>
       <c r="M33">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="N33">
-        <v>966</v>
+        <v>359</v>
       </c>
       <c r="O33">
-        <v>1155</v>
+        <v>540</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2532,16 +2911,31 @@
       <c r="Q33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>6.21</v>
+      </c>
+      <c r="U33">
+        <v>226</v>
+      </c>
+      <c r="V33">
+        <v>359</v>
+      </c>
+      <c r="W33">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>2445</v>
+        <v>1805</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -2549,99 +2943,120 @@
       <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
       <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
         <v>47</v>
       </c>
-      <c r="I34">
-        <v>140</v>
-      </c>
       <c r="J34">
+        <v>21</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="M34">
+        <v>2025</v>
+      </c>
+      <c r="N34">
+        <v>425</v>
+      </c>
+      <c r="O34">
+        <v>510</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34">
+        <v>4.83</v>
+      </c>
+      <c r="U34">
+        <v>150</v>
+      </c>
+      <c r="V34">
+        <v>425</v>
+      </c>
+      <c r="W34">
+        <v>42</v>
+      </c>
+      <c r="X34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>3700</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>17</v>
+      </c>
+      <c r="I35">
         <v>47</v>
       </c>
-      <c r="K34">
-        <v>75</v>
-      </c>
-      <c r="L34" s="8">
-        <v>31.92</v>
-      </c>
-      <c r="M34">
-        <v>10075</v>
-      </c>
-      <c r="N34">
-        <v>896</v>
-      </c>
-      <c r="O34">
-        <v>1515</v>
-      </c>
-      <c r="P34">
-        <v>11</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2330</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
+      <c r="J35">
         <v>15</v>
-      </c>
-      <c r="J35">
-        <v>6</v>
       </c>
       <c r="K35">
         <v>50</v>
       </c>
       <c r="L35" s="8">
-        <v>0.8</v>
+        <v>3.56</v>
       </c>
       <c r="M35">
-        <v>525</v>
+        <v>2275</v>
       </c>
       <c r="N35">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="O35">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>19.2</v>
+      </c>
+      <c r="U35">
+        <v>905</v>
+      </c>
+      <c r="V35">
+        <v>425</v>
+      </c>
+      <c r="W35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B36">
-        <v>2321</v>
+        <v>126071</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -2649,29 +3064,32 @@
       <c r="E36" t="s">
         <v>3</v>
       </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
       <c r="H36">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I36">
+        <v>103</v>
+      </c>
+      <c r="J36">
         <v>15</v>
       </c>
-      <c r="J36">
-        <v>6</v>
-      </c>
       <c r="K36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L36" s="8">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="M36">
+        <v>2825</v>
+      </c>
+      <c r="N36">
+        <v>299</v>
+      </c>
+      <c r="O36">
         <v>375</v>
-      </c>
-      <c r="N36">
-        <v>125</v>
-      </c>
-      <c r="O36">
-        <v>135</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2679,46 +3097,46 @@
       <c r="Q36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B37">
-        <v>2267</v>
+        <v>158976</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I37">
+        <v>29</v>
+      </c>
+      <c r="J37">
         <v>15</v>
       </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
       <c r="K37">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L37" s="8">
         <v>0.03</v>
       </c>
       <c r="M37">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="N37">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O37">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2726,16 +3144,31 @@
       <c r="Q37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U37">
+        <v>17</v>
+      </c>
+      <c r="V37">
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <v>9</v>
+      </c>
+      <c r="X37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B38">
-        <v>2283</v>
+        <v>158925</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -2744,45 +3177,48 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>6</v>
       </c>
       <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M38">
+        <v>875</v>
+      </c>
+      <c r="N38">
         <v>50</v>
       </c>
-      <c r="L38" s="8">
-        <v>3.01</v>
-      </c>
-      <c r="M38">
-        <v>600</v>
-      </c>
-      <c r="N38">
-        <v>200</v>
-      </c>
       <c r="O38">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>2259</v>
+        <v>1791</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -2791,81 +3227,90 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I39">
         <v>47</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K39">
         <v>50</v>
       </c>
       <c r="L39" s="8">
-        <v>0.12</v>
+        <v>3.43</v>
       </c>
       <c r="M39">
-        <v>1175</v>
+        <v>2350</v>
       </c>
       <c r="N39">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="O39">
-        <v>225</v>
+        <v>465</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>11.86</v>
+      </c>
+      <c r="U39">
+        <v>445</v>
+      </c>
+      <c r="V39">
+        <v>450</v>
+      </c>
+      <c r="W39">
+        <v>35</v>
+      </c>
+      <c r="X39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>2453</v>
+        <v>1830</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>47</v>
+      </c>
+      <c r="J40">
+        <v>17</v>
+      </c>
+      <c r="K40">
         <v>50</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>69</v>
-      </c>
-      <c r="I40">
-        <v>108</v>
-      </c>
-      <c r="J40">
-        <v>60</v>
-      </c>
-      <c r="K40">
-        <v>75</v>
-      </c>
       <c r="L40" s="8">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="M40">
-        <v>20325</v>
+        <v>2350</v>
       </c>
       <c r="N40">
-        <v>937</v>
+        <v>450</v>
       </c>
       <c r="O40">
-        <v>1965</v>
+        <v>480</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2874,15 +3319,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>2461</v>
+        <v>3859</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -2890,32 +3335,29 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
       <c r="H41">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I41">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J41">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K41">
         <v>50</v>
       </c>
       <c r="L41" s="8">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="M41">
-        <v>8375</v>
+        <v>2300</v>
       </c>
       <c r="N41">
-        <v>597</v>
+        <v>441</v>
       </c>
       <c r="O41">
-        <v>855</v>
+        <v>435</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2924,15 +3366,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <v>2852</v>
+        <v>111660</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -2941,45 +3383,45 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K42">
         <v>50</v>
       </c>
       <c r="L42" s="8">
-        <v>20.170000000000002</v>
+        <v>8.81</v>
       </c>
       <c r="M42">
-        <v>1800</v>
+        <v>2525</v>
       </c>
       <c r="N42">
-        <v>600</v>
+        <v>455</v>
       </c>
       <c r="O42">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="P42">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>2720</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>710</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -2991,42 +3433,42 @@
         <v>20</v>
       </c>
       <c r="I43">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K43">
         <v>50</v>
       </c>
       <c r="L43" s="8">
-        <v>26.38</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="M43">
-        <v>3000</v>
+        <v>2375</v>
       </c>
       <c r="N43">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="O43">
-        <v>555</v>
+        <v>2375</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>2674</v>
+        <v>1503</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -3041,28 +3483,28 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K44">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L44" s="8">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="M44">
-        <v>9225</v>
+        <v>5500</v>
       </c>
       <c r="N44">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="O44">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3071,15 +3513,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>2739</v>
+        <v>2720</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -3088,72 +3530,78 @@
         <v>3</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I45">
         <v>47</v>
       </c>
       <c r="J45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45">
         <v>50</v>
       </c>
       <c r="L45" s="8">
-        <v>15.42</v>
+        <v>26.38</v>
       </c>
       <c r="M45">
-        <v>3550</v>
+        <v>3000</v>
       </c>
       <c r="N45">
-        <v>592</v>
+        <v>50</v>
       </c>
       <c r="O45">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B46">
-        <v>2682</v>
+        <v>102652</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>3</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I46">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J46">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L46" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="M46">
-        <v>2150</v>
+        <v>7250</v>
       </c>
       <c r="N46">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="O46">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3162,104 +3610,98 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>103004</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>2895</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>48</v>
-      </c>
-      <c r="I47">
-        <v>125</v>
-      </c>
       <c r="J47">
+        <v>23</v>
+      </c>
+      <c r="K47">
         <v>50</v>
       </c>
-      <c r="K47">
-        <v>75</v>
-      </c>
       <c r="L47" s="8">
-        <v>6</v>
+        <v>22.19</v>
       </c>
       <c r="M47">
-        <v>13450</v>
+        <v>2675</v>
       </c>
       <c r="N47">
-        <v>1168</v>
+        <v>491</v>
       </c>
       <c r="O47">
-        <v>1485</v>
+        <v>510</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>99</v>
+      </c>
+      <c r="B48">
+        <v>103063</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>2860</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>49</v>
-      </c>
-      <c r="I48">
-        <v>92</v>
-      </c>
       <c r="J48">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K48">
         <v>50</v>
       </c>
       <c r="L48" s="8">
-        <v>6.98</v>
+        <v>0.33</v>
       </c>
       <c r="M48">
-        <v>10475</v>
+        <v>2350</v>
       </c>
       <c r="N48">
-        <v>1060</v>
+        <v>442</v>
       </c>
       <c r="O48">
-        <v>1140</v>
+        <v>465</v>
       </c>
       <c r="P48">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="s">
         <v>9</v>
@@ -3267,13 +3709,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>3271</v>
+        <v>1783</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -3281,35 +3723,32 @@
       <c r="E49" t="s">
         <v>3</v>
       </c>
-      <c r="G49" t="s">
-        <v>3</v>
-      </c>
       <c r="H49">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I49">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="J49">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K49">
         <v>50</v>
       </c>
       <c r="L49" s="8">
-        <v>2.11</v>
+        <v>1.33</v>
       </c>
       <c r="M49">
-        <v>9250</v>
+        <v>2775</v>
       </c>
       <c r="N49">
-        <v>791</v>
+        <v>519</v>
       </c>
       <c r="O49">
-        <v>930</v>
+        <v>570</v>
       </c>
       <c r="P49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="s">
         <v>9</v>
@@ -3317,49 +3756,46 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1341</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>22</v>
+      </c>
+      <c r="I50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>3301</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>29</v>
-      </c>
-      <c r="I50">
-        <v>94</v>
-      </c>
       <c r="J50">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K50">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L50" s="8">
-        <v>6.83</v>
+        <v>4.33</v>
       </c>
       <c r="M50">
-        <v>4225</v>
+        <v>2800</v>
       </c>
       <c r="N50">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="O50">
-        <v>750</v>
+        <v>480</v>
       </c>
       <c r="P50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="s">
         <v>9</v>
@@ -3367,52 +3803,52 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>4022</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>47</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>3280</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>26</v>
-      </c>
-      <c r="I51">
-        <v>117</v>
-      </c>
-      <c r="J51">
-        <v>29</v>
-      </c>
-      <c r="K51">
-        <v>75</v>
-      </c>
       <c r="L51" s="8">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="M51">
-        <v>5475</v>
+        <v>2900</v>
       </c>
       <c r="N51">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="O51">
-        <v>930</v>
+        <v>510</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q51" t="s">
         <v>9</v>
@@ -3420,13 +3856,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>3514</v>
+        <v>2054</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -3434,38 +3870,32 @@
       <c r="E52" t="s">
         <v>3</v>
       </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
       <c r="H52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="J52">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K52">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L52" s="8">
-        <v>0.69</v>
+        <v>5.38</v>
       </c>
       <c r="M52">
-        <v>6450</v>
+        <v>2700</v>
       </c>
       <c r="N52">
-        <v>602</v>
+        <v>548</v>
       </c>
       <c r="O52">
-        <v>930</v>
+        <v>570</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q52" t="s">
         <v>9</v>
@@ -3473,13 +3903,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>3549</v>
+        <v>2062</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -3487,38 +3917,32 @@
       <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
       <c r="H53">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I53">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="J53">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K53">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L53" s="8">
-        <v>149.66</v>
+        <v>29.98</v>
       </c>
       <c r="M53">
-        <v>16650</v>
+        <v>2750</v>
       </c>
       <c r="N53">
-        <v>1112</v>
+        <v>557</v>
       </c>
       <c r="O53">
-        <v>1950</v>
+        <v>585</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q53" t="s">
         <v>9</v>
@@ -3526,13 +3950,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B54">
-        <v>3522</v>
+        <v>5134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -3547,28 +3971,28 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I54">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="J54">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K54">
         <v>75</v>
       </c>
       <c r="L54" s="8">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="M54">
-        <v>14075</v>
+        <v>4425</v>
       </c>
       <c r="N54">
-        <v>651</v>
+        <v>421</v>
       </c>
       <c r="O54">
-        <v>1365</v>
+        <v>765</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3579,13 +4003,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B55">
-        <v>3719</v>
+        <v>6165</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -3593,32 +4017,35 @@
       <c r="E55" t="s">
         <v>3</v>
       </c>
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
       <c r="H55">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J55">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K55">
         <v>50</v>
       </c>
       <c r="L55" s="8">
-        <v>4.68</v>
+        <v>0.42</v>
       </c>
       <c r="M55">
-        <v>3825</v>
+        <v>5825</v>
       </c>
       <c r="N55">
-        <v>764</v>
+        <v>475</v>
       </c>
       <c r="O55">
         <v>675</v>
       </c>
       <c r="P55">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="s">
         <v>9</v>
@@ -3626,13 +4053,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>3727</v>
+        <v>2852</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -3640,35 +4067,32 @@
       <c r="E56" t="s">
         <v>3</v>
       </c>
-      <c r="G56" t="s">
-        <v>3</v>
-      </c>
       <c r="H56">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I56">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="J56">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K56">
         <v>50</v>
       </c>
       <c r="L56" s="8">
-        <v>5.66</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="M56">
-        <v>11450</v>
+        <v>1800</v>
       </c>
       <c r="N56">
-        <v>1044</v>
+        <v>600</v>
       </c>
       <c r="O56">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="Q56" t="s">
         <v>9</v>
@@ -3676,13 +4100,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>3700</v>
+        <v>3514</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -3690,32 +4114,38 @@
       <c r="E57" t="s">
         <v>3</v>
       </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3</v>
+      </c>
       <c r="H57">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I57">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J57">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L57" s="8">
-        <v>3.56</v>
+        <v>0.69</v>
       </c>
       <c r="M57">
-        <v>2275</v>
+        <v>6450</v>
       </c>
       <c r="N57">
-        <v>425</v>
+        <v>602</v>
       </c>
       <c r="O57">
-        <v>405</v>
+        <v>930</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="s">
         <v>9</v>
@@ -3723,13 +4153,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>3743</v>
+        <v>3522</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -3737,32 +4167,38 @@
       <c r="E58" t="s">
         <v>3</v>
       </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
       <c r="H58">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I58">
+        <v>108</v>
+      </c>
+      <c r="J58">
         <v>43</v>
       </c>
-      <c r="J58">
-        <v>29</v>
-      </c>
       <c r="K58">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L58" s="8">
-        <v>3.62</v>
+        <v>0.92</v>
       </c>
       <c r="M58">
-        <v>3400</v>
+        <v>14075</v>
       </c>
       <c r="N58">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="O58">
-        <v>690</v>
+        <v>1365</v>
       </c>
       <c r="P58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="s">
         <v>9</v>
@@ -3770,13 +4206,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>3751</v>
+        <v>4057</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -3785,31 +4221,31 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I59">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59">
         <v>50</v>
       </c>
       <c r="L59" s="8">
-        <v>3.11</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M59">
-        <v>2800</v>
+        <v>3425</v>
       </c>
       <c r="N59">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="O59">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="P59">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="s">
         <v>9</v>
@@ -3817,13 +4253,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>3832</v>
+        <v>4340</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -3831,38 +4267,32 @@
       <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
       <c r="H60">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I60">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="J60">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="K60">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L60" s="8">
-        <v>79.260000000000005</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="M60">
-        <v>14075</v>
+        <v>3025</v>
       </c>
       <c r="N60">
-        <v>1318</v>
+        <v>567</v>
       </c>
       <c r="O60">
-        <v>1890</v>
+        <v>540</v>
       </c>
       <c r="P60">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q60" t="s">
         <v>9</v>
@@ -3870,13 +4300,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B61">
-        <v>3816</v>
+        <v>5355</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -3891,28 +4321,28 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I61">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="J61">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="K61">
         <v>75</v>
       </c>
       <c r="L61" s="8">
-        <v>0.78</v>
+        <v>1.38</v>
       </c>
       <c r="M61">
-        <v>19225</v>
+        <v>5675</v>
       </c>
       <c r="N61">
-        <v>947</v>
+        <v>479</v>
       </c>
       <c r="O61">
-        <v>1920</v>
+        <v>945</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3923,13 +4353,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>3786</v>
+        <v>2119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -3938,31 +4368,31 @@
         <v>3</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I62">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K62">
         <v>50</v>
       </c>
       <c r="L62" s="8">
-        <v>0.28000000000000003</v>
+        <v>2.27</v>
       </c>
       <c r="M62">
-        <v>2075</v>
+        <v>2625</v>
       </c>
       <c r="N62">
-        <v>366</v>
+        <v>575</v>
       </c>
       <c r="O62">
-        <v>375</v>
+        <v>540</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q62" t="s">
         <v>9</v>
@@ -3970,13 +4400,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>3840</v>
+        <v>2461</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -3984,38 +4414,35 @@
       <c r="E63" t="s">
         <v>3</v>
       </c>
-      <c r="F63" t="s">
-        <v>3</v>
-      </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
       <c r="H63">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I63">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="J63">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K63">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L63" s="8">
-        <v>2.2200000000000002</v>
+        <v>1.03</v>
       </c>
       <c r="M63">
-        <v>11350</v>
+        <v>8375</v>
       </c>
       <c r="N63">
-        <v>870</v>
+        <v>597</v>
       </c>
       <c r="O63">
-        <v>1170</v>
+        <v>855</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="s">
         <v>9</v>
@@ -4023,13 +4450,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B64">
-        <v>3867</v>
+        <v>4979</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -4037,46 +4464,49 @@
       <c r="E64" t="s">
         <v>3</v>
       </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
       <c r="H64">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J64">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K64">
         <v>50</v>
       </c>
       <c r="L64" s="8">
-        <v>33.76</v>
+        <v>1.05</v>
       </c>
       <c r="M64">
-        <v>3825</v>
+        <v>5825</v>
       </c>
       <c r="N64">
-        <v>787</v>
+        <v>523</v>
       </c>
       <c r="O64">
-        <v>750</v>
+        <v>555</v>
       </c>
       <c r="P64">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>3883</v>
+        <v>1767</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -4084,52 +4514,49 @@
       <c r="E65" t="s">
         <v>3</v>
       </c>
-      <c r="F65" t="s">
-        <v>3</v>
-      </c>
       <c r="G65" t="s">
         <v>3</v>
       </c>
       <c r="H65">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I65">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J65">
+        <v>41</v>
+      </c>
+      <c r="K65">
         <v>50</v>
       </c>
-      <c r="K65">
-        <v>75</v>
-      </c>
       <c r="L65" s="8">
-        <v>0.94</v>
+        <v>7.18</v>
       </c>
       <c r="M65">
-        <v>20450</v>
+        <v>7625</v>
       </c>
       <c r="N65">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="O65">
-        <v>1605</v>
+        <v>1080</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>3859</v>
+        <v>2739</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
@@ -4138,251 +4565,239 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I66">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K66">
         <v>50</v>
       </c>
       <c r="L66" s="8">
-        <v>1.31</v>
+        <v>15.42</v>
       </c>
       <c r="M66">
-        <v>2300</v>
+        <v>3550</v>
       </c>
       <c r="N66">
-        <v>441</v>
+        <v>592</v>
       </c>
       <c r="O66">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="B67">
+        <v>3280</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>26</v>
+      </c>
+      <c r="I67">
+        <v>117</v>
+      </c>
+      <c r="J67">
+        <v>29</v>
+      </c>
+      <c r="K67">
+        <v>75</v>
+      </c>
+      <c r="L67" s="8">
+        <v>5.89</v>
+      </c>
+      <c r="M67">
+        <v>5475</v>
+      </c>
+      <c r="N67">
+        <v>616</v>
+      </c>
+      <c r="O67">
+        <v>930</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <v>6173</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>99</v>
+      </c>
+      <c r="J68">
+        <v>35</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="M68">
+        <v>6575</v>
+      </c>
+      <c r="N68">
+        <v>641</v>
+      </c>
+      <c r="O68">
+        <v>1035</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>114</v>
+      </c>
+      <c r="B69">
+        <v>153508</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>51</v>
+      </c>
+      <c r="J69">
+        <v>18</v>
+      </c>
+      <c r="K69">
+        <v>25</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M69">
+        <v>1275</v>
+      </c>
+      <c r="N69">
+        <v>170</v>
+      </c>
+      <c r="O69">
+        <v>270</v>
+      </c>
+      <c r="P69">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>4022</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67">
-        <v>22</v>
-      </c>
-      <c r="I67">
-        <v>47</v>
-      </c>
-      <c r="J67">
-        <v>20</v>
-      </c>
-      <c r="K67">
+      <c r="Q69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>3743</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>28</v>
+      </c>
+      <c r="I70">
+        <v>43</v>
+      </c>
+      <c r="J70">
+        <v>29</v>
+      </c>
+      <c r="K70">
         <v>50</v>
       </c>
-      <c r="L67" s="8">
-        <v>5.81</v>
-      </c>
-      <c r="M67">
-        <v>2900</v>
-      </c>
-      <c r="N67">
-        <v>550</v>
-      </c>
-      <c r="O67">
-        <v>510</v>
-      </c>
-      <c r="P67">
+      <c r="L70" s="8">
+        <v>3.62</v>
+      </c>
+      <c r="M70">
+        <v>3400</v>
+      </c>
+      <c r="N70">
+        <v>661</v>
+      </c>
+      <c r="O70">
+        <v>690</v>
+      </c>
+      <c r="P70">
         <v>10</v>
       </c>
-      <c r="Q67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>4030</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>45</v>
-      </c>
-      <c r="I68">
-        <v>125</v>
-      </c>
-      <c r="J68">
-        <v>47</v>
-      </c>
-      <c r="K68">
-        <v>75</v>
-      </c>
-      <c r="L68" s="8">
-        <v>7.03</v>
-      </c>
-      <c r="M68">
-        <v>11175</v>
-      </c>
-      <c r="N68">
-        <v>1038</v>
-      </c>
-      <c r="O68">
-        <v>1440</v>
-      </c>
-      <c r="P68">
-        <v>16</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>4057</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>24</v>
-      </c>
-      <c r="I69">
-        <v>47</v>
-      </c>
-      <c r="J69">
-        <v>23</v>
-      </c>
-      <c r="K69">
-        <v>50</v>
-      </c>
-      <c r="L69" s="8">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="M69">
-        <v>3425</v>
-      </c>
-      <c r="N69">
-        <v>600</v>
-      </c>
-      <c r="O69">
-        <v>600</v>
-      </c>
-      <c r="P69">
-        <v>6</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>4049</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>56</v>
-      </c>
-      <c r="I70">
-        <v>153</v>
-      </c>
-      <c r="J70">
-        <v>56</v>
-      </c>
-      <c r="K70">
-        <v>75</v>
-      </c>
-      <c r="L70" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="M70">
-        <v>11600</v>
-      </c>
-      <c r="N70">
-        <v>1219</v>
-      </c>
-      <c r="O70">
-        <v>1650</v>
-      </c>
-      <c r="P70">
-        <v>30</v>
-      </c>
       <c r="Q70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B71">
-        <v>4219</v>
+        <v>3301</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -4394,45 +4809,45 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I71">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J71">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="K71">
         <v>75</v>
       </c>
       <c r="L71" s="8">
-        <v>11.71</v>
+        <v>6.83</v>
       </c>
       <c r="M71">
-        <v>10950</v>
+        <v>4225</v>
       </c>
       <c r="N71">
-        <v>1479</v>
+        <v>601</v>
       </c>
       <c r="O71">
-        <v>1650</v>
+        <v>750</v>
       </c>
       <c r="P71">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>4200</v>
+        <v>1350</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -4443,102 +4858,93 @@
       <c r="F72" t="s">
         <v>3</v>
       </c>
-      <c r="G72" t="s">
-        <v>3</v>
-      </c>
       <c r="H72">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I72">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="J72">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K72">
         <v>75</v>
       </c>
       <c r="L72" s="8">
-        <v>6.6</v>
+        <v>3.44</v>
       </c>
       <c r="M72">
-        <v>15925</v>
+        <v>5600</v>
       </c>
       <c r="N72">
-        <v>1298</v>
+        <v>694</v>
       </c>
       <c r="O72">
-        <v>1665</v>
+        <v>855</v>
       </c>
       <c r="P72">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>58</v>
+      </c>
+      <c r="B73">
+        <v>3751</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>30</v>
+      </c>
+      <c r="I73">
+        <v>45</v>
+      </c>
+      <c r="J73">
+        <v>24</v>
+      </c>
+      <c r="K73">
+        <v>50</v>
+      </c>
+      <c r="L73" s="8">
+        <v>3.11</v>
+      </c>
+      <c r="M73">
+        <v>2800</v>
+      </c>
+      <c r="N73">
+        <v>606</v>
+      </c>
+      <c r="O73">
+        <v>585</v>
+      </c>
+      <c r="P73">
         <v>13</v>
       </c>
-      <c r="Q72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>4227</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>43</v>
-      </c>
-      <c r="I73">
-        <v>145</v>
-      </c>
-      <c r="J73">
-        <v>41</v>
-      </c>
-      <c r="K73">
-        <v>75</v>
-      </c>
-      <c r="L73" s="8">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="M73">
-        <v>7950</v>
-      </c>
-      <c r="N73">
-        <v>931</v>
-      </c>
-      <c r="O73">
-        <v>1215</v>
-      </c>
-      <c r="P73">
-        <v>17</v>
-      </c>
       <c r="Q73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B74">
-        <v>4332</v>
+        <v>3719</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -4546,52 +4952,46 @@
       <c r="E74" t="s">
         <v>3</v>
       </c>
-      <c r="F74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" t="s">
-        <v>3</v>
-      </c>
       <c r="H74">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I74">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J74">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K74">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L74" s="8">
-        <v>153.59</v>
+        <v>4.68</v>
       </c>
       <c r="M74">
-        <v>10000</v>
+        <v>3825</v>
       </c>
       <c r="N74">
-        <v>911</v>
+        <v>764</v>
       </c>
       <c r="O74">
-        <v>1230</v>
+        <v>675</v>
       </c>
       <c r="P74">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>4340</v>
+        <v>1406</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -4599,283 +4999,293 @@
       <c r="E75" t="s">
         <v>3</v>
       </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
       <c r="H75">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I75">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K75">
         <v>50</v>
       </c>
       <c r="L75" s="8">
-        <v>4.3499999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="M75">
-        <v>3025</v>
+        <v>8125</v>
       </c>
       <c r="N75">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="O75">
-        <v>540</v>
+        <v>765</v>
       </c>
       <c r="P75">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>62</v>
+      </c>
+      <c r="B76">
+        <v>3840</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>34</v>
+      </c>
+      <c r="I76">
+        <v>160</v>
+      </c>
+      <c r="J76">
+        <v>38</v>
+      </c>
+      <c r="K76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>4359</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76">
+      <c r="L76" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M76">
+        <v>11350</v>
+      </c>
+      <c r="N76">
+        <v>870</v>
+      </c>
+      <c r="O76">
+        <v>1170</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>63</v>
+      </c>
+      <c r="B77">
+        <v>3867</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>34</v>
+      </c>
+      <c r="I77">
+        <v>50</v>
+      </c>
+      <c r="J77">
+        <v>32</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77" s="8">
+        <v>33.76</v>
+      </c>
+      <c r="M77">
+        <v>3825</v>
+      </c>
+      <c r="N77">
+        <v>787</v>
+      </c>
+      <c r="O77">
+        <v>750</v>
+      </c>
+      <c r="P77">
+        <v>16</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>117</v>
+      </c>
+      <c r="B78">
+        <v>153494</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>34</v>
+      </c>
+      <c r="I78">
+        <v>32</v>
+      </c>
+      <c r="J78">
+        <v>21</v>
+      </c>
+      <c r="K78">
+        <v>25</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="M78">
+        <v>1450</v>
+      </c>
+      <c r="N78">
+        <v>200</v>
+      </c>
+      <c r="O78">
+        <v>315</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>48</v>
+      </c>
+      <c r="B79">
+        <v>3271</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>36</v>
+      </c>
+      <c r="I79">
+        <v>106</v>
+      </c>
+      <c r="J79">
+        <v>34</v>
+      </c>
+      <c r="K79">
+        <v>50</v>
+      </c>
+      <c r="L79" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="M79">
+        <v>9250</v>
+      </c>
+      <c r="N79">
+        <v>791</v>
+      </c>
+      <c r="O79">
+        <v>930</v>
+      </c>
+      <c r="P79">
+        <v>10</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>221</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80">
         <v>38</v>
       </c>
-      <c r="I76">
-        <v>48</v>
-      </c>
-      <c r="J76">
-        <v>34</v>
-      </c>
-      <c r="K76">
+      <c r="I80">
+        <v>93</v>
+      </c>
+      <c r="J80">
+        <v>38</v>
+      </c>
+      <c r="K80">
         <v>50</v>
       </c>
-      <c r="L76" s="8">
-        <v>5.39</v>
-      </c>
-      <c r="M76">
-        <v>4750</v>
-      </c>
-      <c r="N76">
-        <v>932</v>
-      </c>
-      <c r="O76">
-        <v>915</v>
-      </c>
-      <c r="P76">
-        <v>40</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>4383</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>48</v>
-      </c>
-      <c r="I77">
-        <v>127</v>
-      </c>
-      <c r="J77">
-        <v>44</v>
-      </c>
-      <c r="K77">
-        <v>75</v>
-      </c>
-      <c r="L77" s="8">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="M77">
-        <v>14150</v>
-      </c>
-      <c r="N77">
-        <v>1177</v>
-      </c>
-      <c r="O77">
-        <v>1500</v>
-      </c>
-      <c r="P77">
-        <v>11</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>4502</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>87</v>
-      </c>
-      <c r="I78">
-        <v>122</v>
-      </c>
-      <c r="J78">
-        <v>75</v>
-      </c>
-      <c r="K78">
-        <v>75</v>
-      </c>
-      <c r="L78" s="8"/>
-      <c r="Q78" t="s">
-        <v>38</v>
-      </c>
-      <c r="R78" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>4510</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>57</v>
-      </c>
-      <c r="I79">
-        <v>113</v>
-      </c>
-      <c r="J79">
-        <v>71</v>
-      </c>
-      <c r="K79">
-        <v>75</v>
-      </c>
-      <c r="L79" s="8">
-        <v>1.34</v>
-      </c>
-      <c r="M79">
-        <v>29625</v>
-      </c>
-      <c r="N79">
-        <v>1434</v>
-      </c>
-      <c r="O79">
-        <v>2385</v>
-      </c>
-      <c r="P79">
+      <c r="L80" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="M80">
+        <v>11050</v>
+      </c>
+      <c r="N80">
+        <v>560</v>
+      </c>
+      <c r="O80">
+        <v>1065</v>
+      </c>
+      <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>4537</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>49</v>
-      </c>
-      <c r="I80">
-        <v>158</v>
-      </c>
-      <c r="J80">
-        <v>55</v>
-      </c>
-      <c r="K80">
-        <v>75</v>
-      </c>
-      <c r="L80" s="8"/>
       <c r="Q80" t="s">
-        <v>38</v>
-      </c>
-      <c r="R80" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>4545</v>
+        <v>4359</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -4884,31 +5294,31 @@
         <v>3</v>
       </c>
       <c r="H81">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I81">
         <v>48</v>
       </c>
       <c r="J81">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K81">
         <v>50</v>
       </c>
       <c r="L81" s="8">
-        <v>15.89</v>
+        <v>5.39</v>
       </c>
       <c r="M81">
-        <v>5600</v>
+        <v>4750</v>
       </c>
       <c r="N81">
-        <v>1132</v>
+        <v>932</v>
       </c>
       <c r="O81">
-        <v>990</v>
+        <v>915</v>
       </c>
       <c r="P81">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q81" t="s">
         <v>9</v>
@@ -4916,13 +5326,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B82">
-        <v>4553</v>
+        <v>102660</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -4931,31 +5341,31 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I82">
         <v>48</v>
       </c>
       <c r="J82">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K82">
         <v>50</v>
       </c>
       <c r="L82" s="8">
-        <v>63.97</v>
+        <v>6.65</v>
       </c>
       <c r="M82">
-        <v>7100</v>
+        <v>4375</v>
       </c>
       <c r="N82">
-        <v>1257</v>
+        <v>932</v>
       </c>
       <c r="O82">
-        <v>1215</v>
+        <v>930</v>
       </c>
       <c r="P82">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q82" t="s">
         <v>9</v>
@@ -4963,13 +5373,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>5355</v>
+        <v>6181</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
@@ -4984,28 +5394,28 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I83">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="J83">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K83">
         <v>75</v>
       </c>
       <c r="L83" s="8">
-        <v>1.38</v>
+        <v>0.34</v>
       </c>
       <c r="M83">
-        <v>5675</v>
+        <v>11825</v>
       </c>
       <c r="N83">
-        <v>479</v>
+        <v>582</v>
       </c>
       <c r="O83">
-        <v>945</v>
+        <v>1815</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5016,13 +5426,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>5150</v>
+        <v>1082</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -5030,35 +5440,38 @@
       <c r="E84" t="s">
         <v>3</v>
       </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
       <c r="G84" t="s">
         <v>3</v>
       </c>
       <c r="H84">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I84">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="J84">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L84" s="8">
-        <v>0.23</v>
+        <v>3.28</v>
       </c>
       <c r="M84">
-        <v>5600</v>
+        <v>11725</v>
       </c>
       <c r="N84">
-        <v>341</v>
+        <v>982</v>
       </c>
       <c r="O84">
-        <v>615</v>
+        <v>1530</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q84" t="s">
         <v>9</v>
@@ -5066,13 +5479,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B85">
-        <v>4979</v>
+        <v>4227</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -5080,35 +5493,38 @@
       <c r="E85" t="s">
         <v>3</v>
       </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
       <c r="G85" t="s">
         <v>3</v>
       </c>
       <c r="H85">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I85">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="J85">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L85" s="8">
-        <v>1.05</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="M85">
-        <v>5825</v>
+        <v>7950</v>
       </c>
       <c r="N85">
-        <v>523</v>
+        <v>931</v>
       </c>
       <c r="O85">
-        <v>555</v>
+        <v>1215</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q85" t="s">
         <v>9</v>
@@ -5116,13 +5532,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B86">
-        <v>4863</v>
+        <v>158747</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -5130,32 +5546,32 @@
       <c r="E86" t="s">
         <v>3</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>3</v>
       </c>
       <c r="H86">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I86">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="J86">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="K86">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L86" s="8">
-        <v>0.06</v>
+        <v>1.31</v>
       </c>
       <c r="M86">
-        <v>1975</v>
+        <v>13600</v>
       </c>
       <c r="N86">
-        <v>195</v>
+        <v>742</v>
       </c>
       <c r="O86">
-        <v>330</v>
+        <v>1095</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5166,13 +5582,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="B87">
-        <v>5657</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>94</v>
+        <v>698</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -5180,38 +5596,35 @@
       <c r="E87" t="s">
         <v>3</v>
       </c>
-      <c r="F87" t="s">
-        <v>3</v>
-      </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
       <c r="H87">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I87">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J87">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L87" s="8">
-        <v>0.25</v>
+        <v>2.87</v>
       </c>
       <c r="M87">
-        <v>4450</v>
+        <v>11300</v>
       </c>
       <c r="N87">
-        <v>339</v>
+        <v>818</v>
       </c>
       <c r="O87">
-        <v>615</v>
+        <v>1215</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q87" t="s">
         <v>9</v>
@@ -5219,13 +5632,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B88">
-        <v>5134</v>
+        <v>4030</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -5240,31 +5653,31 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I88">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J88">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>75</v>
       </c>
       <c r="L88" s="8">
-        <v>0.2</v>
+        <v>7.03</v>
       </c>
       <c r="M88">
-        <v>4425</v>
+        <v>11175</v>
       </c>
       <c r="N88">
-        <v>421</v>
+        <v>1038</v>
       </c>
       <c r="O88">
-        <v>765</v>
+        <v>1440</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q88" t="s">
         <v>9</v>
@@ -5272,13 +5685,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>6173</v>
+        <v>1120</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -5286,35 +5699,38 @@
       <c r="E89" t="s">
         <v>3</v>
       </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
       <c r="G89" t="s">
         <v>3</v>
       </c>
       <c r="H89">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I89">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="J89">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L89" s="8">
-        <v>1.56</v>
+        <v>3.67</v>
       </c>
       <c r="M89">
-        <v>6575</v>
+        <v>12050</v>
       </c>
       <c r="N89">
-        <v>641</v>
+        <v>1025</v>
       </c>
       <c r="O89">
-        <v>1035</v>
+        <v>1605</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q89" t="s">
         <v>9</v>
@@ -5322,13 +5738,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B90">
-        <v>6165</v>
+        <v>4332</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -5336,35 +5752,38 @@
       <c r="E90" t="s">
         <v>3</v>
       </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
       <c r="H90">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I90">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="J90">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K90">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L90" s="8">
-        <v>0.42</v>
+        <v>153.59</v>
       </c>
       <c r="M90">
-        <v>5825</v>
+        <v>10000</v>
       </c>
       <c r="N90">
-        <v>475</v>
+        <v>911</v>
       </c>
       <c r="O90">
-        <v>675</v>
+        <v>1230</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q90" t="s">
         <v>9</v>
@@ -5372,13 +5791,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B91">
-        <v>5797</v>
+        <v>4545</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -5386,38 +5805,32 @@
       <c r="E91" t="s">
         <v>3</v>
       </c>
-      <c r="F91" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" t="s">
-        <v>3</v>
-      </c>
       <c r="H91">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I91">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="J91">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K91">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L91" s="8">
-        <v>0.11</v>
+        <v>15.89</v>
       </c>
       <c r="M91">
-        <v>3400</v>
+        <v>5600</v>
       </c>
       <c r="N91">
-        <v>261</v>
+        <v>1132</v>
       </c>
       <c r="O91">
-        <v>555</v>
+        <v>990</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q91" t="s">
         <v>9</v>
@@ -5425,13 +5838,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>5800</v>
+        <v>2445</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -5439,32 +5852,38 @@
       <c r="E92" t="s">
         <v>3</v>
       </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3</v>
+      </c>
       <c r="H92">
+        <v>47</v>
+      </c>
+      <c r="I92">
+        <v>140</v>
+      </c>
+      <c r="J92">
+        <v>47</v>
+      </c>
+      <c r="K92">
+        <v>75</v>
+      </c>
+      <c r="L92" s="8">
+        <v>31.92</v>
+      </c>
+      <c r="M92">
+        <v>10075</v>
+      </c>
+      <c r="N92">
+        <v>896</v>
+      </c>
+      <c r="O92">
+        <v>1515</v>
+      </c>
+      <c r="P92">
         <v>11</v>
-      </c>
-      <c r="I92">
-        <v>48</v>
-      </c>
-      <c r="J92">
-        <v>12</v>
-      </c>
-      <c r="K92">
-        <v>50</v>
-      </c>
-      <c r="L92" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="M92">
-        <v>1225</v>
-      </c>
-      <c r="N92">
-        <v>241</v>
-      </c>
-      <c r="O92">
-        <v>315</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
       </c>
       <c r="Q92" t="s">
         <v>9</v>
@@ -5472,13 +5891,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>102490</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>100</v>
+        <v>710</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -5493,28 +5912,28 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I93">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="J93">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>75</v>
       </c>
       <c r="L93" s="8">
-        <v>1.36</v>
+        <v>0.92</v>
       </c>
       <c r="M93">
-        <v>33025</v>
+        <v>12000</v>
       </c>
       <c r="N93">
-        <v>1734</v>
+        <v>920</v>
       </c>
       <c r="O93">
-        <v>2820</v>
+        <v>1500</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5525,13 +5944,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B94">
-        <v>6181</v>
+        <v>2895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
@@ -5546,31 +5965,31 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I94">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J94">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>75</v>
       </c>
       <c r="L94" s="8">
-        <v>0.34</v>
+        <v>6</v>
       </c>
       <c r="M94">
-        <v>11825</v>
+        <v>13450</v>
       </c>
       <c r="N94">
-        <v>582</v>
+        <v>1168</v>
       </c>
       <c r="O94">
-        <v>1815</v>
+        <v>1485</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="s">
         <v>9</v>
@@ -5578,13 +5997,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B95">
-        <v>6190</v>
+        <v>4383</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -5592,32 +6011,38 @@
       <c r="E95" t="s">
         <v>3</v>
       </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3</v>
+      </c>
       <c r="H95">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I95">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="J95">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L95" s="8">
-        <v>0.41</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="M95">
-        <v>1800</v>
+        <v>14150</v>
       </c>
       <c r="N95">
-        <v>350</v>
+        <v>1177</v>
       </c>
       <c r="O95">
-        <v>420</v>
+        <v>1500</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q95" t="s">
         <v>9</v>
@@ -5625,107 +6050,119 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>102482</v>
+        <v>1287</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
+      <c r="G96" t="s">
+        <v>3</v>
+      </c>
       <c r="H96">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I96">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="K96">
+        <v>75</v>
+      </c>
+      <c r="L96" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="M96">
+        <v>9775</v>
+      </c>
+      <c r="N96">
+        <v>998</v>
+      </c>
+      <c r="O96">
+        <v>1170</v>
+      </c>
+      <c r="P96">
+        <v>24</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>1414</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L96" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M96">
-        <v>1800</v>
-      </c>
-      <c r="N96">
-        <v>108</v>
-      </c>
-      <c r="O96">
-        <v>165</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>102652</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
       <c r="G97" t="s">
         <v>3</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I97">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J97">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L97" s="8">
-        <v>0.23</v>
+        <v>3.36</v>
       </c>
       <c r="M97">
-        <v>7250</v>
+        <v>9575</v>
       </c>
       <c r="N97">
-        <v>316</v>
+        <v>1022</v>
       </c>
       <c r="O97">
-        <v>600</v>
+        <v>1335</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q97" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B98">
-        <v>103004</v>
+        <v>2860</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -5737,45 +6174,45 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I98">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="J98">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>50</v>
       </c>
       <c r="L98" s="8">
-        <v>22.19</v>
+        <v>6.98</v>
       </c>
       <c r="M98">
-        <v>2675</v>
+        <v>10475</v>
       </c>
       <c r="N98">
-        <v>491</v>
+        <v>1060</v>
       </c>
       <c r="O98">
-        <v>510</v>
+        <v>1140</v>
       </c>
       <c r="P98">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q98" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B99">
-        <v>102660</v>
+        <v>4553</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
@@ -5784,45 +6221,45 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I99">
         <v>48</v>
       </c>
       <c r="J99">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>50</v>
       </c>
       <c r="L99" s="8">
-        <v>6.65</v>
+        <v>63.97</v>
       </c>
       <c r="M99">
-        <v>4375</v>
+        <v>7100</v>
       </c>
       <c r="N99">
-        <v>932</v>
+        <v>1257</v>
       </c>
       <c r="O99">
-        <v>930</v>
+        <v>1215</v>
       </c>
       <c r="P99">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B100">
-        <v>103063</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>107</v>
+        <v>701</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
@@ -5830,46 +6267,49 @@
       <c r="E100" t="s">
         <v>3</v>
       </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
       <c r="H100">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I100">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J100">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="K100">
         <v>50</v>
       </c>
       <c r="L100" s="8">
-        <v>0.33</v>
+        <v>4.21</v>
       </c>
       <c r="M100">
-        <v>2350</v>
+        <v>10150</v>
       </c>
       <c r="N100">
-        <v>442</v>
+        <v>1219</v>
       </c>
       <c r="O100">
-        <v>465</v>
+        <v>1455</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B101">
-        <v>111660</v>
+        <v>3832</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
@@ -5877,46 +6317,52 @@
       <c r="E101" t="s">
         <v>3</v>
       </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
       <c r="H101">
+        <v>53</v>
+      </c>
+      <c r="I101">
+        <v>153</v>
+      </c>
+      <c r="J101">
+        <v>62</v>
+      </c>
+      <c r="K101">
+        <v>75</v>
+      </c>
+      <c r="L101" s="8">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="M101">
+        <v>14075</v>
+      </c>
+      <c r="N101">
+        <v>1318</v>
+      </c>
+      <c r="O101">
+        <v>1890</v>
+      </c>
+      <c r="P101">
         <v>19</v>
       </c>
-      <c r="I101">
-        <v>47</v>
-      </c>
-      <c r="J101">
-        <v>19</v>
-      </c>
-      <c r="K101">
-        <v>50</v>
-      </c>
-      <c r="L101" s="8">
-        <v>8.81</v>
-      </c>
-      <c r="M101">
-        <v>2525</v>
-      </c>
-      <c r="N101">
-        <v>455</v>
-      </c>
-      <c r="O101">
-        <v>435</v>
-      </c>
-      <c r="P101">
-        <v>7</v>
-      </c>
       <c r="Q101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B102">
-        <v>123315</v>
+        <v>1759</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
@@ -5927,29 +6373,32 @@
       <c r="F102" t="s">
         <v>3</v>
       </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
       <c r="H102">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I102">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="J102">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>75</v>
       </c>
       <c r="L102" s="8">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
       <c r="M102">
-        <v>1625</v>
+        <v>10825</v>
       </c>
       <c r="N102">
-        <v>229</v>
+        <v>661</v>
       </c>
       <c r="O102">
-        <v>210</v>
+        <v>1620</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5958,15 +6407,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B103">
-        <v>126071</v>
+        <v>2275</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
@@ -5974,32 +6423,32 @@
       <c r="E103" t="s">
         <v>3</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>3</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I103">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J103">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L103" s="8">
-        <v>0.08</v>
+        <v>3.47</v>
       </c>
       <c r="M103">
-        <v>2825</v>
+        <v>15100</v>
       </c>
       <c r="N103">
-        <v>299</v>
+        <v>966</v>
       </c>
       <c r="O103">
-        <v>375</v>
+        <v>1155</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6008,59 +6457,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B104">
-        <v>108839</v>
+        <v>3727</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
         <v>3</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I104">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="J104">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L104" s="8">
-        <v>0.05</v>
+        <v>5.66</v>
       </c>
       <c r="M104">
-        <v>1500</v>
+        <v>11450</v>
       </c>
       <c r="N104">
-        <v>96</v>
+        <v>1044</v>
       </c>
       <c r="O104">
-        <v>195</v>
+        <v>1200</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q104" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B105">
-        <v>129631</v>
+        <v>4049</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -6075,72 +6530,78 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I105">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="J105">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K105">
         <v>75</v>
       </c>
       <c r="L105" s="8">
-        <v>0.13</v>
+        <v>6.6</v>
       </c>
       <c r="M105">
-        <v>4575</v>
+        <v>11600</v>
       </c>
       <c r="N105">
-        <v>299</v>
+        <v>1219</v>
       </c>
       <c r="O105">
-        <v>375</v>
+        <v>1650</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B106">
-        <v>116300</v>
+        <v>153516</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I106">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K106">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L106" s="8">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M106">
-        <v>1800</v>
+        <v>2975</v>
       </c>
       <c r="N106">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="O106">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -6149,15 +6610,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B107">
-        <v>158941</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>114</v>
+        <v>3549</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
@@ -6168,35 +6629,52 @@
       <c r="F107" t="s">
         <v>3</v>
       </c>
+      <c r="G107" t="s">
+        <v>3</v>
+      </c>
       <c r="H107">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="I107">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="J107">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="K107">
         <v>75</v>
       </c>
-      <c r="L107" s="8"/>
+      <c r="L107" s="8">
+        <v>149.66</v>
+      </c>
+      <c r="M107">
+        <v>16650</v>
+      </c>
+      <c r="N107">
+        <v>1112</v>
+      </c>
+      <c r="O107">
+        <v>1950</v>
+      </c>
+      <c r="P107">
+        <v>4</v>
+      </c>
       <c r="Q107" t="s">
-        <v>38</v>
-      </c>
-      <c r="R107" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B108">
-        <v>158968</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>115</v>
+        <v>3816</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -6204,35 +6682,49 @@
       <c r="F108" t="s">
         <v>3</v>
       </c>
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
       <c r="H108">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I108">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="J108">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K108">
-        <v>50</v>
-      </c>
-      <c r="L108" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M108">
+        <v>19225</v>
+      </c>
+      <c r="N108">
+        <v>947</v>
+      </c>
+      <c r="O108">
+        <v>1920</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
       <c r="Q108" t="s">
-        <v>38</v>
-      </c>
-      <c r="R108" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B109">
-        <v>158747</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>116</v>
+        <v>4510</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -6240,32 +6732,35 @@
       <c r="E109" t="s">
         <v>3</v>
       </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
       <c r="G109" t="s">
         <v>3</v>
       </c>
       <c r="H109">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J109">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="K109">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L109" s="8">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M109">
-        <v>13600</v>
+        <v>29625</v>
       </c>
       <c r="N109">
-        <v>742</v>
+        <v>1434</v>
       </c>
       <c r="O109">
-        <v>1095</v>
+        <v>2385</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6274,15 +6769,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>151297</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>117</v>
+        <v>2070</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -6293,62 +6788,82 @@
       <c r="F110" t="s">
         <v>3</v>
       </c>
+      <c r="G110" t="s">
+        <v>3</v>
+      </c>
       <c r="H110">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I110">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="J110">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K110">
         <v>75</v>
       </c>
-      <c r="L110" s="8"/>
+      <c r="L110" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="M110">
+        <v>16275</v>
+      </c>
+      <c r="N110">
+        <v>785</v>
+      </c>
+      <c r="O110">
+        <v>1560</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
       <c r="Q110" t="s">
-        <v>38</v>
-      </c>
-      <c r="R110" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>158976</v>
+        <v>158917</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
       </c>
       <c r="H111">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I111">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J111">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K111">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L111" s="8">
         <v>0.03</v>
       </c>
       <c r="M111">
-        <v>725</v>
+        <v>3150</v>
       </c>
       <c r="N111">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O111">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6357,15 +6872,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>158917</v>
+        <v>153451</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -6380,25 +6895,25 @@
         <v>66</v>
       </c>
       <c r="I112">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J112">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K112">
         <v>75</v>
       </c>
       <c r="L112" s="8">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="M112">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="N112">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="O112">
-        <v>315</v>
+        <v>480</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6409,13 +6924,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B113">
-        <v>153451</v>
+        <v>3883</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
@@ -6426,29 +6941,32 @@
       <c r="F113" t="s">
         <v>3</v>
       </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
       <c r="H113">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I113">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="J113">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>75</v>
       </c>
       <c r="L113" s="8">
-        <v>0.06</v>
+        <v>0.94</v>
       </c>
       <c r="M113">
-        <v>3050</v>
+        <v>20450</v>
       </c>
       <c r="N113">
-        <v>330</v>
+        <v>1025</v>
       </c>
       <c r="O113">
-        <v>480</v>
+        <v>1605</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6459,13 +6977,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B114">
-        <v>153486</v>
+        <v>4219</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -6477,31 +6995,31 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I114">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="J114">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="K114">
         <v>75</v>
       </c>
       <c r="L114" s="8">
-        <v>0.16</v>
+        <v>11.71</v>
       </c>
       <c r="M114">
-        <v>2775</v>
+        <v>10950</v>
       </c>
       <c r="N114">
-        <v>430</v>
+        <v>1479</v>
       </c>
       <c r="O114">
-        <v>525</v>
+        <v>1650</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q114" t="s">
         <v>9</v>
@@ -6509,40 +7027,49 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B115">
-        <v>153508</v>
+        <v>102490</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>3</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
+      <c r="G115" t="s">
+        <v>3</v>
+      </c>
       <c r="H115">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I115">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="J115">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K115">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L115" s="8">
-        <v>0.05</v>
+        <v>1.36</v>
       </c>
       <c r="M115">
-        <v>1275</v>
+        <v>33025</v>
       </c>
       <c r="N115">
-        <v>170</v>
+        <v>1734</v>
       </c>
       <c r="O115">
-        <v>270</v>
+        <v>2820</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6553,13 +7080,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B116">
-        <v>153516</v>
+        <v>2453</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
@@ -6570,29 +7097,32 @@
       <c r="F116" t="s">
         <v>3</v>
       </c>
+      <c r="G116" t="s">
+        <v>3</v>
+      </c>
       <c r="H116">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I116">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="J116">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K116">
         <v>75</v>
       </c>
       <c r="L116" s="8">
-        <v>0.09</v>
+        <v>1.07</v>
       </c>
       <c r="M116">
-        <v>2975</v>
+        <v>20325</v>
       </c>
       <c r="N116">
-        <v>385</v>
+        <v>937</v>
       </c>
       <c r="O116">
-        <v>525</v>
+        <v>1965</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6603,13 +7133,16 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117">
-        <v>153524</v>
+        <v>153486</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>3</v>
@@ -6618,28 +7151,28 @@
         <v>3</v>
       </c>
       <c r="H117">
+        <v>70</v>
+      </c>
+      <c r="I117">
+        <v>64</v>
+      </c>
+      <c r="J117">
+        <v>17</v>
+      </c>
+      <c r="K117">
         <v>75</v>
       </c>
-      <c r="I117">
-        <v>74</v>
-      </c>
-      <c r="J117">
-        <v>40</v>
-      </c>
-      <c r="K117">
-        <v>50</v>
-      </c>
       <c r="L117" s="8">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="M117">
-        <v>2975</v>
+        <v>2775</v>
       </c>
       <c r="N117">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="O117">
-        <v>660</v>
+        <v>525</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6650,43 +7183,52 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B118">
-        <v>153494</v>
+        <v>4200</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>3</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
+      <c r="G118" t="s">
+        <v>3</v>
+      </c>
       <c r="H118">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I118">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="J118">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K118">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L118" s="8">
-        <v>0.06</v>
+        <v>6.6</v>
       </c>
       <c r="M118">
-        <v>1450</v>
+        <v>15925</v>
       </c>
       <c r="N118">
-        <v>200</v>
+        <v>1298</v>
       </c>
       <c r="O118">
-        <v>315</v>
+        <v>1665</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q118" t="s">
         <v>9</v>
@@ -6694,16 +7236,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119">
-        <v>144290</v>
+        <v>153524</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E119" t="s">
         <v>3</v>
@@ -6712,28 +7251,28 @@
         <v>3</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I119">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J119">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K119">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L119" s="8">
         <v>0.06</v>
       </c>
       <c r="M119">
-        <v>2100</v>
+        <v>2975</v>
       </c>
       <c r="N119">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="O119">
-        <v>195</v>
+        <v>660</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6744,43 +7283,49 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B120">
-        <v>153699</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>127</v>
+        <v>949</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3</v>
       </c>
       <c r="F120" t="s">
         <v>3</v>
       </c>
       <c r="H120">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="I120">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J120">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="K120">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L120" s="8">
-        <v>0.02</v>
+        <v>553.92999999999995</v>
       </c>
       <c r="M120">
-        <v>400</v>
+        <v>13950</v>
       </c>
       <c r="N120">
-        <v>50</v>
+        <v>1996</v>
       </c>
       <c r="O120">
-        <v>60</v>
+        <v>1995</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q120" t="s">
         <v>9</v>
@@ -6788,13 +7333,16 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>145815</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>128</v>
+        <v>704342</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
       </c>
       <c r="E121" t="s">
         <v>3</v>
@@ -6803,28 +7351,28 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="I121">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J121">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="K121">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L121" s="8">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="M121">
-        <v>950</v>
+        <v>7825</v>
       </c>
       <c r="N121">
-        <v>75</v>
+        <v>622</v>
       </c>
       <c r="O121">
-        <v>75</v>
+        <v>930</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6835,13 +7383,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122">
-        <v>704342</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>129</v>
+        <v>700053</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -6853,28 +7401,28 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="I122">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="J122">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K122">
         <v>75</v>
       </c>
       <c r="L122" s="8">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="M122">
-        <v>7825</v>
+        <v>11125</v>
       </c>
       <c r="N122">
-        <v>622</v>
+        <v>1318</v>
       </c>
       <c r="O122">
-        <v>930</v>
+        <v>1680</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6885,28 +7433,25 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B123">
-        <v>700029</v>
+        <v>163821</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E123" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="F123" t="s">
         <v>3</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J123">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K123">
         <v>25</v>
@@ -6921,16 +7466,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>700053</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D124" t="s">
-        <v>3</v>
+        <v>700029</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E124" t="s">
         <v>3</v>
@@ -6939,136 +7481,109 @@
         <v>3</v>
       </c>
       <c r="H124">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="I124">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="J124">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K124">
-        <v>75</v>
-      </c>
-      <c r="L124" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="M124">
-        <v>11125</v>
-      </c>
-      <c r="N124">
-        <v>1318</v>
-      </c>
-      <c r="O124">
-        <v>1680</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L124" s="8"/>
       <c r="Q124" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R124" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B125">
-        <v>162957</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" t="s">
-        <v>3</v>
+        <v>158968</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="H125">
         <v>8</v>
       </c>
       <c r="I125">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J125">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K125">
         <v>50</v>
       </c>
-      <c r="L125" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M125">
-        <v>1200</v>
-      </c>
-      <c r="N125">
-        <v>71</v>
-      </c>
-      <c r="O125">
-        <v>75</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
+      <c r="L125" s="8"/>
       <c r="Q125" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R125" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>158933</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>133</v>
+        <v>158941</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
+      <c r="E126" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
       <c r="H126">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K126">
-        <v>25</v>
-      </c>
-      <c r="L126" s="8">
-        <v>0</v>
-      </c>
-      <c r="M126">
         <v>75</v>
       </c>
-      <c r="N126">
-        <v>25</v>
-      </c>
-      <c r="O126">
-        <v>30</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
+      <c r="L126" s="8"/>
       <c r="Q126" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R126" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B127">
-        <v>158925</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>134</v>
+        <v>151297</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="D127" t="s">
         <v>3</v>
@@ -7076,46 +7591,38 @@
       <c r="E127" t="s">
         <v>3</v>
       </c>
+      <c r="F127" t="s">
+        <v>3</v>
+      </c>
       <c r="H127">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I127">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="J127">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>25</v>
-      </c>
-      <c r="L127" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M127">
-        <v>875</v>
-      </c>
-      <c r="N127">
-        <v>50</v>
-      </c>
-      <c r="O127">
-        <v>90</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L127" s="8"/>
       <c r="Q127" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R127" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B128">
-        <v>163678</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>135</v>
+        <v>4537</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -7126,61 +7633,62 @@
       <c r="F128" t="s">
         <v>3</v>
       </c>
+      <c r="G128" t="s">
+        <v>3</v>
+      </c>
       <c r="H128">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I128">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="J128">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="K128">
         <v>75</v>
       </c>
-      <c r="L128" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M128">
-        <v>1025</v>
-      </c>
-      <c r="N128">
-        <v>95</v>
-      </c>
-      <c r="O128">
-        <v>105</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
+      <c r="L128" s="8"/>
       <c r="Q128" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R128" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B129">
-        <v>163821</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>136</v>
+        <v>4502</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
       </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
       <c r="H129">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="I129">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="J129">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="K129">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L129" s="8"/>
       <c r="Q129" t="s">
@@ -7192,13 +7700,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B130">
-        <v>158950</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>137</v>
+        <v>19</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
@@ -7209,39 +7717,35 @@
       <c r="F130" t="s">
         <v>3</v>
       </c>
+      <c r="G130" t="s">
+        <v>3</v>
+      </c>
       <c r="H130">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="I130">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="J130">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="K130">
-        <v>50</v>
-      </c>
-      <c r="L130" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M130">
-        <v>425</v>
-      </c>
-      <c r="N130">
-        <v>50</v>
-      </c>
-      <c r="O130">
-        <v>90</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="L130" s="8"/>
       <c r="Q130" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="R130" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R138">
+    <sortCondition descending="1" ref="Q2:Q138"/>
+    <sortCondition ref="H2:H138"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF554300-01D0-456C-B151-C158BCCCE1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640CE78-CF7C-4AB1-B4F0-EA4439C4DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="162">
   <si>
     <t>Código</t>
   </si>
@@ -487,6 +487,30 @@
   </si>
   <si>
     <t>Não sai do 125/150</t>
+  </si>
+  <si>
+    <t>Não saía da turma 16</t>
+  </si>
+  <si>
+    <t>Não saía da turma 18</t>
+  </si>
+  <si>
+    <t>Fazer de madrugada</t>
+  </si>
+  <si>
+    <t>Não saía da turma 21</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 - turma 13</t>
+  </si>
+  <si>
+    <t>Não sai do 147/150 - turma 8</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 8</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 na turma 21</t>
   </si>
 </sst>
 </file>
@@ -893,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,6 +3342,21 @@
       <c r="Q40" t="s">
         <v>9</v>
       </c>
+      <c r="T40">
+        <v>12.19</v>
+      </c>
+      <c r="U40">
+        <v>533</v>
+      </c>
+      <c r="V40">
+        <v>450</v>
+      </c>
+      <c r="W40">
+        <v>33</v>
+      </c>
+      <c r="X40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3365,6 +3404,21 @@
       <c r="Q41" t="s">
         <v>9</v>
       </c>
+      <c r="T41">
+        <v>11.85</v>
+      </c>
+      <c r="U41">
+        <v>452</v>
+      </c>
+      <c r="V41">
+        <v>441</v>
+      </c>
+      <c r="W41">
+        <v>34</v>
+      </c>
+      <c r="X41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3412,13 +3466,28 @@
       <c r="Q42" t="s">
         <v>9</v>
       </c>
+      <c r="T42">
+        <v>13.53</v>
+      </c>
+      <c r="U42">
+        <v>571</v>
+      </c>
+      <c r="V42">
+        <v>455</v>
+      </c>
+      <c r="W42">
+        <v>37</v>
+      </c>
+      <c r="X42" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
@@ -3458,6 +3527,9 @@
       </c>
       <c r="Q43" t="s">
         <v>9</v>
+      </c>
+      <c r="X43" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -3512,6 +3584,21 @@
       <c r="Q44" t="s">
         <v>9</v>
       </c>
+      <c r="T44">
+        <v>12.14</v>
+      </c>
+      <c r="U44">
+        <v>331</v>
+      </c>
+      <c r="V44">
+        <v>477</v>
+      </c>
+      <c r="W44">
+        <v>48</v>
+      </c>
+      <c r="X44" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3559,6 +3646,9 @@
       <c r="Q45" t="s">
         <v>9</v>
       </c>
+      <c r="X45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3609,6 +3699,21 @@
       <c r="Q46" t="s">
         <v>9</v>
       </c>
+      <c r="T46">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="U46">
+        <v>140</v>
+      </c>
+      <c r="V46">
+        <v>316</v>
+      </c>
+      <c r="W46">
+        <v>26</v>
+      </c>
+      <c r="X46" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3659,6 +3764,21 @@
       <c r="Q47" t="s">
         <v>9</v>
       </c>
+      <c r="T47">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="U47">
+        <v>575</v>
+      </c>
+      <c r="V47">
+        <v>491</v>
+      </c>
+      <c r="W47">
+        <v>46</v>
+      </c>
+      <c r="X47" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3706,8 +3826,23 @@
       <c r="Q48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>20.48</v>
+      </c>
+      <c r="U48">
+        <v>669</v>
+      </c>
+      <c r="V48">
+        <v>442</v>
+      </c>
+      <c r="W48">
+        <v>36</v>
+      </c>
+      <c r="X48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -3753,8 +3888,23 @@
       <c r="Q49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>19.88</v>
+      </c>
+      <c r="U49">
+        <v>786</v>
+      </c>
+      <c r="V49">
+        <v>519</v>
+      </c>
+      <c r="W49">
+        <v>52</v>
+      </c>
+      <c r="X49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -3800,8 +3950,11 @@
       <c r="Q50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>66</v>
       </c>
@@ -3853,8 +4006,11 @@
       <c r="Q51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -3900,8 +4056,11 @@
       <c r="Q52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>28</v>
       </c>
@@ -3947,8 +4106,11 @@
       <c r="Q53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>87</v>
       </c>
@@ -4000,8 +4162,23 @@
       <c r="Q54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>6.5</v>
+      </c>
+      <c r="U54">
+        <v>320</v>
+      </c>
+      <c r="V54">
+        <v>421</v>
+      </c>
+      <c r="W54">
+        <v>33</v>
+      </c>
+      <c r="X54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>89</v>
       </c>
@@ -4050,8 +4227,11 @@
       <c r="Q55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>41</v>
       </c>
@@ -4097,8 +4277,11 @@
       <c r="Q56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>51</v>
       </c>
@@ -4150,8 +4333,23 @@
       <c r="Q57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>16.32</v>
+      </c>
+      <c r="U57">
+        <v>359</v>
+      </c>
+      <c r="V57">
+        <v>602</v>
+      </c>
+      <c r="W57">
+        <v>59</v>
+      </c>
+      <c r="X57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4203,8 +4401,23 @@
       <c r="Q58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>38.47</v>
+      </c>
+      <c r="U58">
+        <v>672</v>
+      </c>
+      <c r="V58">
+        <v>651</v>
+      </c>
+      <c r="W58">
+        <v>83</v>
+      </c>
+      <c r="X58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4250,8 +4463,23 @@
       <c r="Q59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>63.04</v>
+      </c>
+      <c r="U59">
+        <v>1543</v>
+      </c>
+      <c r="V59">
+        <v>600</v>
+      </c>
+      <c r="W59">
+        <v>46</v>
+      </c>
+      <c r="X59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>74</v>
       </c>
@@ -4297,8 +4525,23 @@
       <c r="Q60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>10.57</v>
+      </c>
+      <c r="U60">
+        <v>469</v>
+      </c>
+      <c r="V60">
+        <v>567</v>
+      </c>
+      <c r="W60">
+        <v>48</v>
+      </c>
+      <c r="X60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>82</v>
       </c>
@@ -4350,8 +4593,11 @@
       <c r="Q61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -4397,8 +4643,11 @@
       <c r="Q62" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>40</v>
       </c>
@@ -4447,8 +4696,23 @@
       <c r="Q63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>12.84</v>
+      </c>
+      <c r="U63">
+        <v>359</v>
+      </c>
+      <c r="V63">
+        <v>597</v>
+      </c>
+      <c r="W63">
+        <v>59</v>
+      </c>
+      <c r="X63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>84</v>
       </c>
@@ -4497,8 +4761,11 @@
       <c r="Q64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="X64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21</v>
       </c>
@@ -4547,8 +4814,23 @@
       <c r="Q65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="U65">
+        <v>219</v>
+      </c>
+      <c r="V65">
+        <v>567</v>
+      </c>
+      <c r="W65">
+        <v>66</v>
+      </c>
+      <c r="X65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44</v>
       </c>
@@ -4594,8 +4876,23 @@
       <c r="Q66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="U66">
+        <v>1205</v>
+      </c>
+      <c r="V66">
+        <v>592</v>
+      </c>
+      <c r="W66">
+        <v>43</v>
+      </c>
+      <c r="X66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50</v>
       </c>
@@ -4647,8 +4944,23 @@
       <c r="Q67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="U67">
+        <v>454</v>
+      </c>
+      <c r="V67">
+        <v>616</v>
+      </c>
+      <c r="W67">
+        <v>57</v>
+      </c>
+      <c r="X67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -4698,7 +5010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>114</v>
       </c>
@@ -4742,7 +5054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>57</v>
       </c>
@@ -4789,7 +5101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>49</v>
       </c>
@@ -4839,7 +5151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -4889,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>58</v>
       </c>
@@ -4936,7 +5248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>54</v>
       </c>
@@ -4983,7 +5295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -5033,7 +5345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62</v>
       </c>
@@ -5086,7 +5398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>63</v>
       </c>
@@ -5133,7 +5445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>117</v>
       </c>
@@ -5177,7 +5489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48</v>
       </c>
@@ -5227,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5277,7 +5589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>75</v>
       </c>
@@ -5324,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>98</v>
       </c>
@@ -5371,7 +5683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>93</v>
       </c>
@@ -5424,7 +5736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -5477,7 +5789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>72</v>
       </c>
@@ -5530,7 +5842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>108</v>
       </c>
@@ -5580,7 +5892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -5630,7 +5942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>67</v>
       </c>
@@ -5683,7 +5995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -5736,7 +6048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>73</v>
       </c>
@@ -5789,7 +6101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>80</v>
       </c>
@@ -5836,7 +6148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>33</v>
       </c>
@@ -5889,7 +6201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -5941,8 +6253,23 @@
       <c r="Q93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>27.89</v>
+      </c>
+      <c r="U93">
+        <v>719</v>
+      </c>
+      <c r="V93">
+        <v>920</v>
+      </c>
+      <c r="W93">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46</v>
       </c>
@@ -5995,7 +6322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>76</v>
       </c>
@@ -6048,7 +6375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11</v>
       </c>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640CE78-CF7C-4AB1-B4F0-EA4439C4DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7B4287-1054-4753-9841-09E2C4570278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="173">
   <si>
     <t>Código</t>
   </si>
@@ -511,6 +511,39 @@
   </si>
   <si>
     <t>Não sai do 149/150 na turma 21</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 7</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 19</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 17</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 31</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 17 ?</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 18</t>
+  </si>
+  <si>
+    <t>Não sai do 148/150 turma 8</t>
+  </si>
+  <si>
+    <t>Não sai do 148/150 turma 21</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 33</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 24</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 11</t>
   </si>
 </sst>
 </file>
@@ -917,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y87" sqref="Y87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,10 +975,10 @@
     <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
     <col min="19" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" customWidth="1"/>
     <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1678,7 +1711,7 @@
       <c r="Q12" t="s">
         <v>9</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1731,7 +1764,7 @@
       <c r="Q13" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1918,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>119</v>
       </c>
@@ -1977,7 +2010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>124</v>
       </c>
@@ -2023,11 +2056,11 @@
       <c r="Q18" t="s">
         <v>9</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>127</v>
       </c>
@@ -2076,11 +2109,11 @@
       <c r="Q19" t="s">
         <v>9</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -2142,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2204,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>85</v>
       </c>
@@ -2269,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>91</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>101</v>
       </c>
@@ -2380,11 +2413,11 @@
       <c r="Q24" t="s">
         <v>9</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>118</v>
       </c>
@@ -2433,11 +2466,11 @@
       <c r="Q25" t="s">
         <v>9</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>83</v>
       </c>
@@ -2502,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90</v>
       </c>
@@ -2570,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2632,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>43</v>
       </c>
@@ -2700,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>61</v>
       </c>
@@ -2762,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>86</v>
       </c>
@@ -2830,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>104</v>
       </c>
@@ -2882,11 +2915,11 @@
       <c r="Q32" t="s">
         <v>9</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -2951,7 +2984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -3013,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -3072,7 +3105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>102</v>
       </c>
@@ -3121,11 +3154,11 @@
       <c r="Q36" t="s">
         <v>9</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>110</v>
       </c>
@@ -3184,7 +3217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>126</v>
       </c>
@@ -3230,11 +3263,11 @@
       <c r="Q38" t="s">
         <v>9</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -3296,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>27</v>
       </c>
@@ -3358,7 +3391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>65</v>
       </c>
@@ -3420,7 +3453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -3482,7 +3515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3528,11 +3561,11 @@
       <c r="Q43" t="s">
         <v>9</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -3600,7 +3633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3646,11 +3679,11 @@
       <c r="Q45" t="s">
         <v>9</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>96</v>
       </c>
@@ -3715,7 +3748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>97</v>
       </c>
@@ -3780,7 +3813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>99</v>
       </c>
@@ -3842,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -3904,7 +3937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -3950,11 +3983,11 @@
       <c r="Q50" t="s">
         <v>9</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>66</v>
       </c>
@@ -4006,11 +4039,11 @@
       <c r="Q51" t="s">
         <v>9</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -4056,11 +4089,11 @@
       <c r="Q52" t="s">
         <v>9</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>28</v>
       </c>
@@ -4106,11 +4139,11 @@
       <c r="Q53" t="s">
         <v>9</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>87</v>
       </c>
@@ -4178,7 +4211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>89</v>
       </c>
@@ -4227,11 +4260,11 @@
       <c r="Q55" t="s">
         <v>9</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>41</v>
       </c>
@@ -4277,11 +4310,11 @@
       <c r="Q56" t="s">
         <v>9</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>51</v>
       </c>
@@ -4349,7 +4382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4417,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -4479,7 +4512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>74</v>
       </c>
@@ -4541,7 +4574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>82</v>
       </c>
@@ -4593,11 +4626,11 @@
       <c r="Q61" t="s">
         <v>9</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -4643,11 +4676,11 @@
       <c r="Q62" t="s">
         <v>9</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>40</v>
       </c>
@@ -4712,7 +4745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>84</v>
       </c>
@@ -4761,11 +4794,11 @@
       <c r="Q64" t="s">
         <v>9</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21</v>
       </c>
@@ -4830,7 +4863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44</v>
       </c>
@@ -4892,7 +4925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50</v>
       </c>
@@ -4960,7 +4993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -5009,8 +5042,23 @@
       <c r="Q68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>16.25</v>
+      </c>
+      <c r="U68">
+        <v>553</v>
+      </c>
+      <c r="V68">
+        <v>641</v>
+      </c>
+      <c r="W68">
+        <v>65</v>
+      </c>
+      <c r="X68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>114</v>
       </c>
@@ -5053,8 +5101,23 @@
       <c r="Q69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>0.27</v>
+      </c>
+      <c r="U69">
+        <v>39</v>
+      </c>
+      <c r="V69">
+        <v>170</v>
+      </c>
+      <c r="W69">
+        <v>21</v>
+      </c>
+      <c r="X69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>57</v>
       </c>
@@ -5100,8 +5163,11 @@
       <c r="Q70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>49</v>
       </c>
@@ -5150,8 +5216,23 @@
       <c r="Q71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>15.37</v>
+      </c>
+      <c r="U71">
+        <v>299</v>
+      </c>
+      <c r="V71">
+        <v>601</v>
+      </c>
+      <c r="W71">
+        <v>49</v>
+      </c>
+      <c r="X71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -5200,8 +5281,23 @@
       <c r="Q72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>29.18</v>
+      </c>
+      <c r="U72">
+        <v>474</v>
+      </c>
+      <c r="V72">
+        <v>694</v>
+      </c>
+      <c r="W72">
+        <v>72</v>
+      </c>
+      <c r="X72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>58</v>
       </c>
@@ -5247,8 +5343,11 @@
       <c r="Q73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>54</v>
       </c>
@@ -5294,8 +5393,11 @@
       <c r="Q74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -5344,8 +5446,11 @@
       <c r="Q75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62</v>
       </c>
@@ -5397,8 +5502,11 @@
       <c r="Q76" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>63</v>
       </c>
@@ -5444,8 +5552,11 @@
       <c r="Q77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>117</v>
       </c>
@@ -5488,8 +5599,23 @@
       <c r="Q78" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>0.31</v>
+      </c>
+      <c r="U78">
+        <v>40</v>
+      </c>
+      <c r="V78">
+        <v>200</v>
+      </c>
+      <c r="W78">
+        <v>21</v>
+      </c>
+      <c r="X78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48</v>
       </c>
@@ -5538,8 +5664,11 @@
       <c r="Q79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5588,8 +5717,23 @@
       <c r="Q80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>62.09</v>
+      </c>
+      <c r="U80">
+        <v>1435</v>
+      </c>
+      <c r="V80">
+        <v>560</v>
+      </c>
+      <c r="W80">
+        <v>47</v>
+      </c>
+      <c r="X80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>75</v>
       </c>
@@ -5635,8 +5779,11 @@
       <c r="Q81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>98</v>
       </c>
@@ -5682,8 +5829,11 @@
       <c r="Q82" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>93</v>
       </c>
@@ -5735,8 +5885,23 @@
       <c r="Q83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>7.04</v>
+      </c>
+      <c r="U83">
+        <v>154</v>
+      </c>
+      <c r="V83">
+        <v>582</v>
+      </c>
+      <c r="W83">
+        <v>62</v>
+      </c>
+      <c r="X83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -5788,8 +5953,11 @@
       <c r="Q84" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>72</v>
       </c>
@@ -5841,8 +6009,11 @@
       <c r="Q85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>108</v>
       </c>
@@ -5891,8 +6062,11 @@
       <c r="Q86" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -5942,7 +6116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>67</v>
       </c>
@@ -5995,7 +6169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>9</v>
       </c>
@@ -6048,7 +6222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>73</v>
       </c>
@@ -6101,7 +6275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>80</v>
       </c>
@@ -6148,7 +6322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>33</v>
       </c>
@@ -6201,7 +6375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -6269,7 +6443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46</v>
       </c>
@@ -6322,7 +6496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>76</v>
       </c>
@@ -6375,7 +6549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11</v>
       </c>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7B4287-1054-4753-9841-09E2C4570278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314155A6-BA2D-4613-944C-6B3FE2A3E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="175">
   <si>
     <t>Código</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Divisão por ZERO</t>
   </si>
   <si>
-    <t>Não sai de 125/150</t>
-  </si>
-  <si>
     <t>Não sai do 125/150</t>
   </si>
   <si>
@@ -544,6 +541,15 @@
   </si>
   <si>
     <t>Não sai do 149/150 turma 11</t>
+  </si>
+  <si>
+    <t>Não sai do 125/150 turma 21</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 22</t>
+  </si>
+  <si>
+    <t>** Não sai do 125/150</t>
   </si>
 </sst>
 </file>
@@ -950,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y87" sqref="Y87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,8 +2062,20 @@
       <c r="Q18" t="s">
         <v>9</v>
       </c>
-      <c r="Y18" t="s">
-        <v>152</v>
+      <c r="T18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>71</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2413,8 +2431,23 @@
       <c r="Q24" t="s">
         <v>9</v>
       </c>
+      <c r="T24">
+        <v>3.14</v>
+      </c>
+      <c r="U24">
+        <v>165</v>
+      </c>
+      <c r="V24">
+        <v>229</v>
+      </c>
+      <c r="W24">
+        <v>15</v>
+      </c>
+      <c r="X24" t="s">
+        <v>9</v>
+      </c>
       <c r="Y24" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2916,7 +2949,7 @@
         <v>9</v>
       </c>
       <c r="Y32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3562,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="Y43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3680,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="Y45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -3984,7 +4017,7 @@
         <v>9</v>
       </c>
       <c r="Y50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -4040,7 +4073,7 @@
         <v>9</v>
       </c>
       <c r="Y51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -4090,7 +4123,7 @@
         <v>9</v>
       </c>
       <c r="Y52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -4140,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="Y53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -4261,7 +4294,7 @@
         <v>9</v>
       </c>
       <c r="Y55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -4311,7 +4344,7 @@
         <v>9</v>
       </c>
       <c r="Y56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -4627,7 +4660,7 @@
         <v>9</v>
       </c>
       <c r="Y61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -4677,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="Y62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -4795,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="Y64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -5164,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="Y70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -5344,7 +5377,7 @@
         <v>9</v>
       </c>
       <c r="Y73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -5394,7 +5427,7 @@
         <v>9</v>
       </c>
       <c r="Y74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -5447,7 +5480,7 @@
         <v>9</v>
       </c>
       <c r="Y75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -5503,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="Y76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -5553,7 +5586,7 @@
         <v>9</v>
       </c>
       <c r="Y77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -5665,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="Y79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -5780,7 +5813,7 @@
         <v>9</v>
       </c>
       <c r="Y81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -5830,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="Y82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -5954,7 +5987,7 @@
         <v>9</v>
       </c>
       <c r="Y84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -6010,7 +6043,7 @@
         <v>9</v>
       </c>
       <c r="Y85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -6063,7 +6096,7 @@
         <v>9</v>
       </c>
       <c r="Y86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -6115,6 +6148,9 @@
       <c r="Q87" t="s">
         <v>9</v>
       </c>
+      <c r="Y87" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -6168,6 +6204,9 @@
       <c r="Q88" t="s">
         <v>9</v>
       </c>
+      <c r="Y88" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -6220,6 +6259,9 @@
       </c>
       <c r="Q89" t="s">
         <v>9</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314155A6-BA2D-4613-944C-6B3FE2A3E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CDB2E0-FAF0-4AE0-BE0D-022AC697B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="174">
   <si>
     <t>Código</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Divisão por ZERO</t>
   </si>
   <si>
-    <t>Não sai do 125/150</t>
-  </si>
-  <si>
     <t>Não saía da turma 16</t>
   </si>
   <si>
@@ -498,33 +495,18 @@
     <t>Não saía da turma 21</t>
   </si>
   <si>
-    <t>Não sai do 125/150 - turma 13</t>
-  </si>
-  <si>
     <t>Não sai do 147/150 - turma 8</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 8</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 na turma 21</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 7</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 19</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 17</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 31</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 17 ?</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 18</t>
   </si>
   <si>
@@ -534,22 +516,37 @@
     <t>Não sai do 148/150 turma 21</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 33</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 24</t>
   </si>
   <si>
     <t>Não sai do 149/150 turma 11</t>
   </si>
   <si>
-    <t>Não sai do 125/150 turma 21</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 22</t>
   </si>
   <si>
     <t>** Não sai do 125/150</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150 (turma 7), flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150 (turma 17), flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150 (turma 21), flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150, flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150 (turma 8), flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Como em várias tentativas não saía do fitness 125/150 (turma 13), flexibilizei de 2 para 4 janelas por professor.</t>
+  </si>
+  <si>
+    <t>Flexibilizado</t>
   </si>
 </sst>
 </file>
@@ -956,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,6 +1714,9 @@
       <c r="Q12" t="s">
         <v>9</v>
       </c>
+      <c r="X12" t="s">
+        <v>38</v>
+      </c>
       <c r="Y12" t="s">
         <v>151</v>
       </c>
@@ -1770,6 +1770,9 @@
       <c r="Q13" t="s">
         <v>9</v>
       </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
       <c r="Y13" t="s">
         <v>151</v>
       </c>
@@ -2127,6 +2130,9 @@
       <c r="Q19" t="s">
         <v>9</v>
       </c>
+      <c r="X19" t="s">
+        <v>38</v>
+      </c>
       <c r="Y19" t="s">
         <v>151</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2499,6 +2505,9 @@
       <c r="Q25" t="s">
         <v>9</v>
       </c>
+      <c r="X25" t="s">
+        <v>38</v>
+      </c>
       <c r="Y25" t="s">
         <v>151</v>
       </c>
@@ -2948,6 +2957,9 @@
       <c r="Q32" t="s">
         <v>9</v>
       </c>
+      <c r="X32" t="s">
+        <v>38</v>
+      </c>
       <c r="Y32" t="s">
         <v>151</v>
       </c>
@@ -3137,6 +3149,9 @@
       <c r="W35">
         <v>30</v>
       </c>
+      <c r="X35" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3187,6 +3202,9 @@
       <c r="Q36" t="s">
         <v>9</v>
       </c>
+      <c r="X36" t="s">
+        <v>38</v>
+      </c>
       <c r="Y36" t="s">
         <v>151</v>
       </c>
@@ -3296,6 +3314,9 @@
       <c r="Q38" t="s">
         <v>9</v>
       </c>
+      <c r="X38" t="s">
+        <v>38</v>
+      </c>
       <c r="Y38" t="s">
         <v>151</v>
       </c>
@@ -3595,7 +3616,7 @@
         <v>9</v>
       </c>
       <c r="Y43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3713,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="Y45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -4017,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="Y50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -4073,7 +4094,7 @@
         <v>9</v>
       </c>
       <c r="Y51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -4123,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="Y52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -4173,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="Y53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -4293,8 +4314,23 @@
       <c r="Q55" t="s">
         <v>9</v>
       </c>
+      <c r="T55">
+        <v>13.08</v>
+      </c>
+      <c r="U55">
+        <v>463</v>
+      </c>
+      <c r="V55">
+        <v>475</v>
+      </c>
+      <c r="W55">
+        <v>64</v>
+      </c>
+      <c r="X55" t="s">
+        <v>9</v>
+      </c>
       <c r="Y55" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -4344,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="Y56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -4659,8 +4695,23 @@
       <c r="Q61" t="s">
         <v>9</v>
       </c>
+      <c r="T61">
+        <v>5.83</v>
+      </c>
+      <c r="U61">
+        <v>188</v>
+      </c>
+      <c r="V61">
+        <v>479</v>
+      </c>
+      <c r="W61">
+        <v>57</v>
+      </c>
+      <c r="X61" t="s">
+        <v>9</v>
+      </c>
       <c r="Y61" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -4709,8 +4760,23 @@
       <c r="Q62" t="s">
         <v>9</v>
       </c>
+      <c r="T62">
+        <v>16.87</v>
+      </c>
+      <c r="U62">
+        <v>737</v>
+      </c>
+      <c r="V62">
+        <v>575</v>
+      </c>
+      <c r="W62">
+        <v>72</v>
+      </c>
+      <c r="X62" t="s">
+        <v>9</v>
+      </c>
       <c r="Y62" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -4828,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="Y64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -5196,8 +5262,23 @@
       <c r="Q70" t="s">
         <v>9</v>
       </c>
+      <c r="T70">
+        <v>21.56</v>
+      </c>
+      <c r="U70">
+        <v>778</v>
+      </c>
+      <c r="V70">
+        <v>661</v>
+      </c>
+      <c r="W70">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s">
+        <v>9</v>
+      </c>
       <c r="Y70" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -5376,8 +5457,23 @@
       <c r="Q73" t="s">
         <v>9</v>
       </c>
+      <c r="T73">
+        <v>6.18</v>
+      </c>
+      <c r="U73">
+        <v>274</v>
+      </c>
+      <c r="V73">
+        <v>606</v>
+      </c>
+      <c r="W73">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s">
+        <v>9</v>
+      </c>
       <c r="Y73" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -5427,7 +5523,7 @@
         <v>9</v>
       </c>
       <c r="Y74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -5479,8 +5575,20 @@
       <c r="Q75" t="s">
         <v>9</v>
       </c>
-      <c r="Y75" t="s">
-        <v>163</v>
+      <c r="T75">
+        <v>27.1</v>
+      </c>
+      <c r="U75">
+        <v>856</v>
+      </c>
+      <c r="V75">
+        <v>491</v>
+      </c>
+      <c r="W75">
+        <v>41</v>
+      </c>
+      <c r="X75" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -5535,8 +5643,23 @@
       <c r="Q76" t="s">
         <v>9</v>
       </c>
+      <c r="T76">
+        <v>31.96</v>
+      </c>
+      <c r="U76">
+        <v>744</v>
+      </c>
+      <c r="V76">
+        <v>870</v>
+      </c>
+      <c r="W76">
+        <v>109</v>
+      </c>
+      <c r="X76" t="s">
+        <v>9</v>
+      </c>
       <c r="Y76" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -5586,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="Y77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -5698,7 +5821,7 @@
         <v>9</v>
       </c>
       <c r="Y79" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -5813,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="Y81" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -5863,7 +5986,7 @@
         <v>9</v>
       </c>
       <c r="Y82" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -5986,8 +6109,23 @@
       <c r="Q84" t="s">
         <v>9</v>
       </c>
+      <c r="T84">
+        <v>28.01</v>
+      </c>
+      <c r="U84">
+        <v>656</v>
+      </c>
+      <c r="V84">
+        <v>982</v>
+      </c>
+      <c r="W84">
+        <v>130</v>
+      </c>
+      <c r="X84" t="s">
+        <v>9</v>
+      </c>
       <c r="Y84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -6043,7 +6181,7 @@
         <v>9</v>
       </c>
       <c r="Y85" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -6096,7 +6234,7 @@
         <v>9</v>
       </c>
       <c r="Y86" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -6148,8 +6286,23 @@
       <c r="Q87" t="s">
         <v>9</v>
       </c>
+      <c r="T87">
+        <v>49.35</v>
+      </c>
+      <c r="U87">
+        <v>973</v>
+      </c>
+      <c r="V87">
+        <v>818</v>
+      </c>
+      <c r="W87">
+        <v>98</v>
+      </c>
+      <c r="X87" t="s">
+        <v>9</v>
+      </c>
       <c r="Y87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -6205,7 +6358,7 @@
         <v>9</v>
       </c>
       <c r="Y88" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -6261,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="Y89" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -6316,6 +6469,24 @@
       <c r="Q90" t="s">
         <v>9</v>
       </c>
+      <c r="T90">
+        <v>33.71</v>
+      </c>
+      <c r="U90">
+        <v>717</v>
+      </c>
+      <c r="V90">
+        <v>911</v>
+      </c>
+      <c r="W90">
+        <v>124</v>
+      </c>
+      <c r="X90" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -6363,6 +6534,21 @@
       <c r="Q91" t="s">
         <v>9</v>
       </c>
+      <c r="T91">
+        <v>58.17</v>
+      </c>
+      <c r="U91">
+        <v>1335</v>
+      </c>
+      <c r="V91">
+        <v>1132</v>
+      </c>
+      <c r="W91">
+        <v>136</v>
+      </c>
+      <c r="X91" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -6416,6 +6602,21 @@
       <c r="Q92" t="s">
         <v>9</v>
       </c>
+      <c r="T92">
+        <v>23.53</v>
+      </c>
+      <c r="U92">
+        <v>420</v>
+      </c>
+      <c r="V92">
+        <v>896</v>
+      </c>
+      <c r="W92">
+        <v>122</v>
+      </c>
+      <c r="X92" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -6537,6 +6738,21 @@
       <c r="Q94" t="s">
         <v>9</v>
       </c>
+      <c r="T94">
+        <v>155.85</v>
+      </c>
+      <c r="U94">
+        <v>2297</v>
+      </c>
+      <c r="V94">
+        <v>1168</v>
+      </c>
+      <c r="W94">
+        <v>147</v>
+      </c>
+      <c r="X94" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -6588,6 +6804,21 @@
         <v>11</v>
       </c>
       <c r="Q95" t="s">
+        <v>9</v>
+      </c>
+      <c r="T95">
+        <v>99.19</v>
+      </c>
+      <c r="U95">
+        <v>1408</v>
+      </c>
+      <c r="V95">
+        <v>1177</v>
+      </c>
+      <c r="W95">
+        <v>144</v>
+      </c>
+      <c r="X95" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CDB2E0-FAF0-4AE0-BE0D-022AC697B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450550BE-AF09-4127-8B92-17C7796B9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="175">
   <si>
     <t>Código</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Flexibilizado</t>
+  </si>
+  <si>
+    <t>Nok</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T99" sqref="T99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,8 +6877,23 @@
       <c r="Q96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>43.35</v>
+      </c>
+      <c r="U96">
+        <v>927</v>
+      </c>
+      <c r="V96">
+        <v>998</v>
+      </c>
+      <c r="W96">
+        <v>113</v>
+      </c>
+      <c r="X96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17</v>
       </c>
@@ -6927,8 +6945,23 @@
       <c r="Q97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>31.63</v>
+      </c>
+      <c r="U97">
+        <v>559</v>
+      </c>
+      <c r="V97">
+        <v>1022</v>
+      </c>
+      <c r="W97">
+        <v>120</v>
+      </c>
+      <c r="X97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>47</v>
       </c>
@@ -6978,7 +7011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>81</v>
       </c>
@@ -7025,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7075,7 +7108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59</v>
       </c>
@@ -7128,7 +7161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -7181,7 +7214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>32</v>
       </c>
@@ -7231,7 +7264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>55</v>
       </c>
@@ -7281,7 +7314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>69</v>
       </c>
@@ -7334,7 +7367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>115</v>
       </c>
@@ -7384,7 +7417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>52</v>
       </c>
@@ -7437,7 +7470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>60</v>
       </c>
@@ -7490,7 +7523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>78</v>
       </c>
@@ -7543,7 +7576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>31</v>
       </c>
@@ -7596,7 +7629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -7646,7 +7679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -7696,7 +7729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>64</v>
       </c>
@@ -7749,7 +7782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>70</v>
       </c>
@@ -7799,7 +7832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>92</v>
       </c>
@@ -7852,7 +7885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39</v>
       </c>
@@ -7905,7 +7938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -7955,7 +7988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>71</v>
       </c>
@@ -8008,7 +8041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -8055,7 +8088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -8105,7 +8138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -8155,7 +8188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
@@ -8205,7 +8238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>128</v>
       </c>
@@ -8237,8 +8270,11 @@
       <c r="R123" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8273,8 +8309,11 @@
       <c r="R124" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>107</v>
       </c>
@@ -8309,8 +8348,11 @@
       <c r="R125" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>106</v>
       </c>
@@ -8348,8 +8390,11 @@
       <c r="R126" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>109</v>
       </c>
@@ -8387,8 +8432,11 @@
       <c r="R127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>79</v>
       </c>
@@ -8429,8 +8477,11 @@
       <c r="R128" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>77</v>
       </c>
@@ -8471,8 +8522,11 @@
       <c r="R129" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -8513,8 +8567,11 @@
       <c r="R130" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="X130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R138">
     <sortCondition descending="1" ref="Q2:Q138"/>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450550BE-AF09-4127-8B92-17C7796B9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD38F6B-4184-4C9D-8019-B12170E1811B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T99" sqref="T99"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD38F6B-4184-4C9D-8019-B12170E1811B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C76CB-45E1-4CF0-8A66-8DE1BEAC2A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="175">
   <si>
     <t>Código</t>
   </si>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,6 +3618,24 @@
       <c r="Q43" t="s">
         <v>9</v>
       </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>36.54</v>
+      </c>
+      <c r="U43">
+        <v>2185</v>
+      </c>
+      <c r="V43">
+        <v>471</v>
+      </c>
+      <c r="W43">
+        <v>20</v>
+      </c>
+      <c r="X43" t="s">
+        <v>9</v>
+      </c>
       <c r="Y43" t="s">
         <v>152</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>3000</v>
       </c>
       <c r="N45">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="O45">
         <v>555</v>
@@ -3734,6 +3752,24 @@
         <v>3</v>
       </c>
       <c r="Q45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>52.97</v>
+      </c>
+      <c r="U45">
+        <v>3010</v>
+      </c>
+      <c r="V45">
+        <v>500</v>
+      </c>
+      <c r="W45">
+        <v>22</v>
+      </c>
+      <c r="X45" t="s">
         <v>9</v>
       </c>
       <c r="Y45" t="s">
@@ -4040,6 +4076,24 @@
       <c r="Q50" t="s">
         <v>9</v>
       </c>
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>61.13</v>
+      </c>
+      <c r="U50">
+        <v>3698</v>
+      </c>
+      <c r="V50">
+        <v>532</v>
+      </c>
+      <c r="W50">
+        <v>28</v>
+      </c>
+      <c r="X50" t="s">
+        <v>9</v>
+      </c>
       <c r="Y50" t="s">
         <v>154</v>
       </c>
@@ -4096,6 +4150,24 @@
       <c r="Q51" t="s">
         <v>9</v>
       </c>
+      <c r="S51" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51">
+        <v>62.4</v>
+      </c>
+      <c r="U51">
+        <v>3651</v>
+      </c>
+      <c r="V51">
+        <v>550</v>
+      </c>
+      <c r="W51">
+        <v>27</v>
+      </c>
+      <c r="X51" t="s">
+        <v>9</v>
+      </c>
       <c r="Y51" t="s">
         <v>154</v>
       </c>
@@ -4146,6 +4218,24 @@
       <c r="Q52" t="s">
         <v>9</v>
       </c>
+      <c r="S52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>39.46</v>
+      </c>
+      <c r="U52">
+        <v>2595</v>
+      </c>
+      <c r="V52">
+        <v>548</v>
+      </c>
+      <c r="W52">
+        <v>20</v>
+      </c>
+      <c r="X52" t="s">
+        <v>9</v>
+      </c>
       <c r="Y52" t="s">
         <v>155</v>
       </c>
@@ -4194,6 +4284,24 @@
         <v>19</v>
       </c>
       <c r="Q53" t="s">
+        <v>9</v>
+      </c>
+      <c r="S53" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>51.86</v>
+      </c>
+      <c r="U53">
+        <v>3010</v>
+      </c>
+      <c r="V53">
+        <v>557</v>
+      </c>
+      <c r="W53">
+        <v>32</v>
+      </c>
+      <c r="X53" t="s">
         <v>9</v>
       </c>
       <c r="Y53" t="s">

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2C76CB-45E1-4CF0-8A66-8DE1BEAC2A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C07F8F-D0CC-439E-83E8-1E6D889CFC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="174">
   <si>
     <t>Código</t>
   </si>
@@ -547,16 +547,13 @@
   </si>
   <si>
     <t>Flexibilizado</t>
-  </si>
-  <si>
-    <t>Nok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +606,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -630,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -640,6 +645,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,6 +4496,24 @@
       <c r="Q56" t="s">
         <v>9</v>
       </c>
+      <c r="S56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>60.55</v>
+      </c>
+      <c r="U56">
+        <v>3358</v>
+      </c>
+      <c r="V56">
+        <v>600</v>
+      </c>
+      <c r="W56">
+        <v>54</v>
+      </c>
+      <c r="X56" t="s">
+        <v>9</v>
+      </c>
       <c r="Y56" t="s">
         <v>156</v>
       </c>
@@ -5004,6 +5028,24 @@
       <c r="Q64" t="s">
         <v>9</v>
       </c>
+      <c r="S64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>44.74</v>
+      </c>
+      <c r="U64">
+        <v>2633</v>
+      </c>
+      <c r="V64">
+        <v>523</v>
+      </c>
+      <c r="W64">
+        <v>11</v>
+      </c>
+      <c r="X64" t="s">
+        <v>9</v>
+      </c>
       <c r="Y64" t="s">
         <v>157</v>
       </c>
@@ -5589,7 +5631,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B74">
         <v>3719</v>
@@ -5631,6 +5673,24 @@
         <v>23</v>
       </c>
       <c r="Q74" t="s">
+        <v>9</v>
+      </c>
+      <c r="S74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>129.4</v>
+      </c>
+      <c r="U74">
+        <v>6164</v>
+      </c>
+      <c r="V74">
+        <v>764</v>
+      </c>
+      <c r="W74">
+        <v>53</v>
+      </c>
+      <c r="X74" t="s">
         <v>9</v>
       </c>
       <c r="Y74" t="s">
@@ -5819,6 +5879,24 @@
       <c r="Q77" t="s">
         <v>9</v>
       </c>
+      <c r="S77" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>118.56</v>
+      </c>
+      <c r="U77">
+        <v>5049</v>
+      </c>
+      <c r="V77">
+        <v>787</v>
+      </c>
+      <c r="W77">
+        <v>37</v>
+      </c>
+      <c r="X77" t="s">
+        <v>9</v>
+      </c>
       <c r="Y77" t="s">
         <v>159</v>
       </c>
@@ -5931,6 +6009,24 @@
       <c r="Q79" t="s">
         <v>9</v>
       </c>
+      <c r="S79" t="s">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>69.87</v>
+      </c>
+      <c r="U79">
+        <v>2928</v>
+      </c>
+      <c r="V79">
+        <v>791</v>
+      </c>
+      <c r="W79">
+        <v>20</v>
+      </c>
+      <c r="X79" t="s">
+        <v>9</v>
+      </c>
       <c r="Y79" t="s">
         <v>160</v>
       </c>
@@ -6046,6 +6142,9 @@
       <c r="Q81" t="s">
         <v>9</v>
       </c>
+      <c r="S81" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="Y81" t="s">
         <v>161</v>
       </c>
@@ -6344,6 +6443,9 @@
       <c r="Q86" t="s">
         <v>9</v>
       </c>
+      <c r="S86" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="Y86" t="s">
         <v>164</v>
       </c>
@@ -6468,13 +6570,31 @@
       <c r="Q88" t="s">
         <v>9</v>
       </c>
+      <c r="S88" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>340.39</v>
+      </c>
+      <c r="U88">
+        <v>9971</v>
+      </c>
+      <c r="V88">
+        <v>1038</v>
+      </c>
+      <c r="W88">
+        <v>31</v>
+      </c>
+      <c r="X88" t="s">
+        <v>9</v>
+      </c>
       <c r="Y88" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B89">
         <v>1120</v>
@@ -6522,6 +6642,24 @@
         <v>17</v>
       </c>
       <c r="Q89" t="s">
+        <v>9</v>
+      </c>
+      <c r="S89" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89">
+        <v>268.49</v>
+      </c>
+      <c r="U89">
+        <v>6906</v>
+      </c>
+      <c r="V89">
+        <v>1025</v>
+      </c>
+      <c r="W89">
+        <v>33</v>
+      </c>
+      <c r="X89" t="s">
         <v>9</v>
       </c>
       <c r="Y89" t="s">
@@ -8541,7 +8679,7 @@
         <v>39</v>
       </c>
       <c r="X127" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C07F8F-D0CC-439E-83E8-1E6D889CFC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76894886-CC2D-410B-B458-73E492573DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="174">
   <si>
     <t>Código</t>
   </si>
@@ -615,12 +615,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -635,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -645,7 +651,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X97" sqref="X97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T81" sqref="T81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +999,7 @@
     <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5703125" customWidth="1"/>
     <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="113.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1112,21 +1119,23 @@
       <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9">
         <v>0.02</v>
       </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="9">
+        <v>3</v>
+      </c>
+      <c r="V2" s="9">
         <v>25</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="9">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
-        <v>9</v>
-      </c>
+      <c r="X2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1171,21 +1180,23 @@
       <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="T3">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9">
         <v>0.22</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="9">
         <v>18</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="9">
         <v>96</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="9">
         <v>6</v>
       </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
+      <c r="X3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1233,21 +1244,23 @@
       <c r="Q4" t="s">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9">
         <v>0.05</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="9">
         <v>5</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="9">
         <v>125</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="9">
         <v>11</v>
       </c>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
+      <c r="X4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1292,21 +1305,23 @@
       <c r="Q5" t="s">
         <v>9</v>
       </c>
-      <c r="T5">
+      <c r="S5" s="9"/>
+      <c r="T5" s="9">
         <v>0.09</v>
       </c>
-      <c r="U5">
-        <v>9</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="9">
+        <v>9</v>
+      </c>
+      <c r="V5" s="9">
         <v>108</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="9">
         <v>12</v>
       </c>
-      <c r="X5" t="s">
-        <v>9</v>
-      </c>
+      <c r="X5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1354,21 +1369,23 @@
       <c r="Q6" t="s">
         <v>9</v>
       </c>
-      <c r="T6">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="9">
         <v>7</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="9">
         <v>150</v>
       </c>
-      <c r="W6">
-        <v>9</v>
-      </c>
-      <c r="X6" t="s">
-        <v>9</v>
-      </c>
+      <c r="W6" s="9">
+        <v>9</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1416,21 +1433,23 @@
       <c r="Q7" t="s">
         <v>9</v>
       </c>
-      <c r="T7">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9">
         <v>0.09</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="9">
         <v>11</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="9">
         <v>150</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="9">
         <v>10</v>
       </c>
-      <c r="X7" t="s">
-        <v>9</v>
-      </c>
+      <c r="X7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1478,21 +1497,23 @@
       <c r="Q8" t="s">
         <v>9</v>
       </c>
-      <c r="T8">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9">
         <v>0.08</v>
       </c>
-      <c r="U8">
-        <v>9</v>
-      </c>
-      <c r="V8">
+      <c r="U8" s="9">
+        <v>9</v>
+      </c>
+      <c r="V8" s="9">
         <v>150</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="9">
         <v>10</v>
       </c>
-      <c r="X8" t="s">
-        <v>9</v>
-      </c>
+      <c r="X8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1540,21 +1561,23 @@
       <c r="Q9" t="s">
         <v>9</v>
       </c>
-      <c r="T9">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
         <v>0.25</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="9">
         <v>19</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="9">
         <v>175</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="9">
         <v>13</v>
       </c>
-      <c r="X9" t="s">
-        <v>9</v>
-      </c>
+      <c r="X9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1602,21 +1625,23 @@
       <c r="Q10" t="s">
         <v>9</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9">
         <v>0.17</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="9">
         <v>12</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="9">
         <v>175</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="9">
         <v>12</v>
       </c>
-      <c r="X10" t="s">
-        <v>9</v>
-      </c>
+      <c r="X10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1661,21 +1686,23 @@
       <c r="Q11" t="s">
         <v>9</v>
       </c>
-      <c r="T11">
+      <c r="S11" s="9"/>
+      <c r="T11" s="9">
         <v>0.17</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="9">
         <v>16</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="9">
         <v>117</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="9">
         <v>19</v>
       </c>
-      <c r="X11" t="s">
-        <v>9</v>
-      </c>
+      <c r="X11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="9"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1723,10 +1750,15 @@
       <c r="Q12" t="s">
         <v>9</v>
       </c>
-      <c r="X12" t="s">
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1779,10 +1811,15 @@
       <c r="Q13" t="s">
         <v>9</v>
       </c>
-      <c r="X13" t="s">
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1832,21 +1869,23 @@
       <c r="Q14" t="s">
         <v>9</v>
       </c>
-      <c r="T14">
+      <c r="S14" s="9"/>
+      <c r="T14" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="9">
         <v>38</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="9">
         <v>200</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="9">
         <v>14</v>
       </c>
-      <c r="X14" t="s">
-        <v>9</v>
-      </c>
+      <c r="X14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1894,21 +1933,23 @@
       <c r="Q15" t="s">
         <v>9</v>
       </c>
-      <c r="T15">
+      <c r="S15" s="9"/>
+      <c r="T15" s="9">
         <v>0.25</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="9">
         <v>23</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="9">
         <v>200</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="9">
         <v>12</v>
       </c>
-      <c r="X15" t="s">
-        <v>9</v>
-      </c>
+      <c r="X15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1953,21 +1994,23 @@
       <c r="Q16" t="s">
         <v>9</v>
       </c>
-      <c r="T16">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9">
         <v>0.25</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="9">
         <v>24</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="9">
         <v>144</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="9">
         <v>16</v>
       </c>
-      <c r="X16" t="s">
-        <v>9</v>
-      </c>
+      <c r="X16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2012,21 +2055,23 @@
       <c r="Q17" t="s">
         <v>9</v>
       </c>
-      <c r="T17">
+      <c r="S17" s="9"/>
+      <c r="T17" s="9">
         <v>0.03</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="9">
         <v>8</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="9">
         <v>50</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="9">
         <v>4</v>
       </c>
-      <c r="X17" t="s">
-        <v>9</v>
-      </c>
+      <c r="X17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2074,21 +2119,23 @@
       <c r="Q18" t="s">
         <v>9</v>
       </c>
-      <c r="T18">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="9">
         <v>12</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="9">
         <v>71</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="9">
         <v>5</v>
       </c>
-      <c r="X18" t="s">
-        <v>9</v>
-      </c>
+      <c r="X18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2139,10 +2186,15 @@
       <c r="Q19" t="s">
         <v>9</v>
       </c>
-      <c r="X19" t="s">
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2192,21 +2244,23 @@
       <c r="Q20" t="s">
         <v>9</v>
       </c>
-      <c r="T20">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9">
         <v>4.3499999999999996</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="9">
         <v>304</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="9">
         <v>225</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="9">
         <v>24</v>
       </c>
-      <c r="X20" t="s">
-        <v>9</v>
-      </c>
+      <c r="X20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2254,21 +2308,23 @@
       <c r="Q21" t="s">
         <v>9</v>
       </c>
-      <c r="T21">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9">
         <v>5.69</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="9">
         <v>323</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="9">
         <v>225</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="9">
         <v>19</v>
       </c>
-      <c r="X21" t="s">
-        <v>9</v>
-      </c>
+      <c r="X21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2319,21 +2375,23 @@
       <c r="Q22" t="s">
         <v>9</v>
       </c>
-      <c r="T22">
+      <c r="S22" s="9"/>
+      <c r="T22" s="9">
         <v>1.25</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="9">
         <v>104</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="9">
         <v>195</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="9">
         <v>13</v>
       </c>
-      <c r="X22" t="s">
-        <v>9</v>
-      </c>
+      <c r="X22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2381,21 +2439,23 @@
       <c r="Q23" t="s">
         <v>9</v>
       </c>
-      <c r="T23">
+      <c r="S23" s="9"/>
+      <c r="T23" s="9">
         <v>1.03</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="9">
         <v>60</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="9">
         <v>241</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="9">
         <v>22</v>
       </c>
-      <c r="X23" t="s">
-        <v>9</v>
-      </c>
+      <c r="X23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2446,22 +2506,23 @@
       <c r="Q24" t="s">
         <v>9</v>
       </c>
-      <c r="T24">
+      <c r="S24" s="9"/>
+      <c r="T24" s="9">
         <v>3.14</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="9">
         <v>165</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="9">
         <v>229</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="9">
         <v>15</v>
       </c>
-      <c r="X24" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="X24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2514,10 +2575,15 @@
       <c r="Q25" t="s">
         <v>9</v>
       </c>
-      <c r="X25" t="s">
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2570,21 +2636,23 @@
       <c r="Q26" t="s">
         <v>9</v>
       </c>
-      <c r="T26">
+      <c r="S26" s="9"/>
+      <c r="T26" s="9">
         <v>13.5</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="9">
         <v>347</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="9">
         <v>341</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="9">
         <v>39</v>
       </c>
-      <c r="X26" t="s">
-        <v>9</v>
-      </c>
+      <c r="X26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2638,21 +2706,23 @@
       <c r="Q27" t="s">
         <v>9</v>
       </c>
-      <c r="T27">
+      <c r="S27" s="9"/>
+      <c r="T27" s="9">
         <v>1.56</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="9">
         <v>99</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="9">
         <v>261</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="9">
         <v>25</v>
       </c>
-      <c r="X27" t="s">
-        <v>9</v>
-      </c>
+      <c r="X27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2700,21 +2770,23 @@
       <c r="Q28" t="s">
         <v>9</v>
       </c>
-      <c r="T28">
+      <c r="S28" s="9"/>
+      <c r="T28" s="9">
         <v>2.2200000000000002</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="9">
         <v>117</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="9">
         <v>350</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="9">
         <v>33</v>
       </c>
-      <c r="X28" t="s">
-        <v>9</v>
-      </c>
+      <c r="X28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2768,21 +2840,23 @@
       <c r="Q29" t="s">
         <v>9</v>
       </c>
-      <c r="T29">
+      <c r="S29" s="9"/>
+      <c r="T29" s="9">
         <v>13.73</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="9">
         <v>326</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="9">
         <v>406</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="9">
         <v>41</v>
       </c>
-      <c r="X29" t="s">
-        <v>9</v>
-      </c>
+      <c r="X29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2830,21 +2904,23 @@
       <c r="Q30" t="s">
         <v>9</v>
       </c>
-      <c r="T30">
+      <c r="S30" s="9"/>
+      <c r="T30" s="9">
         <v>22.5</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="9">
         <v>841</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="9">
         <v>366</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="9">
         <v>27</v>
       </c>
-      <c r="X30" t="s">
-        <v>9</v>
-      </c>
+      <c r="X30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2898,21 +2974,23 @@
       <c r="Q31" t="s">
         <v>9</v>
       </c>
-      <c r="T31">
+      <c r="S31" s="9"/>
+      <c r="T31" s="9">
         <v>21.97</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="9">
         <v>799</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="9">
         <v>339</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="9">
         <v>29</v>
       </c>
-      <c r="X31" t="s">
-        <v>9</v>
-      </c>
+      <c r="X31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2966,10 +3044,15 @@
       <c r="Q32" t="s">
         <v>9</v>
       </c>
-      <c r="X32" t="s">
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3022,21 +3105,23 @@
       <c r="Q33" t="s">
         <v>9</v>
       </c>
-      <c r="T33">
+      <c r="S33" s="9"/>
+      <c r="T33" s="9">
         <v>6.21</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="9">
         <v>226</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="9">
         <v>359</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="9">
         <v>41</v>
       </c>
-      <c r="X33" t="s">
-        <v>9</v>
-      </c>
+      <c r="X33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3084,21 +3169,23 @@
       <c r="Q34" t="s">
         <v>9</v>
       </c>
-      <c r="T34">
+      <c r="S34" s="9"/>
+      <c r="T34" s="9">
         <v>4.83</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="9">
         <v>150</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="9">
         <v>425</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="9">
         <v>42</v>
       </c>
-      <c r="X34" t="s">
-        <v>9</v>
-      </c>
+      <c r="X34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3146,21 +3233,23 @@
       <c r="Q35" t="s">
         <v>9</v>
       </c>
-      <c r="T35">
+      <c r="S35" s="9"/>
+      <c r="T35" s="9">
         <v>19.2</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="9">
         <v>905</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="9">
         <v>425</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="9">
         <v>30</v>
       </c>
-      <c r="X35" t="s">
-        <v>9</v>
-      </c>
+      <c r="X35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3211,10 +3300,15 @@
       <c r="Q36" t="s">
         <v>9</v>
       </c>
-      <c r="X36" t="s">
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3261,21 +3355,23 @@
       <c r="Q37" t="s">
         <v>9</v>
       </c>
-      <c r="T37">
+      <c r="S37" s="9"/>
+      <c r="T37" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="9">
         <v>17</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="9">
         <v>100</v>
       </c>
-      <c r="W37">
-        <v>9</v>
-      </c>
-      <c r="X37" t="s">
-        <v>9</v>
-      </c>
+      <c r="W37" s="9">
+        <v>9</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3323,10 +3419,15 @@
       <c r="Q38" t="s">
         <v>9</v>
       </c>
-      <c r="X38" t="s">
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3376,21 +3477,23 @@
       <c r="Q39" t="s">
         <v>9</v>
       </c>
-      <c r="T39">
+      <c r="S39" s="9"/>
+      <c r="T39" s="9">
         <v>11.86</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="9">
         <v>445</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="9">
         <v>450</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="9">
         <v>35</v>
       </c>
-      <c r="X39" t="s">
-        <v>9</v>
-      </c>
+      <c r="X39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3438,21 +3541,23 @@
       <c r="Q40" t="s">
         <v>9</v>
       </c>
-      <c r="T40">
+      <c r="S40" s="9"/>
+      <c r="T40" s="9">
         <v>12.19</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="9">
         <v>533</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="9">
         <v>450</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="9">
         <v>33</v>
       </c>
-      <c r="X40" t="s">
-        <v>9</v>
-      </c>
+      <c r="X40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3500,21 +3605,23 @@
       <c r="Q41" t="s">
         <v>9</v>
       </c>
-      <c r="T41">
+      <c r="S41" s="9"/>
+      <c r="T41" s="9">
         <v>11.85</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="9">
         <v>452</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="9">
         <v>441</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="9">
         <v>34</v>
       </c>
-      <c r="X41" t="s">
-        <v>9</v>
-      </c>
+      <c r="X41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3562,21 +3669,23 @@
       <c r="Q42" t="s">
         <v>9</v>
       </c>
-      <c r="T42">
+      <c r="S42" s="9"/>
+      <c r="T42" s="9">
         <v>13.53</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="9">
         <v>571</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="9">
         <v>455</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="9">
         <v>37</v>
       </c>
-      <c r="X42" t="s">
-        <v>9</v>
-      </c>
+      <c r="X42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3624,25 +3733,25 @@
       <c r="Q43" t="s">
         <v>9</v>
       </c>
-      <c r="S43" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43">
+      <c r="S43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="9">
         <v>36.54</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="9">
         <v>2185</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="9">
         <v>471</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="9">
         <v>20</v>
       </c>
-      <c r="X43" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y43" t="s">
+      <c r="X43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y43" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3698,21 +3807,23 @@
       <c r="Q44" t="s">
         <v>9</v>
       </c>
-      <c r="T44">
+      <c r="S44" s="9"/>
+      <c r="T44" s="9">
         <v>12.14</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="9">
         <v>331</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="9">
         <v>477</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="9">
         <v>48</v>
       </c>
-      <c r="X44" t="s">
-        <v>9</v>
-      </c>
+      <c r="X44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3760,25 +3871,25 @@
       <c r="Q45" t="s">
         <v>9</v>
       </c>
-      <c r="S45" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45">
+      <c r="S45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="9">
         <v>52.97</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="9">
         <v>3010</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="9">
         <v>500</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="9">
         <v>22</v>
       </c>
-      <c r="X45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y45" t="s">
+      <c r="X45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3831,21 +3942,23 @@
       <c r="Q46" t="s">
         <v>9</v>
       </c>
-      <c r="T46">
+      <c r="S46" s="9"/>
+      <c r="T46" s="9">
         <v>4.8600000000000003</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="9">
         <v>140</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="9">
         <v>316</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="9">
         <v>26</v>
       </c>
-      <c r="X46" t="s">
-        <v>9</v>
-      </c>
+      <c r="X46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3896,21 +4009,23 @@
       <c r="Q47" t="s">
         <v>9</v>
       </c>
-      <c r="T47">
+      <c r="S47" s="9"/>
+      <c r="T47" s="9">
         <v>16.190000000000001</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="9">
         <v>575</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="9">
         <v>491</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="9">
         <v>46</v>
       </c>
-      <c r="X47" t="s">
-        <v>9</v>
-      </c>
+      <c r="X47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3958,21 +4073,23 @@
       <c r="Q48" t="s">
         <v>9</v>
       </c>
-      <c r="T48">
+      <c r="S48" s="9"/>
+      <c r="T48" s="9">
         <v>20.48</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="9">
         <v>669</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="9">
         <v>442</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="9">
         <v>36</v>
       </c>
-      <c r="X48" t="s">
-        <v>9</v>
-      </c>
+      <c r="X48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -4020,21 +4137,23 @@
       <c r="Q49" t="s">
         <v>9</v>
       </c>
-      <c r="T49">
+      <c r="S49" s="9"/>
+      <c r="T49" s="9">
         <v>19.88</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="9">
         <v>786</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="9">
         <v>519</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="9">
         <v>52</v>
       </c>
-      <c r="X49" t="s">
-        <v>9</v>
-      </c>
+      <c r="X49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -4082,25 +4201,25 @@
       <c r="Q50" t="s">
         <v>9</v>
       </c>
-      <c r="S50" t="s">
-        <v>3</v>
-      </c>
-      <c r="T50">
+      <c r="S50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" s="9">
         <v>61.13</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="9">
         <v>3698</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="9">
         <v>532</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="9">
         <v>28</v>
       </c>
-      <c r="X50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y50" t="s">
+      <c r="X50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y50" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4156,25 +4275,25 @@
       <c r="Q51" t="s">
         <v>9</v>
       </c>
-      <c r="S51" t="s">
-        <v>3</v>
-      </c>
-      <c r="T51">
+      <c r="S51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" s="9">
         <v>62.4</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="9">
         <v>3651</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="9">
         <v>550</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="9">
         <v>27</v>
       </c>
-      <c r="X51" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y51" t="s">
+      <c r="X51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y51" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4224,25 +4343,25 @@
       <c r="Q52" t="s">
         <v>9</v>
       </c>
-      <c r="S52" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52">
+      <c r="S52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="9">
         <v>39.46</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="9">
         <v>2595</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="9">
         <v>548</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="9">
         <v>20</v>
       </c>
-      <c r="X52" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y52" t="s">
+      <c r="X52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y52" s="9" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4292,25 +4411,25 @@
       <c r="Q53" t="s">
         <v>9</v>
       </c>
-      <c r="S53" t="s">
-        <v>3</v>
-      </c>
-      <c r="T53">
+      <c r="S53" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" s="9">
         <v>51.86</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="9">
         <v>3010</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="9">
         <v>557</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="9">
         <v>32</v>
       </c>
-      <c r="X53" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y53" t="s">
+      <c r="X53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4366,21 +4485,23 @@
       <c r="Q54" t="s">
         <v>9</v>
       </c>
-      <c r="T54">
+      <c r="S54" s="9"/>
+      <c r="T54" s="9">
         <v>6.5</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="9">
         <v>320</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="9">
         <v>421</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="9">
         <v>33</v>
       </c>
-      <c r="X54" t="s">
-        <v>9</v>
-      </c>
+      <c r="X54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -4431,22 +4552,23 @@
       <c r="Q55" t="s">
         <v>9</v>
       </c>
-      <c r="T55">
+      <c r="S55" s="9"/>
+      <c r="T55" s="9">
         <v>13.08</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="9">
         <v>463</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="9">
         <v>475</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="9">
         <v>64</v>
       </c>
-      <c r="X55" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y55" t="s">
+      <c r="X55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="9" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4496,25 +4618,25 @@
       <c r="Q56" t="s">
         <v>9</v>
       </c>
-      <c r="S56" t="s">
-        <v>3</v>
-      </c>
-      <c r="T56">
+      <c r="S56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" s="9">
         <v>60.55</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="9">
         <v>3358</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="9">
         <v>600</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="9">
         <v>54</v>
       </c>
-      <c r="X56" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y56" t="s">
+      <c r="X56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y56" s="9" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4570,21 +4692,23 @@
       <c r="Q57" t="s">
         <v>9</v>
       </c>
-      <c r="T57">
+      <c r="S57" s="9"/>
+      <c r="T57" s="9">
         <v>16.32</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="9">
         <v>359</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="9">
         <v>602</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="9">
         <v>59</v>
       </c>
-      <c r="X57" t="s">
-        <v>9</v>
-      </c>
+      <c r="X57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -4638,21 +4762,23 @@
       <c r="Q58" t="s">
         <v>9</v>
       </c>
-      <c r="T58">
+      <c r="S58" s="9"/>
+      <c r="T58" s="9">
         <v>38.47</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="9">
         <v>672</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="9">
         <v>651</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="9">
         <v>83</v>
       </c>
-      <c r="X58" t="s">
-        <v>9</v>
-      </c>
+      <c r="X58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4700,21 +4826,23 @@
       <c r="Q59" t="s">
         <v>9</v>
       </c>
-      <c r="T59">
+      <c r="S59" s="9"/>
+      <c r="T59" s="9">
         <v>63.04</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="9">
         <v>1543</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="9">
         <v>600</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="9">
         <v>46</v>
       </c>
-      <c r="X59" t="s">
-        <v>9</v>
-      </c>
+      <c r="X59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4762,21 +4890,23 @@
       <c r="Q60" t="s">
         <v>9</v>
       </c>
-      <c r="T60">
+      <c r="S60" s="9"/>
+      <c r="T60" s="9">
         <v>10.57</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="9">
         <v>469</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="9">
         <v>567</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="9">
         <v>48</v>
       </c>
-      <c r="X60" t="s">
-        <v>9</v>
-      </c>
+      <c r="X60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y60" s="9"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -4830,22 +4960,23 @@
       <c r="Q61" t="s">
         <v>9</v>
       </c>
-      <c r="T61">
+      <c r="S61" s="9"/>
+      <c r="T61" s="9">
         <v>5.83</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="9">
         <v>188</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="9">
         <v>479</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="9">
         <v>57</v>
       </c>
-      <c r="X61" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y61" t="s">
+      <c r="X61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y61" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4895,22 +5026,23 @@
       <c r="Q62" t="s">
         <v>9</v>
       </c>
-      <c r="T62">
+      <c r="S62" s="9"/>
+      <c r="T62" s="9">
         <v>16.87</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="9">
         <v>737</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="9">
         <v>575</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="9">
         <v>72</v>
       </c>
-      <c r="X62" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y62" t="s">
+      <c r="X62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4963,21 +5095,23 @@
       <c r="Q63" t="s">
         <v>9</v>
       </c>
-      <c r="T63">
+      <c r="S63" s="9"/>
+      <c r="T63" s="9">
         <v>12.84</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="9">
         <v>359</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="9">
         <v>597</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="9">
         <v>59</v>
       </c>
-      <c r="X63" t="s">
-        <v>9</v>
-      </c>
+      <c r="X63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -5028,25 +5162,25 @@
       <c r="Q64" t="s">
         <v>9</v>
       </c>
-      <c r="S64" t="s">
-        <v>3</v>
-      </c>
-      <c r="T64">
+      <c r="S64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T64" s="9">
         <v>44.74</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="9">
         <v>2633</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="9">
         <v>523</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="9">
         <v>11</v>
       </c>
-      <c r="X64" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y64" t="s">
+      <c r="X64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y64" s="9" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5099,21 +5233,23 @@
       <c r="Q65" t="s">
         <v>9</v>
       </c>
-      <c r="T65">
+      <c r="S65" s="9"/>
+      <c r="T65" s="9">
         <v>9.2200000000000006</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="9">
         <v>219</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="9">
         <v>567</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="9">
         <v>66</v>
       </c>
-      <c r="X65" t="s">
-        <v>9</v>
-      </c>
+      <c r="X65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -5161,21 +5297,23 @@
       <c r="Q66" t="s">
         <v>9</v>
       </c>
-      <c r="T66">
+      <c r="S66" s="9"/>
+      <c r="T66" s="9">
         <v>33.130000000000003</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="9">
         <v>1205</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="9">
         <v>592</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="9">
         <v>43</v>
       </c>
-      <c r="X66" t="s">
-        <v>9</v>
-      </c>
+      <c r="X66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -5229,21 +5367,23 @@
       <c r="Q67" t="s">
         <v>9</v>
       </c>
-      <c r="T67">
+      <c r="S67" s="9"/>
+      <c r="T67" s="9">
         <v>16.559999999999999</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="9">
         <v>454</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="9">
         <v>616</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="9">
         <v>57</v>
       </c>
-      <c r="X67" t="s">
-        <v>9</v>
-      </c>
+      <c r="X67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -5294,21 +5434,23 @@
       <c r="Q68" t="s">
         <v>9</v>
       </c>
-      <c r="T68">
+      <c r="S68" s="9"/>
+      <c r="T68" s="9">
         <v>16.25</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="9">
         <v>553</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="9">
         <v>641</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="9">
         <v>65</v>
       </c>
-      <c r="X68" t="s">
-        <v>9</v>
-      </c>
+      <c r="X68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -5353,21 +5495,23 @@
       <c r="Q69" t="s">
         <v>9</v>
       </c>
-      <c r="T69">
+      <c r="S69" s="9"/>
+      <c r="T69" s="9">
         <v>0.27</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="9">
         <v>39</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="9">
         <v>170</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="9">
         <v>21</v>
       </c>
-      <c r="X69" t="s">
-        <v>9</v>
-      </c>
+      <c r="X69" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y69" s="9"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -5415,22 +5559,23 @@
       <c r="Q70" t="s">
         <v>9</v>
       </c>
-      <c r="T70">
+      <c r="S70" s="9"/>
+      <c r="T70" s="9">
         <v>21.56</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="9">
         <v>778</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="9">
         <v>661</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="9">
         <v>80</v>
       </c>
-      <c r="X70" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y70" t="s">
+      <c r="X70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y70" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5483,21 +5628,23 @@
       <c r="Q71" t="s">
         <v>9</v>
       </c>
-      <c r="T71">
+      <c r="S71" s="9"/>
+      <c r="T71" s="9">
         <v>15.37</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="9">
         <v>299</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="9">
         <v>601</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="9">
         <v>49</v>
       </c>
-      <c r="X71" t="s">
-        <v>9</v>
-      </c>
+      <c r="X71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y71" s="9"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -5548,21 +5695,23 @@
       <c r="Q72" t="s">
         <v>9</v>
       </c>
-      <c r="T72">
+      <c r="S72" s="9"/>
+      <c r="T72" s="9">
         <v>29.18</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="9">
         <v>474</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="9">
         <v>694</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="9">
         <v>72</v>
       </c>
-      <c r="X72" t="s">
-        <v>9</v>
-      </c>
+      <c r="X72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y72" s="9"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -5610,22 +5759,23 @@
       <c r="Q73" t="s">
         <v>9</v>
       </c>
-      <c r="T73">
+      <c r="S73" s="9"/>
+      <c r="T73" s="9">
         <v>6.18</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="9">
         <v>274</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="9">
         <v>606</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="9">
         <v>78</v>
       </c>
-      <c r="X73" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y73" t="s">
+      <c r="X73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y73" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5675,25 +5825,25 @@
       <c r="Q74" t="s">
         <v>9</v>
       </c>
-      <c r="S74" t="s">
-        <v>3</v>
-      </c>
-      <c r="T74">
+      <c r="S74" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" s="9">
         <v>129.4</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="9">
         <v>6164</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="9">
         <v>764</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="9">
         <v>53</v>
       </c>
-      <c r="X74" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y74" t="s">
+      <c r="X74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y74" s="9" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5746,21 +5896,23 @@
       <c r="Q75" t="s">
         <v>9</v>
       </c>
-      <c r="T75">
+      <c r="S75" s="9"/>
+      <c r="T75" s="9">
         <v>27.1</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="9">
         <v>856</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="9">
         <v>491</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="9">
         <v>41</v>
       </c>
-      <c r="X75" t="s">
-        <v>9</v>
-      </c>
+      <c r="X75" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -5814,22 +5966,23 @@
       <c r="Q76" t="s">
         <v>9</v>
       </c>
-      <c r="T76">
+      <c r="S76" s="9"/>
+      <c r="T76" s="9">
         <v>31.96</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="9">
         <v>744</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="9">
         <v>870</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="9">
         <v>109</v>
       </c>
-      <c r="X76" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y76" t="s">
+      <c r="X76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y76" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5879,25 +6032,25 @@
       <c r="Q77" t="s">
         <v>9</v>
       </c>
-      <c r="S77" t="s">
-        <v>3</v>
-      </c>
-      <c r="T77">
+      <c r="S77" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T77" s="9">
         <v>118.56</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="9">
         <v>5049</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="9">
         <v>787</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="9">
         <v>37</v>
       </c>
-      <c r="X77" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y77" t="s">
+      <c r="X77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y77" s="9" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5944,21 +6097,23 @@
       <c r="Q78" t="s">
         <v>9</v>
       </c>
-      <c r="T78">
+      <c r="S78" s="9"/>
+      <c r="T78" s="9">
         <v>0.31</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="9">
         <v>40</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="9">
         <v>200</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="9">
         <v>21</v>
       </c>
-      <c r="X78" t="s">
-        <v>9</v>
-      </c>
+      <c r="X78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -6009,25 +6164,25 @@
       <c r="Q79" t="s">
         <v>9</v>
       </c>
-      <c r="S79" t="s">
-        <v>3</v>
-      </c>
-      <c r="T79">
+      <c r="S79" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T79" s="9">
         <v>69.87</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="9">
         <v>2928</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="9">
         <v>791</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="9">
         <v>20</v>
       </c>
-      <c r="X79" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y79" t="s">
+      <c r="X79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y79" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6080,21 +6235,23 @@
       <c r="Q80" t="s">
         <v>9</v>
       </c>
-      <c r="T80">
+      <c r="S80" s="9"/>
+      <c r="T80" s="9">
         <v>62.09</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="9">
         <v>1435</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="9">
         <v>560</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="9">
         <v>47</v>
       </c>
-      <c r="X80" t="s">
-        <v>9</v>
-      </c>
+      <c r="X80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -6142,10 +6299,15 @@
       <c r="Q81" t="s">
         <v>9</v>
       </c>
-      <c r="S81" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y81" t="s">
+      <c r="S81" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6195,7 +6357,25 @@
       <c r="Q82" t="s">
         <v>9</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="S82" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T82" s="9">
+        <v>158.72999999999999</v>
+      </c>
+      <c r="U82" s="9">
+        <v>5792</v>
+      </c>
+      <c r="V82" s="9">
+        <v>932</v>
+      </c>
+      <c r="W82" s="9">
+        <v>54</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y82" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6251,21 +6431,23 @@
       <c r="Q83" t="s">
         <v>9</v>
       </c>
-      <c r="T83">
+      <c r="S83" s="9"/>
+      <c r="T83" s="9">
         <v>7.04</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="9">
         <v>154</v>
       </c>
-      <c r="V83">
+      <c r="V83" s="9">
         <v>582</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="9">
         <v>62</v>
       </c>
-      <c r="X83" t="s">
-        <v>9</v>
-      </c>
+      <c r="X83" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -6319,22 +6501,23 @@
       <c r="Q84" t="s">
         <v>9</v>
       </c>
-      <c r="T84">
+      <c r="S84" s="9"/>
+      <c r="T84" s="9">
         <v>28.01</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="9">
         <v>656</v>
       </c>
-      <c r="V84">
+      <c r="V84" s="9">
         <v>982</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="9">
         <v>130</v>
       </c>
-      <c r="X84" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y84" t="s">
+      <c r="X84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6390,7 +6573,15 @@
       <c r="Q85" t="s">
         <v>9</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="S85" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6443,10 +6634,15 @@
       <c r="Q86" t="s">
         <v>9</v>
       </c>
-      <c r="S86" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y86" t="s">
+      <c r="S86" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6499,22 +6695,23 @@
       <c r="Q87" t="s">
         <v>9</v>
       </c>
-      <c r="T87">
+      <c r="S87" s="9"/>
+      <c r="T87" s="9">
         <v>49.35</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="9">
         <v>973</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="9">
         <v>818</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="9">
         <v>98</v>
       </c>
-      <c r="X87" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y87" t="s">
+      <c r="X87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y87" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6570,25 +6767,25 @@
       <c r="Q88" t="s">
         <v>9</v>
       </c>
-      <c r="S88" t="s">
-        <v>3</v>
-      </c>
-      <c r="T88">
+      <c r="S88" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="9">
         <v>340.39</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="9">
         <v>9971</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="9">
         <v>1038</v>
       </c>
-      <c r="W88">
+      <c r="W88" s="9">
         <v>31</v>
       </c>
-      <c r="X88" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y88" t="s">
+      <c r="X88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y88" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6644,25 +6841,25 @@
       <c r="Q89" t="s">
         <v>9</v>
       </c>
-      <c r="S89" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89">
+      <c r="S89" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="9">
         <v>268.49</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="9">
         <v>6906</v>
       </c>
-      <c r="V89">
+      <c r="V89" s="9">
         <v>1025</v>
       </c>
-      <c r="W89">
+      <c r="W89" s="9">
         <v>33</v>
       </c>
-      <c r="X89" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y89" t="s">
+      <c r="X89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y89" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6718,22 +6915,23 @@
       <c r="Q90" t="s">
         <v>9</v>
       </c>
-      <c r="T90">
+      <c r="S90" s="9"/>
+      <c r="T90" s="9">
         <v>33.71</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="9">
         <v>717</v>
       </c>
-      <c r="V90">
+      <c r="V90" s="9">
         <v>911</v>
       </c>
-      <c r="W90">
+      <c r="W90" s="9">
         <v>124</v>
       </c>
-      <c r="X90" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y90" t="s">
+      <c r="X90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y90" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6783,21 +6981,23 @@
       <c r="Q91" t="s">
         <v>9</v>
       </c>
-      <c r="T91">
+      <c r="S91" s="9"/>
+      <c r="T91" s="9">
         <v>58.17</v>
       </c>
-      <c r="U91">
+      <c r="U91" s="9">
         <v>1335</v>
       </c>
-      <c r="V91">
+      <c r="V91" s="9">
         <v>1132</v>
       </c>
-      <c r="W91">
+      <c r="W91" s="9">
         <v>136</v>
       </c>
-      <c r="X91" t="s">
-        <v>9</v>
-      </c>
+      <c r="X91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -6851,21 +7051,23 @@
       <c r="Q92" t="s">
         <v>9</v>
       </c>
-      <c r="T92">
+      <c r="S92" s="9"/>
+      <c r="T92" s="9">
         <v>23.53</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="9">
         <v>420</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="9">
         <v>896</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="9">
         <v>122</v>
       </c>
-      <c r="X92" t="s">
-        <v>9</v>
-      </c>
+      <c r="X92" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y92" s="9"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -6919,21 +7121,23 @@
       <c r="Q93" t="s">
         <v>9</v>
       </c>
-      <c r="T93">
+      <c r="S93" s="9"/>
+      <c r="T93" s="9">
         <v>27.89</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="9">
         <v>719</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="9">
         <v>920</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="9">
         <v>79</v>
       </c>
-      <c r="X93" t="s">
-        <v>9</v>
-      </c>
+      <c r="X93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -6987,21 +7191,23 @@
       <c r="Q94" t="s">
         <v>9</v>
       </c>
-      <c r="T94">
+      <c r="S94" s="9"/>
+      <c r="T94" s="9">
         <v>155.85</v>
       </c>
-      <c r="U94">
+      <c r="U94" s="9">
         <v>2297</v>
       </c>
-      <c r="V94">
+      <c r="V94" s="9">
         <v>1168</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="9">
         <v>147</v>
       </c>
-      <c r="X94" t="s">
-        <v>9</v>
-      </c>
+      <c r="X94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -7055,21 +7261,23 @@
       <c r="Q95" t="s">
         <v>9</v>
       </c>
-      <c r="T95">
+      <c r="S95" s="9"/>
+      <c r="T95" s="9">
         <v>99.19</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="9">
         <v>1408</v>
       </c>
-      <c r="V95">
+      <c r="V95" s="9">
         <v>1177</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="9">
         <v>144</v>
       </c>
-      <c r="X95" t="s">
-        <v>9</v>
-      </c>
+      <c r="X95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -7123,23 +7331,25 @@
       <c r="Q96" t="s">
         <v>9</v>
       </c>
-      <c r="T96">
+      <c r="S96" s="9"/>
+      <c r="T96" s="9">
         <v>43.35</v>
       </c>
-      <c r="U96">
+      <c r="U96" s="9">
         <v>927</v>
       </c>
-      <c r="V96">
+      <c r="V96" s="9">
         <v>998</v>
       </c>
-      <c r="W96">
+      <c r="W96" s="9">
         <v>113</v>
       </c>
-      <c r="X96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y96" s="9"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17</v>
       </c>
@@ -7191,23 +7401,25 @@
       <c r="Q97" t="s">
         <v>9</v>
       </c>
-      <c r="T97">
+      <c r="S97" s="9"/>
+      <c r="T97" s="9">
         <v>31.63</v>
       </c>
-      <c r="U97">
+      <c r="U97" s="9">
         <v>559</v>
       </c>
-      <c r="V97">
+      <c r="V97" s="9">
         <v>1022</v>
       </c>
-      <c r="W97">
+      <c r="W97" s="9">
         <v>120</v>
       </c>
-      <c r="X97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y97" s="9"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>47</v>
       </c>
@@ -7256,8 +7468,17 @@
       <c r="Q98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S98" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>81</v>
       </c>
@@ -7303,8 +7524,15 @@
       <c r="Q99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7353,8 +7581,15 @@
       <c r="Q100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59</v>
       </c>
@@ -7406,8 +7641,15 @@
       <c r="Q101" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -7459,8 +7701,27 @@
       <c r="Q102" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="9">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="U102" s="9">
+        <v>974</v>
+      </c>
+      <c r="V102" s="9">
+        <v>661</v>
+      </c>
+      <c r="W102" s="9">
+        <v>5</v>
+      </c>
+      <c r="X102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y102" s="9"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>32</v>
       </c>
@@ -7509,8 +7770,27 @@
       <c r="Q103" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S103" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T103" s="9">
+        <v>282.19</v>
+      </c>
+      <c r="U103" s="9">
+        <v>8778</v>
+      </c>
+      <c r="V103" s="9">
+        <v>966</v>
+      </c>
+      <c r="W103" s="9">
+        <v>23</v>
+      </c>
+      <c r="X103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y103" s="9"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>55</v>
       </c>
@@ -7559,8 +7839,15 @@
       <c r="Q104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>69</v>
       </c>
@@ -7612,8 +7899,15 @@
       <c r="Q105" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>115</v>
       </c>
@@ -7662,8 +7956,21 @@
       <c r="Q106" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y106" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>52</v>
       </c>
@@ -7715,8 +8022,17 @@
       <c r="Q107" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S107" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>60</v>
       </c>
@@ -7768,8 +8084,27 @@
       <c r="Q108" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T108" s="9">
+        <v>74.62</v>
+      </c>
+      <c r="U108" s="9">
+        <v>2577</v>
+      </c>
+      <c r="V108" s="9">
+        <v>947</v>
+      </c>
+      <c r="W108" s="9">
+        <v>5</v>
+      </c>
+      <c r="X108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y108" s="9"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>78</v>
       </c>
@@ -7821,8 +8156,27 @@
       <c r="Q109" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T109" s="9">
+        <v>354.27</v>
+      </c>
+      <c r="U109" s="9">
+        <v>6068</v>
+      </c>
+      <c r="V109" s="9">
+        <v>1434</v>
+      </c>
+      <c r="W109" s="9">
+        <v>20</v>
+      </c>
+      <c r="X109" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y109" s="9"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>31</v>
       </c>
@@ -7874,8 +8228,27 @@
       <c r="Q110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S110" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T110" s="9">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="U110" s="9">
+        <v>4487</v>
+      </c>
+      <c r="V110" s="9">
+        <v>785</v>
+      </c>
+      <c r="W110" s="9">
+        <v>10</v>
+      </c>
+      <c r="X110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y110" s="9"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -7924,8 +8297,21 @@
       <c r="Q111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S111" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y111" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -7974,8 +8360,21 @@
       <c r="Q112" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S112" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y112" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>64</v>
       </c>
@@ -8027,8 +8426,27 @@
       <c r="Q113" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T113" s="9">
+        <v>84.13</v>
+      </c>
+      <c r="U113" s="9">
+        <v>2860</v>
+      </c>
+      <c r="V113" s="9">
+        <v>1025</v>
+      </c>
+      <c r="W113" s="9">
+        <v>7</v>
+      </c>
+      <c r="X113" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y113" s="9"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>70</v>
       </c>
@@ -8077,8 +8495,15 @@
       <c r="Q114" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>92</v>
       </c>
@@ -8130,8 +8555,17 @@
       <c r="Q115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S115" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39</v>
       </c>
@@ -8183,8 +8617,27 @@
       <c r="Q116" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S116" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T116" s="9">
+        <v>107.31</v>
+      </c>
+      <c r="U116" s="9">
+        <v>3099</v>
+      </c>
+      <c r="V116" s="9">
+        <v>937</v>
+      </c>
+      <c r="W116" s="9">
+        <v>11</v>
+      </c>
+      <c r="X116" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y116" s="9"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -8233,8 +8686,21 @@
       <c r="Q117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S117" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y117" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>71</v>
       </c>
@@ -8286,8 +8752,27 @@
       <c r="Q118" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T118" s="9">
+        <v>260.72000000000003</v>
+      </c>
+      <c r="U118" s="9">
+        <v>6384</v>
+      </c>
+      <c r="V118" s="9">
+        <v>1298</v>
+      </c>
+      <c r="W118" s="9">
+        <v>41</v>
+      </c>
+      <c r="X118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y118" s="9"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -8333,8 +8818,21 @@
       <c r="Q119" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S119" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y119" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -8383,8 +8881,15 @@
       <c r="Q120" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -8433,8 +8938,21 @@
       <c r="Q121" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S121" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y121" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
@@ -8483,8 +9001,21 @@
       <c r="Q122" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S122" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y122" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>128</v>
       </c>
@@ -8516,11 +9047,17 @@
       <c r="R123" t="s">
         <v>39</v>
       </c>
-      <c r="X123" t="s">
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y123" s="9"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8555,11 +9092,17 @@
       <c r="R124" t="s">
         <v>39</v>
       </c>
-      <c r="X124" t="s">
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y124" s="9"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>107</v>
       </c>
@@ -8594,11 +9137,17 @@
       <c r="R125" t="s">
         <v>39</v>
       </c>
-      <c r="X125" t="s">
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y125" s="9"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>106</v>
       </c>
@@ -8636,11 +9185,17 @@
       <c r="R126" t="s">
         <v>39</v>
       </c>
-      <c r="X126" t="s">
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y126" s="9"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>109</v>
       </c>
@@ -8678,11 +9233,17 @@
       <c r="R127" t="s">
         <v>39</v>
       </c>
-      <c r="X127" t="s">
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y127" s="9"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>79</v>
       </c>
@@ -8723,11 +9284,17 @@
       <c r="R128" t="s">
         <v>39</v>
       </c>
-      <c r="X128" t="s">
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y128" s="9"/>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>77</v>
       </c>
@@ -8768,11 +9335,17 @@
       <c r="R129" t="s">
         <v>39</v>
       </c>
-      <c r="X129" t="s">
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y129" s="9"/>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -8813,11 +9386,17 @@
       <c r="R130" t="s">
         <v>39</v>
       </c>
-      <c r="X130" t="s">
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Y130" s="9"/>
+    </row>
+    <row r="137" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R138">
     <sortCondition descending="1" ref="Q2:Q138"/>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76894886-CC2D-410B-B458-73E492573DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C0DFB-6474-414A-8C9B-BFE4A5AAEBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="174">
   <si>
     <t>Código</t>
   </si>
@@ -516,9 +516,6 @@
     <t>Não sai do 148/150 turma 21</t>
   </si>
   <si>
-    <t>Não sai do 149/150 turma 24</t>
-  </si>
-  <si>
     <t>Não sai do 149/150 turma 11</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>Flexibilizado</t>
+  </si>
+  <si>
+    <t>Não sai do 149/150 turma 17</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T81" sqref="T81"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>145815</v>
@@ -1751,12 +1751,20 @@
         <v>9</v>
       </c>
       <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="T12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="U12" s="9">
+        <v>48</v>
+      </c>
+      <c r="V12" s="9">
+        <v>75</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
       <c r="X12" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>151</v>
@@ -1812,12 +1820,20 @@
         <v>9</v>
       </c>
       <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="T13" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="U13" s="9">
+        <v>7</v>
+      </c>
+      <c r="V13" s="9">
+        <v>50</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
       <c r="X13" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>151</v>
@@ -2187,12 +2203,20 @@
         <v>9</v>
       </c>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="T19" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="U19" s="9">
+        <v>141</v>
+      </c>
+      <c r="V19" s="9">
+        <v>95</v>
+      </c>
+      <c r="W19" s="9">
+        <v>2</v>
+      </c>
       <c r="X19" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>151</v>
@@ -2523,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2576,12 +2600,20 @@
         <v>9</v>
       </c>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="T25" s="9">
+        <v>4.63</v>
+      </c>
+      <c r="U25" s="9">
+        <v>422</v>
+      </c>
+      <c r="V25" s="9">
+        <v>199</v>
+      </c>
+      <c r="W25" s="9">
+        <v>4</v>
+      </c>
       <c r="X25" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>151</v>
@@ -3045,12 +3077,20 @@
         <v>9</v>
       </c>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="T32" s="9">
+        <v>25.05</v>
+      </c>
+      <c r="U32" s="9">
+        <v>1083</v>
+      </c>
+      <c r="V32" s="9">
+        <v>299</v>
+      </c>
+      <c r="W32" s="9">
+        <v>3</v>
+      </c>
       <c r="X32" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>151</v>
@@ -3301,12 +3341,20 @@
         <v>9</v>
       </c>
       <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="T36" s="9">
+        <v>10.59</v>
+      </c>
+      <c r="U36" s="9">
+        <v>769</v>
+      </c>
+      <c r="V36" s="9">
+        <v>299</v>
+      </c>
+      <c r="W36" s="9">
+        <v>8</v>
+      </c>
       <c r="X36" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>151</v>
@@ -3420,12 +3468,20 @@
         <v>9</v>
       </c>
       <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="T38" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="U38" s="9">
+        <v>17</v>
+      </c>
+      <c r="V38" s="9">
+        <v>50</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
       <c r="X38" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>151</v>
@@ -4569,7 +4625,7 @@
         <v>9</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -4977,7 +5033,7 @@
         <v>9</v>
       </c>
       <c r="Y61" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -5043,7 +5099,7 @@
         <v>9</v>
       </c>
       <c r="Y62" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -5576,7 +5632,7 @@
         <v>9</v>
       </c>
       <c r="Y70" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -5776,7 +5832,7 @@
         <v>9</v>
       </c>
       <c r="Y73" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -5983,7 +6039,7 @@
         <v>9</v>
       </c>
       <c r="Y76" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -6306,7 +6362,9 @@
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
+      <c r="X81" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y81" s="9" t="s">
         <v>161</v>
       </c>
@@ -6518,7 +6576,7 @@
         <v>9</v>
       </c>
       <c r="Y84" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -6573,16 +6631,18 @@
       <c r="Q85" t="s">
         <v>9</v>
       </c>
-      <c r="S85" s="9" t="s">
+      <c r="S85" s="10" t="s">
         <v>3</v>
       </c>
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y85" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -6641,9 +6701,11 @@
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
+      <c r="X86" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y86" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -6712,7 +6774,7 @@
         <v>9</v>
       </c>
       <c r="Y87" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -6786,7 +6848,7 @@
         <v>9</v>
       </c>
       <c r="Y88" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -6860,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="Y89" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -6932,7 +6994,7 @@
         <v>9</v>
       </c>
       <c r="Y90" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -7475,7 +7537,9 @@
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
+      <c r="X98" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -7524,12 +7588,16 @@
       <c r="Q99" t="s">
         <v>9</v>
       </c>
-      <c r="S99" s="9"/>
+      <c r="S99" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
+      <c r="X99" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -7581,12 +7649,24 @@
       <c r="Q100" t="s">
         <v>9</v>
       </c>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
+      <c r="S100" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="9">
+        <v>246.6</v>
+      </c>
+      <c r="U100" s="9">
+        <v>6281</v>
+      </c>
+      <c r="V100" s="9">
+        <v>1219</v>
+      </c>
+      <c r="W100" s="9">
+        <v>46</v>
+      </c>
+      <c r="X100" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -7641,12 +7721,24 @@
       <c r="Q101" t="s">
         <v>9</v>
       </c>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
+      <c r="S101" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="9">
+        <v>223.14</v>
+      </c>
+      <c r="U101" s="9">
+        <v>5544</v>
+      </c>
+      <c r="V101" s="9">
+        <v>1318</v>
+      </c>
+      <c r="W101" s="9">
+        <v>41</v>
+      </c>
+      <c r="X101" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
@@ -7839,12 +7931,24 @@
       <c r="Q104" t="s">
         <v>9</v>
       </c>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
+      <c r="S104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T104" s="9">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="U104" s="9">
+        <v>5008</v>
+      </c>
+      <c r="V104" s="9">
+        <v>1044</v>
+      </c>
+      <c r="W104" s="9">
+        <v>39</v>
+      </c>
+      <c r="X104" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -7899,12 +8003,24 @@
       <c r="Q105" t="s">
         <v>9</v>
       </c>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
+      <c r="S105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T105" s="9">
+        <v>262.58</v>
+      </c>
+      <c r="U105" s="9">
+        <v>6101</v>
+      </c>
+      <c r="V105" s="9">
+        <v>1219</v>
+      </c>
+      <c r="W105" s="9">
+        <v>60</v>
+      </c>
+      <c r="X105" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
@@ -7959,12 +8075,20 @@
       <c r="S106" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
+      <c r="T106" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="U106" s="9">
+        <v>219</v>
+      </c>
+      <c r="V106" s="9">
+        <v>385</v>
+      </c>
+      <c r="W106" s="9">
+        <v>0</v>
+      </c>
       <c r="X106" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y106" s="9" t="s">
         <v>151</v>
@@ -8029,7 +8153,9 @@
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
+      <c r="X107" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
@@ -8300,12 +8426,20 @@
       <c r="S111" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="T111" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="U111" s="9">
+        <v>66</v>
+      </c>
+      <c r="V111" s="9">
+        <v>160</v>
+      </c>
+      <c r="W111" s="9">
+        <v>0</v>
+      </c>
       <c r="X111" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y111" s="9" t="s">
         <v>151</v>
@@ -8363,12 +8497,20 @@
       <c r="S112" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
+      <c r="T112" s="9">
+        <v>1.27</v>
+      </c>
+      <c r="U112" s="9">
+        <v>95</v>
+      </c>
+      <c r="V112" s="9">
+        <v>330</v>
+      </c>
+      <c r="W112" s="9">
+        <v>0</v>
+      </c>
       <c r="X112" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y112" s="9" t="s">
         <v>151</v>
@@ -8495,12 +8637,24 @@
       <c r="Q114" t="s">
         <v>9</v>
       </c>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
+      <c r="S114" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T114" s="9">
+        <v>313.27</v>
+      </c>
+      <c r="U114" s="9">
+        <v>7487</v>
+      </c>
+      <c r="V114" s="9">
+        <v>1479</v>
+      </c>
+      <c r="W114" s="9">
+        <v>62</v>
+      </c>
+      <c r="X114" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y114" s="9"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
@@ -8562,7 +8716,9 @@
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
-      <c r="X115" s="9"/>
+      <c r="X115" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y115" s="9"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
@@ -8689,12 +8845,20 @@
       <c r="S117" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
+      <c r="T117" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="U117" s="9">
+        <v>292</v>
+      </c>
+      <c r="V117" s="9">
+        <v>430</v>
+      </c>
+      <c r="W117" s="9">
+        <v>2</v>
+      </c>
       <c r="X117" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y117" s="9" t="s">
         <v>151</v>
@@ -8821,12 +8985,20 @@
       <c r="S119" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
+      <c r="T119" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="U119" s="9">
+        <v>109</v>
+      </c>
+      <c r="V119" s="9">
+        <v>376</v>
+      </c>
+      <c r="W119" s="9">
+        <v>0</v>
+      </c>
       <c r="X119" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y119" s="9" t="s">
         <v>151</v>
@@ -8881,12 +9053,16 @@
       <c r="Q120" t="s">
         <v>9</v>
       </c>
-      <c r="S120" s="9"/>
+      <c r="S120" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
+      <c r="X120" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="Y120" s="9"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
@@ -8941,12 +9117,20 @@
       <c r="S121" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
+      <c r="T121" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="U121" s="9">
+        <v>316</v>
+      </c>
+      <c r="V121" s="9">
+        <v>622</v>
+      </c>
+      <c r="W121" s="9">
+        <v>0</v>
+      </c>
       <c r="X121" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y121" s="9" t="s">
         <v>151</v>
@@ -9004,12 +9188,20 @@
       <c r="S122" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
+      <c r="T122" s="9">
+        <v>16.38</v>
+      </c>
+      <c r="U122" s="9">
+        <v>1141</v>
+      </c>
+      <c r="V122" s="9">
+        <v>1318</v>
+      </c>
+      <c r="W122" s="9">
+        <v>8</v>
+      </c>
       <c r="X122" s="9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Y122" s="9" t="s">
         <v>151</v>

--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E3CB1-3558-4D20-8BF1-7E79AD3E9897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D467531-74AB-445E-8BF9-503E82411FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
     <sheet name="AG" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
-    <sheet name="hiperparâmetros" sheetId="5" r:id="rId5"/>
+    <sheet name="hiperparâmetros pc" sheetId="5" r:id="rId5"/>
+    <sheet name="hiperparâmetros pm" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="196">
   <si>
     <t>Código</t>
   </si>
@@ -600,12 +601,30 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>pc = 80, passo = 50</t>
+  </si>
+  <si>
+    <t>pm = 1</t>
+  </si>
+  <si>
+    <t>pm = 2</t>
+  </si>
+  <si>
+    <t>pm = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm = 5 </t>
+  </si>
+  <si>
+    <t>pm = 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +685,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -693,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -705,9 +730,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2638,6 +2660,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Avaliação parâmetro</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> pc</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2690,7 +2742,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>hiperparâmetros!$M$2:$M$11</c:f>
+              <c:f>'hiperparâmetros pc'!$M$2:$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2728,7 +2780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hiperparâmetros!$R$2:$R$11</c:f>
+              <c:f>'hiperparâmetros pc'!$R$2:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2742,7 +2794,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
@@ -2791,6 +2843,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>parâmetro</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de cruzamento</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2856,6 +2968,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>janelas finais</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2901,6 +3068,901 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Avaliação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> pc</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'hiperparâmetros pc'!$M$14:$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>pc = 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pc = 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pc = 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pc = 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pc = 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pc = 60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pc = 70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pc = 80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pc = 90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pc = 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'hiperparâmetros pc'!$R$14:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6386-4CFC-80E6-E58B0E52564B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1930093711"/>
+        <c:axId val="1927502255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1930093711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>parâmetro</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de cruzamento</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1927502255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1927502255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Janelas finais</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930093711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Avaliação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> pm</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'hiperparâmetros pm'!$M$1:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>pm = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pm = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pm = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pm = 5 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pm = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'hiperparâmetros pm'!$R$1:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B1-4093-BF47-340B8869993D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2107145279"/>
+        <c:axId val="2107536751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2107145279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>parâmetro de mutação</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107536751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107536751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Janelas finais</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107145279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3064,6 +4126,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5117,6 +6259,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5261,6 +7435,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5048F0EE-13D5-8E29-420D-4394702BBD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F296FB-D326-3639-D7C4-B1B8676A842B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53577</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375046</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7B4F22-B2FD-68FE-2B36-9C70A28E732D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5580,8 +7831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:X34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31565,10 +33816,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F78371-B97C-498F-806F-161A56002DC3}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31693,19 +33944,19 @@
       <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="8">
         <v>38.869999999999997</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2">
         <v>2366</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2">
         <v>425</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2">
         <v>25</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" t="s">
         <v>9</v>
       </c>
       <c r="T2" t="s">
@@ -31719,19 +33970,19 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="8">
         <v>35.270000000000003</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3">
         <v>2644</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3">
         <v>425</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3">
         <v>28</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
       <c r="T3" t="s">
@@ -31745,19 +33996,19 @@
       <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="8">
         <v>38.97</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4">
         <v>2567</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4">
         <v>425</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4">
         <v>26</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" t="s">
         <v>9</v>
       </c>
       <c r="T4" t="s">
@@ -31771,19 +34022,19 @@
       <c r="N5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="12">
-        <v>28.45</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1931</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="O5" s="8">
+        <v>31.01</v>
+      </c>
+      <c r="P5">
+        <v>2036</v>
+      </c>
+      <c r="Q5">
         <v>425</v>
       </c>
-      <c r="R5" s="11">
-        <v>18</v>
-      </c>
-      <c r="S5" s="11" t="s">
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
         <v>9</v>
       </c>
       <c r="T5" t="s">
@@ -31800,19 +34051,19 @@
       <c r="N6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="8">
         <v>26.7</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6">
         <v>2007</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6">
         <v>425</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6">
         <v>20</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" t="s">
         <v>9</v>
       </c>
       <c r="T6" t="s">
@@ -31829,16 +34080,16 @@
       <c r="O7" s="8">
         <v>36.94</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7">
         <v>2565</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7">
         <v>425</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7">
         <v>22</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" t="s">
         <v>9</v>
       </c>
       <c r="T7" t="s">
@@ -31855,16 +34106,16 @@
       <c r="O8" s="8">
         <v>32</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8">
         <v>2257</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8">
         <v>425</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8">
         <v>21</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" t="s">
         <v>9</v>
       </c>
       <c r="T8" t="s">
@@ -31881,16 +34132,16 @@
       <c r="O9" s="8">
         <v>36.159999999999997</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9">
         <v>2533</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9">
         <v>425</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9">
         <v>24</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" t="s">
         <v>9</v>
       </c>
       <c r="T9" t="s">
@@ -31907,16 +34158,16 @@
       <c r="O10" s="8">
         <v>26.79</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10">
         <v>2037</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10">
         <v>425</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10">
         <v>21</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" t="s">
         <v>9</v>
       </c>
       <c r="T10" t="s">
@@ -31933,16 +34184,16 @@
       <c r="O11" s="8">
         <v>34.44</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11">
         <v>2963</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11">
         <v>425</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11">
         <v>24</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" t="s">
         <v>9</v>
       </c>
       <c r="T11" t="s">
@@ -31956,49 +34207,47 @@
       <c r="B14">
         <v>1805</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
         <v>17</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14">
         <v>47</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14">
         <v>21</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="8"/>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="12">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="P14" s="11">
-        <v>1124</v>
-      </c>
-      <c r="Q14" s="11">
+      <c r="O14" s="8">
+        <v>21.48</v>
+      </c>
+      <c r="P14">
+        <v>1105</v>
+      </c>
+      <c r="Q14">
         <v>425</v>
       </c>
-      <c r="R14" s="11">
-        <v>11</v>
-      </c>
-      <c r="S14" s="11" t="s">
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
         <v>9</v>
       </c>
       <c r="T14" t="s">
@@ -32007,24 +34256,24 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="12">
-        <v>18.05</v>
-      </c>
-      <c r="P15" s="11">
-        <v>1089</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="O15" s="8">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="P15">
+        <v>1188</v>
+      </c>
+      <c r="Q15">
         <v>425</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15">
         <v>12</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" t="s">
         <v>9</v>
       </c>
       <c r="T15" t="s">
@@ -32033,24 +34282,24 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="12">
-        <v>19.61</v>
-      </c>
-      <c r="P16" s="11">
-        <v>1245</v>
-      </c>
-      <c r="Q16" s="11">
+      <c r="O16" s="8">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="P16">
+        <v>1124</v>
+      </c>
+      <c r="Q16">
         <v>425</v>
       </c>
-      <c r="R16" s="11">
-        <v>13</v>
-      </c>
-      <c r="S16" s="11" t="s">
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="S16" t="s">
         <v>9</v>
       </c>
       <c r="T16" t="s">
@@ -32059,24 +34308,24 @@
     </row>
     <row r="17" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="8">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="P17" s="11">
-        <v>1279</v>
-      </c>
-      <c r="Q17" s="11">
+        <v>18.05</v>
+      </c>
+      <c r="P17">
+        <v>1089</v>
+      </c>
+      <c r="Q17">
         <v>425</v>
       </c>
-      <c r="R17" s="11">
-        <v>10</v>
-      </c>
-      <c r="S17" s="11" t="s">
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17" t="s">
         <v>9</v>
       </c>
       <c r="T17" t="s">
@@ -32085,24 +34334,24 @@
     </row>
     <row r="18" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="8">
-        <v>17.61</v>
-      </c>
-      <c r="P18" s="11">
-        <v>1121</v>
-      </c>
-      <c r="Q18" s="11">
+        <v>19.61</v>
+      </c>
+      <c r="P18">
+        <v>1245</v>
+      </c>
+      <c r="Q18">
         <v>425</v>
       </c>
-      <c r="R18" s="11">
-        <v>12</v>
-      </c>
-      <c r="S18" s="11" t="s">
+      <c r="R18">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
         <v>9</v>
       </c>
       <c r="T18" t="s">
@@ -32111,16 +34360,24 @@
     </row>
     <row r="19" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s">
         <v>3</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11" t="s">
+      <c r="O19" s="8">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="P19">
+        <v>1279</v>
+      </c>
+      <c r="Q19">
+        <v>425</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19" t="s">
         <v>9</v>
       </c>
       <c r="T19" t="s">
@@ -32129,16 +34386,24 @@
     </row>
     <row r="20" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11" t="s">
+      <c r="O20" s="8">
+        <v>17.61</v>
+      </c>
+      <c r="P20">
+        <v>1121</v>
+      </c>
+      <c r="Q20">
+        <v>425</v>
+      </c>
+      <c r="R20">
+        <v>12</v>
+      </c>
+      <c r="S20" t="s">
         <v>9</v>
       </c>
       <c r="T20" t="s">
@@ -32147,19 +34412,79 @@
     </row>
     <row r="21" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="8">
+        <v>18.68</v>
+      </c>
+      <c r="P21">
+        <v>1109</v>
+      </c>
+      <c r="Q21">
+        <v>425</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="8">
+        <v>20.02</v>
+      </c>
+      <c r="P22">
+        <v>1210</v>
+      </c>
+      <c r="Q22">
+        <v>425</v>
+      </c>
+      <c r="R22">
+        <v>12</v>
+      </c>
+      <c r="S22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
         <v>188</v>
       </c>
-      <c r="N21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="8">
+        <v>19.43</v>
+      </c>
+      <c r="P23">
+        <v>1241</v>
+      </c>
+      <c r="Q23">
+        <v>425</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" t="s">
         <v>179</v>
       </c>
     </row>
@@ -32167,4 +34492,194 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A96D16-27FE-438D-94A8-9501C6448DAB}">
+  <dimension ref="A1:T10"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>1805</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <v>47</v>
+      </c>
+      <c r="J1">
+        <v>21</v>
+      </c>
+      <c r="K1">
+        <v>50</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="8">
+        <v>18.68</v>
+      </c>
+      <c r="P1">
+        <v>1109</v>
+      </c>
+      <c r="Q1">
+        <v>425</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8">
+        <v>17.78</v>
+      </c>
+      <c r="P2">
+        <v>1319</v>
+      </c>
+      <c r="Q2">
+        <v>425</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="8">
+        <v>19.02</v>
+      </c>
+      <c r="P3">
+        <v>1048</v>
+      </c>
+      <c r="Q3">
+        <v>425</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="P4">
+        <v>1200</v>
+      </c>
+      <c r="Q4">
+        <v>425</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>25.66</v>
+      </c>
+      <c r="P5">
+        <v>1425</v>
+      </c>
+      <c r="Q5">
+        <v>425</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D467531-74AB-445E-8BF9-503E82411FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA16B095-AB17-478E-A370-C6800CBA9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
     <sheet name="hiperparâmetros pc" sheetId="5" r:id="rId5"/>
     <sheet name="hiperparâmetros pm" sheetId="6" r:id="rId6"/>
+    <sheet name="hiperparâmetro nro_ind" sheetId="8" r:id="rId7"/>
+    <sheet name="modalidade 2 somente" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="203">
   <si>
     <t>Código</t>
   </si>
@@ -618,6 +620,27 @@
   </si>
   <si>
     <t>pm = 10</t>
+  </si>
+  <si>
+    <t>Valor ótimo</t>
+  </si>
+  <si>
+    <t>Valor AG</t>
+  </si>
+  <si>
+    <t>100 indivíduos</t>
+  </si>
+  <si>
+    <t>janelas</t>
+  </si>
+  <si>
+    <t>pm = 1, passo = 100, 100 ind</t>
+  </si>
+  <si>
+    <t>50 indivíduos</t>
+  </si>
+  <si>
+    <t>pm = 1, passo = 100, 50 ind</t>
   </si>
 </sst>
 </file>
@@ -4005,6 +4028,728 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparativo PM vs AG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Valor ótimo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'modalidade 2 somente'!$AA$2:$AA$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7293-4322-9A2B-77BFA922EDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Valor AG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'modalidade 2 somente'!$AB$2:$AB$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7293-4322-9A2B-77BFA922EDBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1060328240"/>
+        <c:axId val="1060555056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1060328240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Unidade escolar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060555056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1060555056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Janelas finais</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060328240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4206,6 +4951,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7291,6 +8076,531 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7512,6 +8822,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7B4F22-B2FD-68FE-2B36-9C70A28E732D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>77390</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A627AA69-11E5-DCEF-3B22-B007721C7719}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7831,8 +9182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15591,7 +16942,7 @@
         <v>9</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
@@ -33819,7 +35170,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34499,7 +35850,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34682,4 +36033,3579 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A422575-FBC0-4756-9757-3F113C019F80}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1805</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="8">
+        <v>21.48</v>
+      </c>
+      <c r="P2">
+        <v>1105</v>
+      </c>
+      <c r="Q2">
+        <v>425</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="8">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1188</v>
+      </c>
+      <c r="Q3">
+        <v>425</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="P4">
+        <v>1124</v>
+      </c>
+      <c r="Q4">
+        <v>425</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>18.05</v>
+      </c>
+      <c r="P5">
+        <v>1089</v>
+      </c>
+      <c r="Q5">
+        <v>425</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>183</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>19.61</v>
+      </c>
+      <c r="P6">
+        <v>1245</v>
+      </c>
+      <c r="Q6">
+        <v>425</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1279</v>
+      </c>
+      <c r="Q7">
+        <v>425</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>17.61</v>
+      </c>
+      <c r="P8">
+        <v>1121</v>
+      </c>
+      <c r="Q8">
+        <v>425</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>18.68</v>
+      </c>
+      <c r="P9">
+        <v>1109</v>
+      </c>
+      <c r="Q9">
+        <v>425</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>20.02</v>
+      </c>
+      <c r="P10">
+        <v>1210</v>
+      </c>
+      <c r="Q10">
+        <v>425</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>19.43</v>
+      </c>
+      <c r="P11">
+        <v>1241</v>
+      </c>
+      <c r="Q11">
+        <v>425</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="8">
+        <v>67.36</v>
+      </c>
+      <c r="P13">
+        <v>1740</v>
+      </c>
+      <c r="Q13">
+        <v>425</v>
+      </c>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="8">
+        <v>69.63</v>
+      </c>
+      <c r="P14">
+        <v>1638</v>
+      </c>
+      <c r="Q14">
+        <v>425</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="8">
+        <v>59.56</v>
+      </c>
+      <c r="P15">
+        <v>1731</v>
+      </c>
+      <c r="Q15">
+        <v>425</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="8">
+        <v>56.88</v>
+      </c>
+      <c r="P16">
+        <v>1605</v>
+      </c>
+      <c r="Q16">
+        <v>425</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="S16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8">
+        <v>30.24</v>
+      </c>
+      <c r="P18">
+        <v>1850</v>
+      </c>
+      <c r="Q18">
+        <v>425</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="8">
+        <v>22.57</v>
+      </c>
+      <c r="P19">
+        <v>1618</v>
+      </c>
+      <c r="Q19">
+        <v>425</v>
+      </c>
+      <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>28.49</v>
+      </c>
+      <c r="P20">
+        <v>2119</v>
+      </c>
+      <c r="Q20">
+        <v>425</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="8">
+        <v>31.62</v>
+      </c>
+      <c r="P21">
+        <v>2032</v>
+      </c>
+      <c r="Q21">
+        <v>425</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF47BCA1-A7C1-4D1B-BCF2-F3290BA24014}">
+  <dimension ref="A1:AB44"/>
+  <sheetViews>
+    <sheetView topLeftCell="K2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>2852</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="M2">
+        <v>1800</v>
+      </c>
+      <c r="N2">
+        <v>600</v>
+      </c>
+      <c r="O2">
+        <v>480</v>
+      </c>
+      <c r="P2">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="9">
+        <v>60.55</v>
+      </c>
+      <c r="U2" s="9">
+        <v>3358</v>
+      </c>
+      <c r="V2" s="9">
+        <v>600</v>
+      </c>
+      <c r="W2" s="9">
+        <v>54</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA2">
+        <f>P2</f>
+        <v>45</v>
+      </c>
+      <c r="AB2">
+        <f>W2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>4359</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="M3">
+        <v>4750</v>
+      </c>
+      <c r="N3">
+        <v>932</v>
+      </c>
+      <c r="O3">
+        <v>915</v>
+      </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="9">
+        <v>144.74</v>
+      </c>
+      <c r="U3" s="9">
+        <v>6054</v>
+      </c>
+      <c r="V3" s="9">
+        <v>932</v>
+      </c>
+      <c r="W3" s="9">
+        <v>59</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA37" si="0">P3</f>
+        <v>40</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB37" si="1">W3</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>4219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>105</v>
+      </c>
+      <c r="J4">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4" s="8">
+        <v>11.71</v>
+      </c>
+      <c r="M4">
+        <v>10950</v>
+      </c>
+      <c r="N4">
+        <v>1479</v>
+      </c>
+      <c r="O4">
+        <v>1650</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="9">
+        <v>313.27</v>
+      </c>
+      <c r="U4" s="9">
+        <v>7487</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1479</v>
+      </c>
+      <c r="W4" s="9">
+        <v>62</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="9"/>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>102660</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6.65</v>
+      </c>
+      <c r="M5">
+        <v>4375</v>
+      </c>
+      <c r="N5">
+        <v>932</v>
+      </c>
+      <c r="O5">
+        <v>930</v>
+      </c>
+      <c r="P5">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9">
+        <v>158.72999999999999</v>
+      </c>
+      <c r="U5" s="9">
+        <v>5792</v>
+      </c>
+      <c r="V5" s="9">
+        <v>932</v>
+      </c>
+      <c r="W5" s="9">
+        <v>54</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>4049</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>153</v>
+      </c>
+      <c r="J6">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="M6">
+        <v>11600</v>
+      </c>
+      <c r="N6">
+        <v>1219</v>
+      </c>
+      <c r="O6">
+        <v>1650</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="9">
+        <v>262.58</v>
+      </c>
+      <c r="U6" s="9">
+        <v>6101</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1219</v>
+      </c>
+      <c r="W6" s="9">
+        <v>60</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="9"/>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>701</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>53</v>
+      </c>
+      <c r="I7">
+        <v>96</v>
+      </c>
+      <c r="J7">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4.21</v>
+      </c>
+      <c r="M7">
+        <v>10150</v>
+      </c>
+      <c r="N7">
+        <v>1219</v>
+      </c>
+      <c r="O7">
+        <v>1455</v>
+      </c>
+      <c r="P7">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="9">
+        <v>246.6</v>
+      </c>
+      <c r="U7" s="9">
+        <v>6281</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1219</v>
+      </c>
+      <c r="W7" s="9">
+        <v>46</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="9"/>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>3719</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8">
+        <v>4.68</v>
+      </c>
+      <c r="M8">
+        <v>3825</v>
+      </c>
+      <c r="N8">
+        <v>764</v>
+      </c>
+      <c r="O8">
+        <v>675</v>
+      </c>
+      <c r="P8">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="9">
+        <v>129.4</v>
+      </c>
+      <c r="U8" s="9">
+        <v>6164</v>
+      </c>
+      <c r="V8" s="9">
+        <v>764</v>
+      </c>
+      <c r="W8" s="9">
+        <v>53</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>2062</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" s="8">
+        <v>29.98</v>
+      </c>
+      <c r="M9">
+        <v>2750</v>
+      </c>
+      <c r="N9">
+        <v>557</v>
+      </c>
+      <c r="O9">
+        <v>585</v>
+      </c>
+      <c r="P9">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="9">
+        <v>51.86</v>
+      </c>
+      <c r="U9" s="9">
+        <v>3010</v>
+      </c>
+      <c r="V9" s="9">
+        <v>557</v>
+      </c>
+      <c r="W9" s="9">
+        <v>32</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>3832</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>53</v>
+      </c>
+      <c r="I10">
+        <v>153</v>
+      </c>
+      <c r="J10">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10" s="8">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="M10">
+        <v>14075</v>
+      </c>
+      <c r="N10">
+        <v>1318</v>
+      </c>
+      <c r="O10">
+        <v>1890</v>
+      </c>
+      <c r="P10">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="9">
+        <v>223.14</v>
+      </c>
+      <c r="U10" s="9">
+        <v>5544</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1318</v>
+      </c>
+      <c r="W10" s="9">
+        <v>41</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="9"/>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>4227</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>145</v>
+      </c>
+      <c r="J11">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>75</v>
+      </c>
+      <c r="L11" s="8">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="M11">
+        <v>7950</v>
+      </c>
+      <c r="N11">
+        <v>931</v>
+      </c>
+      <c r="O11">
+        <v>1215</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="9">
+        <v>95.94</v>
+      </c>
+      <c r="U11" s="9">
+        <v>4425</v>
+      </c>
+      <c r="V11" s="9">
+        <v>931</v>
+      </c>
+      <c r="W11" s="9">
+        <v>43</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>165</v>
+      </c>
+      <c r="J12">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="M12">
+        <v>12050</v>
+      </c>
+      <c r="N12">
+        <v>1025</v>
+      </c>
+      <c r="O12">
+        <v>1605</v>
+      </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="9">
+        <v>268.49</v>
+      </c>
+      <c r="U12" s="9">
+        <v>6906</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1025</v>
+      </c>
+      <c r="W12" s="9">
+        <v>33</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>3867</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13" s="8">
+        <v>33.76</v>
+      </c>
+      <c r="M13">
+        <v>3825</v>
+      </c>
+      <c r="N13">
+        <v>787</v>
+      </c>
+      <c r="O13">
+        <v>750</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="9">
+        <v>118.56</v>
+      </c>
+      <c r="U13" s="9">
+        <v>5049</v>
+      </c>
+      <c r="V13" s="9">
+        <v>787</v>
+      </c>
+      <c r="W13" s="9">
+        <v>37</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>4030</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>125</v>
+      </c>
+      <c r="J14">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14" s="8">
+        <v>7.03</v>
+      </c>
+      <c r="M14">
+        <v>11175</v>
+      </c>
+      <c r="N14">
+        <v>1038</v>
+      </c>
+      <c r="O14">
+        <v>1440</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="9">
+        <v>340.39</v>
+      </c>
+      <c r="U14" s="9">
+        <v>9971</v>
+      </c>
+      <c r="V14" s="9">
+        <v>1038</v>
+      </c>
+      <c r="W14" s="9">
+        <v>31</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>3727</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>105</v>
+      </c>
+      <c r="J15">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="8">
+        <v>5.66</v>
+      </c>
+      <c r="M15">
+        <v>11450</v>
+      </c>
+      <c r="N15">
+        <v>1044</v>
+      </c>
+      <c r="O15">
+        <v>1200</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="9">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="U15" s="9">
+        <v>5008</v>
+      </c>
+      <c r="V15" s="9">
+        <v>1044</v>
+      </c>
+      <c r="W15" s="9">
+        <v>39</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>4200</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <v>140</v>
+      </c>
+      <c r="J16">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>75</v>
+      </c>
+      <c r="L16" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="M16">
+        <v>15925</v>
+      </c>
+      <c r="N16">
+        <v>1298</v>
+      </c>
+      <c r="O16">
+        <v>1665</v>
+      </c>
+      <c r="P16">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="9">
+        <v>260.72000000000003</v>
+      </c>
+      <c r="U16" s="9">
+        <v>6384</v>
+      </c>
+      <c r="V16" s="9">
+        <v>1298</v>
+      </c>
+      <c r="W16" s="9">
+        <v>41</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>744</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>49</v>
+      </c>
+      <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="8">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="M17">
+        <v>2375</v>
+      </c>
+      <c r="N17">
+        <v>471</v>
+      </c>
+      <c r="O17">
+        <v>2375</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="9">
+        <v>36.54</v>
+      </c>
+      <c r="U17" s="9">
+        <v>2185</v>
+      </c>
+      <c r="V17" s="9">
+        <v>471</v>
+      </c>
+      <c r="W17" s="9">
+        <v>20</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>4022</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>47</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18" s="8">
+        <v>5.81</v>
+      </c>
+      <c r="M18">
+        <v>2900</v>
+      </c>
+      <c r="N18">
+        <v>550</v>
+      </c>
+      <c r="O18">
+        <v>510</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="U18" s="9">
+        <v>3651</v>
+      </c>
+      <c r="V18" s="9">
+        <v>550</v>
+      </c>
+      <c r="W18" s="9">
+        <v>27</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>3271</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <v>106</v>
+      </c>
+      <c r="J19">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="M19">
+        <v>9250</v>
+      </c>
+      <c r="N19">
+        <v>791</v>
+      </c>
+      <c r="O19">
+        <v>930</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="9">
+        <v>69.87</v>
+      </c>
+      <c r="U19" s="9">
+        <v>2928</v>
+      </c>
+      <c r="V19" s="9">
+        <v>791</v>
+      </c>
+      <c r="W19" s="9">
+        <v>20</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2054</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>49</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5.38</v>
+      </c>
+      <c r="M20">
+        <v>2700</v>
+      </c>
+      <c r="N20">
+        <v>548</v>
+      </c>
+      <c r="O20">
+        <v>570</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="9">
+        <v>39.46</v>
+      </c>
+      <c r="U20" s="9">
+        <v>2595</v>
+      </c>
+      <c r="V20" s="9">
+        <v>548</v>
+      </c>
+      <c r="W20" s="9">
+        <v>20</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1341</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>49</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="M21">
+        <v>2800</v>
+      </c>
+      <c r="N21">
+        <v>532</v>
+      </c>
+      <c r="O21">
+        <v>480</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="9">
+        <v>61.13</v>
+      </c>
+      <c r="U21" s="9">
+        <v>3698</v>
+      </c>
+      <c r="V21" s="9">
+        <v>532</v>
+      </c>
+      <c r="W21" s="9">
+        <v>28</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>2720</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>47</v>
+      </c>
+      <c r="J22">
+        <v>23</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22" s="8">
+        <v>26.38</v>
+      </c>
+      <c r="M22">
+        <v>3000</v>
+      </c>
+      <c r="N22">
+        <v>500</v>
+      </c>
+      <c r="O22">
+        <v>555</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="9">
+        <v>52.97</v>
+      </c>
+      <c r="U22" s="9">
+        <v>3010</v>
+      </c>
+      <c r="V22" s="9">
+        <v>500</v>
+      </c>
+      <c r="W22" s="9">
+        <v>22</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>4979</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>92</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="M23">
+        <v>5825</v>
+      </c>
+      <c r="N23">
+        <v>523</v>
+      </c>
+      <c r="O23">
+        <v>555</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="9">
+        <v>44.74</v>
+      </c>
+      <c r="U23" s="9">
+        <v>2633</v>
+      </c>
+      <c r="V23" s="9">
+        <v>523</v>
+      </c>
+      <c r="W23" s="9">
+        <v>11</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1759</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>154</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>75</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="M24">
+        <v>10825</v>
+      </c>
+      <c r="N24">
+        <v>661</v>
+      </c>
+      <c r="O24">
+        <v>1620</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="9">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="U24" s="9">
+        <v>974</v>
+      </c>
+      <c r="V24" s="9">
+        <v>661</v>
+      </c>
+      <c r="W24" s="9">
+        <v>5</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2275</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>56</v>
+      </c>
+      <c r="I25">
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25" s="8">
+        <v>3.47</v>
+      </c>
+      <c r="M25">
+        <v>15100</v>
+      </c>
+      <c r="N25">
+        <v>966</v>
+      </c>
+      <c r="O25">
+        <v>1155</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="9">
+        <v>282.19</v>
+      </c>
+      <c r="U25" s="9">
+        <v>8778</v>
+      </c>
+      <c r="V25" s="9">
+        <v>966</v>
+      </c>
+      <c r="W25" s="9">
+        <v>23</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <v>153516</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>56</v>
+      </c>
+      <c r="I26">
+        <v>92</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>75</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="M26">
+        <v>2975</v>
+      </c>
+      <c r="N26">
+        <v>385</v>
+      </c>
+      <c r="O26">
+        <v>525</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="U26" s="9">
+        <v>219</v>
+      </c>
+      <c r="V26" s="9">
+        <v>385</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>3816</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>108</v>
+      </c>
+      <c r="J27">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>75</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M27">
+        <v>19225</v>
+      </c>
+      <c r="N27">
+        <v>947</v>
+      </c>
+      <c r="O27">
+        <v>1920</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="9">
+        <v>74.62</v>
+      </c>
+      <c r="U27" s="9">
+        <v>2577</v>
+      </c>
+      <c r="V27" s="9">
+        <v>947</v>
+      </c>
+      <c r="W27" s="9">
+        <v>5</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="9"/>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>4510</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>57</v>
+      </c>
+      <c r="I28">
+        <v>113</v>
+      </c>
+      <c r="J28">
+        <v>71</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="M28">
+        <v>29625</v>
+      </c>
+      <c r="N28">
+        <v>1434</v>
+      </c>
+      <c r="O28">
+        <v>2385</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="9">
+        <v>354.27</v>
+      </c>
+      <c r="U28" s="9">
+        <v>6068</v>
+      </c>
+      <c r="V28" s="9">
+        <v>1434</v>
+      </c>
+      <c r="W28" s="9">
+        <v>20</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="9"/>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>2070</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>93</v>
+      </c>
+      <c r="J29">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>75</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="M29">
+        <v>16275</v>
+      </c>
+      <c r="N29">
+        <v>785</v>
+      </c>
+      <c r="O29">
+        <v>1560</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="9">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="U29" s="9">
+        <v>4487</v>
+      </c>
+      <c r="V29" s="9">
+        <v>785</v>
+      </c>
+      <c r="W29" s="9">
+        <v>10</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="9"/>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>158917</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>66</v>
+      </c>
+      <c r="I30">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>75</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="M30">
+        <v>3150</v>
+      </c>
+      <c r="N30">
+        <v>160</v>
+      </c>
+      <c r="O30">
+        <v>315</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="U30" s="9">
+        <v>66</v>
+      </c>
+      <c r="V30" s="9">
+        <v>160</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>112</v>
+      </c>
+      <c r="B31">
+        <v>153451</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>66</v>
+      </c>
+      <c r="I31">
+        <v>70</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>75</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="M31">
+        <v>3050</v>
+      </c>
+      <c r="N31">
+        <v>330</v>
+      </c>
+      <c r="O31">
+        <v>480</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="9">
+        <v>1.27</v>
+      </c>
+      <c r="U31" s="9">
+        <v>95</v>
+      </c>
+      <c r="V31" s="9">
+        <v>330</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>3883</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>67</v>
+      </c>
+      <c r="I32">
+        <v>114</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>75</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="M32">
+        <v>20450</v>
+      </c>
+      <c r="N32">
+        <v>1025</v>
+      </c>
+      <c r="O32">
+        <v>1605</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="9">
+        <v>84.13</v>
+      </c>
+      <c r="U32" s="9">
+        <v>2860</v>
+      </c>
+      <c r="V32" s="9">
+        <v>1025</v>
+      </c>
+      <c r="W32" s="9">
+        <v>7</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="9"/>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>2453</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>108</v>
+      </c>
+      <c r="J33">
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <v>75</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="M33">
+        <v>20325</v>
+      </c>
+      <c r="N33">
+        <v>937</v>
+      </c>
+      <c r="O33">
+        <v>1965</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="9">
+        <v>107.31</v>
+      </c>
+      <c r="U33" s="9">
+        <v>3099</v>
+      </c>
+      <c r="V33" s="9">
+        <v>937</v>
+      </c>
+      <c r="W33" s="9">
+        <v>11</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="9"/>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>153486</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>64</v>
+      </c>
+      <c r="J34">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>75</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="M34">
+        <v>2775</v>
+      </c>
+      <c r="N34">
+        <v>430</v>
+      </c>
+      <c r="O34">
+        <v>525</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="U34" s="9">
+        <v>292</v>
+      </c>
+      <c r="V34" s="9">
+        <v>430</v>
+      </c>
+      <c r="W34" s="9">
+        <v>2</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>116</v>
+      </c>
+      <c r="B35">
+        <v>153524</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>75</v>
+      </c>
+      <c r="I35">
+        <v>74</v>
+      </c>
+      <c r="J35">
+        <v>40</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="M35">
+        <v>2975</v>
+      </c>
+      <c r="N35">
+        <v>376</v>
+      </c>
+      <c r="O35">
+        <v>660</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="U35" s="9">
+        <v>109</v>
+      </c>
+      <c r="V35" s="9">
+        <v>376</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>704342</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>171</v>
+      </c>
+      <c r="I36">
+        <v>124</v>
+      </c>
+      <c r="J36">
+        <v>56</v>
+      </c>
+      <c r="K36">
+        <v>75</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="M36">
+        <v>7825</v>
+      </c>
+      <c r="N36">
+        <v>622</v>
+      </c>
+      <c r="O36">
+        <v>930</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="U36" s="9">
+        <v>316</v>
+      </c>
+      <c r="V36" s="9">
+        <v>622</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>123</v>
+      </c>
+      <c r="B37">
+        <v>700053</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>259</v>
+      </c>
+      <c r="I37">
+        <v>229</v>
+      </c>
+      <c r="J37">
+        <v>90</v>
+      </c>
+      <c r="K37">
+        <v>75</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="M37">
+        <v>11125</v>
+      </c>
+      <c r="N37">
+        <v>1318</v>
+      </c>
+      <c r="O37">
+        <v>1680</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" s="9">
+        <v>16.38</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1141</v>
+      </c>
+      <c r="V37" s="9">
+        <v>1318</v>
+      </c>
+      <c r="W37" s="9">
+        <v>8</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y137">
+    <sortCondition descending="1" ref="P2:P137"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Relatório final 129 instâncias.xlsx
+++ b/Relatório final 129 instâncias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57AFC4-E375-4E49-B370-8C6ADD091630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92CFCBF-5610-4C4B-AC88-B749D621C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{9AAF1EFB-0EF3-415D-937B-D7B9DFA7D6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -870,32 +870,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2137,32 +2114,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2913,32 +2867,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5432,32 +5363,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6226,32 +6134,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7979,7 +7864,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Processamento</a:t>
+              <a:t>Número de indivíduos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18462,8 +18347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5B6D-8B78-4410-B9E0-983D5544B74F}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27102,8 +26987,8 @@
     </row>
     <row r="137" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y139">
-    <sortCondition descending="1" ref="P2:P139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y130">
+    <sortCondition descending="1" ref="P2:P130"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -27115,7 +27000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF47BCA1-A7C1-4D1B-BCF2-F3290BA24014}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -30119,7 +30004,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40953,7 +40838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4561894D-3F14-45AD-96E8-CDD4C239C9B2}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView topLeftCell="M115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M115" workbookViewId="0">
       <selection activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
